--- a/复习表.xlsx
+++ b/复习表.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="51">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,6 +223,10 @@
   </si>
   <si>
     <t>简历项目2和3/EasyEnsamble/GBDT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梯度下降/牛顿/拟牛顿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -751,7 +755,7 @@
   <dimension ref="A1:N369"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1229,7 +1233,9 @@
       <c r="B13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="D13" s="4">
         <f t="shared" si="0"/>
         <v>9</v>

--- a/复习表.xlsx
+++ b/复习表.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="39">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,6 +145,54 @@
     <t>复习记录表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>感知机/机器学习历史ppt/神经网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点乘/叉乘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STL容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米机器学习PPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏/重载/重写,数据库事务，数据库索引,TCP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode查漏补缺/二分查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匈牙利算法/卡尔曼滤波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征选择/过拟合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LR/RF/GBDT/NB/Adaboost纸上推导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LR/RF/GBDT/NB/Adaboost纸上推导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米机器学习PPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米机器学习PPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -197,16 +245,16 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color rgb="FF00B050"/>
-      <name val="仿宋_GB2312"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
+      <color theme="1"/>
+      <name val="仿宋_GB2312"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -336,14 +384,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -367,12 +421,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -682,89 +730,89 @@
   <dimension ref="A1:N369"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74" customWidth="1"/>
     <col min="4" max="5" width="9.25" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="7.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" ht="22.5">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:14" ht="22.5">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="13" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="15"/>
-    </row>
-    <row r="4" spans="1:14" ht="96.75">
-      <c r="A4" s="10"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="10"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="17"/>
+    </row>
+    <row r="4" spans="1:14" ht="64.5">
+      <c r="A4" s="12"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="4" t="s" ph="1">
         <v>7</v>
       </c>
@@ -795,13 +843,13 @@
       <c r="M4" s="4" t="s" ph="1">
         <v>11</v>
       </c>
-      <c r="N4" s="7" ph="1"/>
+      <c r="N4" s="6" ph="1"/>
     </row>
     <row r="5" spans="1:14" ht="22.5">
       <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="7">
         <v>42549</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -811,7 +859,7 @@
         <f>A5</f>
         <v>1</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="8">
         <f>A5</f>
         <v>1</v>
       </c>
@@ -839,13 +887,13 @@
       <c r="M5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:14" ht="22.5">
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="7">
         <v>42550</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -859,7 +907,7 @@
         <f t="shared" ref="E6:E69" si="1">A6</f>
         <v>2</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="8">
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -883,13 +931,13 @@
       <c r="M6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="7"/>
+      <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14" ht="22.5">
       <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="7">
         <v>42551</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -927,13 +975,13 @@
       <c r="M7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="7"/>
+      <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" ht="22.5">
       <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="7">
         <v>42552</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -971,13 +1019,13 @@
       <c r="M8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="7"/>
+      <c r="N8" s="6"/>
     </row>
     <row r="9" spans="1:14" ht="22.5">
       <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="7">
         <v>42553</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1015,13 +1063,13 @@
       <c r="M9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="7"/>
+      <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:14" ht="22.5">
       <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="7">
         <v>42554</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1059,13 +1107,13 @@
       <c r="M10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="7"/>
+      <c r="N10" s="6"/>
     </row>
     <row r="11" spans="1:14" ht="22.5">
       <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="7">
         <v>42555</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1103,13 +1151,13 @@
       <c r="M11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N11" s="7"/>
+      <c r="N11" s="6"/>
     </row>
     <row r="12" spans="1:14" ht="22.5">
       <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="7">
         <v>42556</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1147,13 +1195,13 @@
       <c r="M12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N12" s="7"/>
+      <c r="N12" s="6"/>
     </row>
     <row r="13" spans="1:14" ht="22.5">
       <c r="A13" s="4">
         <v>9</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="7">
         <v>42557</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1191,16 +1239,18 @@
       <c r="M13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N13" s="7"/>
+      <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:14" ht="22.5">
       <c r="A14" s="4">
         <v>10</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="7">
         <v>42558</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D14" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1233,16 +1283,18 @@
       <c r="M14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N14" s="7"/>
+      <c r="N14" s="6"/>
     </row>
     <row r="15" spans="1:14" ht="22.5">
       <c r="A15" s="4">
         <v>11</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="7">
         <v>42559</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="D15" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1275,16 +1327,18 @@
       <c r="M15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N15" s="7"/>
+      <c r="N15" s="6"/>
     </row>
     <row r="16" spans="1:14" ht="22.5">
       <c r="A16" s="4">
         <v>12</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="7">
         <v>42560</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="D16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1317,16 +1371,18 @@
       <c r="M16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N16" s="7"/>
+      <c r="N16" s="6"/>
     </row>
     <row r="17" spans="1:14" ht="22.5">
       <c r="A17" s="4">
         <v>13</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="7">
         <v>42561</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="D17" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1359,16 +1415,18 @@
       <c r="M17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N17" s="7"/>
+      <c r="N17" s="6"/>
     </row>
     <row r="18" spans="1:14" ht="22.5">
       <c r="A18" s="4">
         <v>14</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="7">
         <v>42562</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="D18" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1401,16 +1459,18 @@
       <c r="M18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N18" s="7"/>
+      <c r="N18" s="6"/>
     </row>
     <row r="19" spans="1:14" ht="22.5">
       <c r="A19" s="4">
         <v>15</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="7">
         <v>42563</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="D19" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1443,16 +1503,18 @@
       <c r="M19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N19" s="7"/>
+      <c r="N19" s="6"/>
     </row>
     <row r="20" spans="1:14" ht="22.5">
       <c r="A20" s="4">
         <v>16</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="7">
         <v>42564</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D20" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1485,16 +1547,18 @@
       <c r="M20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N20" s="7"/>
+      <c r="N20" s="6"/>
     </row>
     <row r="21" spans="1:14" ht="22.5">
       <c r="A21" s="4">
         <v>17</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="7">
         <v>42565</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="D21" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1527,16 +1591,18 @@
       <c r="M21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N21" s="7"/>
+      <c r="N21" s="6"/>
     </row>
     <row r="22" spans="1:14" ht="22.5">
       <c r="A22" s="4">
         <v>18</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="7">
         <v>42566</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="D22" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1569,13 +1635,13 @@
       <c r="M22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N22" s="7"/>
+      <c r="N22" s="6"/>
     </row>
     <row r="23" spans="1:14" ht="22.5">
       <c r="A23" s="4">
         <v>19</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="7">
         <v>42567</v>
       </c>
       <c r="C23" s="3"/>
@@ -1611,16 +1677,18 @@
       <c r="M23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N23" s="7"/>
+      <c r="N23" s="6"/>
     </row>
     <row r="24" spans="1:14" ht="22.5">
       <c r="A24" s="4">
         <v>20</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="7">
         <v>42568</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="D24" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1653,13 +1721,13 @@
       <c r="M24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="7"/>
+      <c r="N24" s="6"/>
     </row>
     <row r="25" spans="1:14" ht="22.5">
       <c r="A25" s="4">
         <v>21</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="7">
         <v>42569</v>
       </c>
       <c r="C25" s="3"/>
@@ -1695,16 +1763,18 @@
       <c r="M25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N25" s="7"/>
+      <c r="N25" s="6"/>
     </row>
     <row r="26" spans="1:14" ht="22.5">
       <c r="A26" s="4">
         <v>22</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="7">
         <v>42570</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="D26" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1737,16 +1807,18 @@
       <c r="M26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N26" s="7"/>
+      <c r="N26" s="6"/>
     </row>
     <row r="27" spans="1:14" ht="22.5">
       <c r="A27" s="4">
         <v>23</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="7">
         <v>42571</v>
       </c>
-      <c r="C27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D27" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1779,13 +1851,13 @@
       <c r="M27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N27" s="7"/>
+      <c r="N27" s="6"/>
     </row>
     <row r="28" spans="1:14" ht="22.5">
       <c r="A28" s="4">
         <v>24</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="7">
         <v>42572</v>
       </c>
       <c r="C28" s="3"/>
@@ -1821,13 +1893,13 @@
       <c r="M28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N28" s="7"/>
+      <c r="N28" s="6"/>
     </row>
     <row r="29" spans="1:14" ht="22.5">
       <c r="A29" s="4">
         <v>25</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="7">
         <v>42573</v>
       </c>
       <c r="C29" s="3"/>
@@ -1863,13 +1935,13 @@
       <c r="M29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N29" s="7"/>
+      <c r="N29" s="6"/>
     </row>
     <row r="30" spans="1:14" ht="22.5">
       <c r="A30" s="4">
         <v>26</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="7">
         <v>42574</v>
       </c>
       <c r="C30" s="3"/>
@@ -1905,13 +1977,13 @@
       <c r="M30" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N30" s="7"/>
+      <c r="N30" s="6"/>
     </row>
     <row r="31" spans="1:14" ht="22.5">
       <c r="A31" s="4">
         <v>27</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="7">
         <v>42575</v>
       </c>
       <c r="C31" s="3"/>
@@ -1947,13 +2019,13 @@
       <c r="M31" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N31" s="7"/>
+      <c r="N31" s="6"/>
     </row>
     <row r="32" spans="1:14" ht="22.5">
       <c r="A32" s="4">
         <v>28</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B32" s="7">
         <v>42576</v>
       </c>
       <c r="C32" s="3"/>
@@ -1989,13 +2061,13 @@
       <c r="M32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N32" s="7"/>
+      <c r="N32" s="6"/>
     </row>
     <row r="33" spans="1:14" ht="22.5">
       <c r="A33" s="4">
         <v>29</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B33" s="7">
         <v>42577</v>
       </c>
       <c r="C33" s="3"/>
@@ -2031,13 +2103,13 @@
       <c r="M33" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N33" s="7"/>
+      <c r="N33" s="6"/>
     </row>
     <row r="34" spans="1:14" ht="22.5">
       <c r="A34" s="4">
         <v>30</v>
       </c>
-      <c r="B34" s="16">
+      <c r="B34" s="7">
         <v>42578</v>
       </c>
       <c r="C34" s="3"/>
@@ -2073,13 +2145,13 @@
       <c r="M34" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N34" s="7"/>
+      <c r="N34" s="6"/>
     </row>
     <row r="35" spans="1:14" ht="22.5">
       <c r="A35" s="4">
         <v>31</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="7">
         <v>42579</v>
       </c>
       <c r="C35" s="3"/>
@@ -2106,7 +2178,7 @@
       <c r="J35" s="4">
         <v>16</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K35" s="5">
         <v>1</v>
       </c>
       <c r="L35" s="4" t="s">
@@ -2115,13 +2187,13 @@
       <c r="M35" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N35" s="7"/>
+      <c r="N35" s="6"/>
     </row>
     <row r="36" spans="1:14" ht="22.5">
       <c r="A36" s="4">
         <v>32</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="7">
         <v>42580</v>
       </c>
       <c r="C36" s="3"/>
@@ -2148,7 +2220,7 @@
       <c r="J36" s="4">
         <v>17</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K36" s="5">
         <v>2</v>
       </c>
       <c r="L36" s="4" t="s">
@@ -2157,13 +2229,13 @@
       <c r="M36" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N36" s="7"/>
+      <c r="N36" s="6"/>
     </row>
     <row r="37" spans="1:14" ht="22.5">
       <c r="A37" s="4">
         <v>33</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="7">
         <v>42581</v>
       </c>
       <c r="C37" s="3"/>
@@ -2190,7 +2262,7 @@
       <c r="J37" s="4">
         <v>18</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K37" s="5">
         <v>3</v>
       </c>
       <c r="L37" s="4" t="s">
@@ -2199,13 +2271,13 @@
       <c r="M37" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N37" s="7"/>
+      <c r="N37" s="6"/>
     </row>
     <row r="38" spans="1:14" ht="22.5">
       <c r="A38" s="4">
         <v>34</v>
       </c>
-      <c r="B38" s="16">
+      <c r="B38" s="7">
         <v>42582</v>
       </c>
       <c r="C38" s="3"/>
@@ -2232,7 +2304,7 @@
       <c r="J38" s="4">
         <v>19</v>
       </c>
-      <c r="K38" s="6">
+      <c r="K38" s="5">
         <v>4</v>
       </c>
       <c r="L38" s="4" t="s">
@@ -2241,13 +2313,13 @@
       <c r="M38" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N38" s="7"/>
+      <c r="N38" s="6"/>
     </row>
     <row r="39" spans="1:14" ht="22.5">
       <c r="A39" s="4">
         <v>35</v>
       </c>
-      <c r="B39" s="16">
+      <c r="B39" s="7">
         <v>42583</v>
       </c>
       <c r="C39" s="3"/>
@@ -2274,7 +2346,7 @@
       <c r="J39" s="4">
         <v>20</v>
       </c>
-      <c r="K39" s="6">
+      <c r="K39" s="5">
         <v>5</v>
       </c>
       <c r="L39" s="4" t="s">
@@ -2283,13 +2355,13 @@
       <c r="M39" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="7"/>
+      <c r="N39" s="6"/>
     </row>
     <row r="40" spans="1:14" ht="22.5">
       <c r="A40" s="4">
         <v>36</v>
       </c>
-      <c r="B40" s="16">
+      <c r="B40" s="7">
         <v>42584</v>
       </c>
       <c r="C40" s="3"/>
@@ -2316,7 +2388,7 @@
       <c r="J40" s="4">
         <v>21</v>
       </c>
-      <c r="K40" s="6">
+      <c r="K40" s="5">
         <v>6</v>
       </c>
       <c r="L40" s="4" t="s">
@@ -2325,13 +2397,13 @@
       <c r="M40" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="7"/>
+      <c r="N40" s="6"/>
     </row>
     <row r="41" spans="1:14" ht="22.5">
       <c r="A41" s="4">
         <v>37</v>
       </c>
-      <c r="B41" s="16">
+      <c r="B41" s="7">
         <v>42585</v>
       </c>
       <c r="C41" s="3"/>
@@ -2358,7 +2430,7 @@
       <c r="J41" s="4">
         <v>22</v>
       </c>
-      <c r="K41" s="6">
+      <c r="K41" s="5">
         <v>7</v>
       </c>
       <c r="L41" s="4" t="s">
@@ -2367,13 +2439,13 @@
       <c r="M41" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N41" s="7"/>
+      <c r="N41" s="6"/>
     </row>
     <row r="42" spans="1:14" ht="22.5">
       <c r="A42" s="4">
         <v>38</v>
       </c>
-      <c r="B42" s="16">
+      <c r="B42" s="7">
         <v>42586</v>
       </c>
       <c r="C42" s="3"/>
@@ -2400,7 +2472,7 @@
       <c r="J42" s="4">
         <v>23</v>
       </c>
-      <c r="K42" s="6">
+      <c r="K42" s="5">
         <v>8</v>
       </c>
       <c r="L42" s="4" t="s">
@@ -2409,13 +2481,13 @@
       <c r="M42" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N42" s="7"/>
+      <c r="N42" s="6"/>
     </row>
     <row r="43" spans="1:14" ht="22.5">
       <c r="A43" s="4">
         <v>39</v>
       </c>
-      <c r="B43" s="16">
+      <c r="B43" s="7">
         <v>42587</v>
       </c>
       <c r="C43" s="3"/>
@@ -2442,7 +2514,7 @@
       <c r="J43" s="4">
         <v>24</v>
       </c>
-      <c r="K43" s="6">
+      <c r="K43" s="5">
         <v>9</v>
       </c>
       <c r="L43" s="4" t="s">
@@ -2451,13 +2523,13 @@
       <c r="M43" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N43" s="7"/>
+      <c r="N43" s="6"/>
     </row>
     <row r="44" spans="1:14" ht="22.5">
       <c r="A44" s="4">
         <v>40</v>
       </c>
-      <c r="B44" s="16">
+      <c r="B44" s="7">
         <v>42588</v>
       </c>
       <c r="C44" s="3"/>
@@ -2484,7 +2556,7 @@
       <c r="J44" s="4">
         <v>25</v>
       </c>
-      <c r="K44" s="6">
+      <c r="K44" s="5">
         <v>10</v>
       </c>
       <c r="L44" s="4" t="s">
@@ -2493,13 +2565,13 @@
       <c r="M44" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N44" s="7"/>
+      <c r="N44" s="6"/>
     </row>
     <row r="45" spans="1:14" ht="22.5">
       <c r="A45" s="4">
         <v>41</v>
       </c>
-      <c r="B45" s="16">
+      <c r="B45" s="7">
         <v>42589</v>
       </c>
       <c r="C45" s="3"/>
@@ -2526,7 +2598,7 @@
       <c r="J45" s="4">
         <v>26</v>
       </c>
-      <c r="K45" s="6">
+      <c r="K45" s="5">
         <v>11</v>
       </c>
       <c r="L45" s="4" t="s">
@@ -2535,13 +2607,13 @@
       <c r="M45" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N45" s="7"/>
+      <c r="N45" s="6"/>
     </row>
     <row r="46" spans="1:14" ht="22.5">
       <c r="A46" s="4">
         <v>42</v>
       </c>
-      <c r="B46" s="16">
+      <c r="B46" s="7">
         <v>42590</v>
       </c>
       <c r="C46" s="3"/>
@@ -2568,7 +2640,7 @@
       <c r="J46" s="4">
         <v>27</v>
       </c>
-      <c r="K46" s="6">
+      <c r="K46" s="5">
         <v>12</v>
       </c>
       <c r="L46" s="4" t="s">
@@ -2577,13 +2649,13 @@
       <c r="M46" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N46" s="7"/>
+      <c r="N46" s="6"/>
     </row>
     <row r="47" spans="1:14" ht="22.5">
       <c r="A47" s="4">
         <v>43</v>
       </c>
-      <c r="B47" s="16">
+      <c r="B47" s="7">
         <v>42591</v>
       </c>
       <c r="C47" s="3"/>
@@ -2610,7 +2682,7 @@
       <c r="J47" s="4">
         <v>28</v>
       </c>
-      <c r="K47" s="6">
+      <c r="K47" s="5">
         <v>13</v>
       </c>
       <c r="L47" s="4" t="s">
@@ -2619,13 +2691,13 @@
       <c r="M47" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N47" s="7"/>
+      <c r="N47" s="6"/>
     </row>
     <row r="48" spans="1:14" ht="22.5">
       <c r="A48" s="4">
         <v>44</v>
       </c>
-      <c r="B48" s="16">
+      <c r="B48" s="7">
         <v>42592</v>
       </c>
       <c r="C48" s="3"/>
@@ -2652,7 +2724,7 @@
       <c r="J48" s="4">
         <v>29</v>
       </c>
-      <c r="K48" s="6">
+      <c r="K48" s="5">
         <v>14</v>
       </c>
       <c r="L48" s="4" t="s">
@@ -2661,13 +2733,13 @@
       <c r="M48" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N48" s="7"/>
+      <c r="N48" s="6"/>
     </row>
     <row r="49" spans="1:14" ht="22.5">
       <c r="A49" s="4">
         <v>45</v>
       </c>
-      <c r="B49" s="16">
+      <c r="B49" s="7">
         <v>42593</v>
       </c>
       <c r="C49" s="3"/>
@@ -2694,7 +2766,7 @@
       <c r="J49" s="4">
         <v>30</v>
       </c>
-      <c r="K49" s="6">
+      <c r="K49" s="5">
         <v>15</v>
       </c>
       <c r="L49" s="4" t="s">
@@ -2703,13 +2775,13 @@
       <c r="M49" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N49" s="7"/>
+      <c r="N49" s="6"/>
     </row>
     <row r="50" spans="1:14" ht="22.5">
       <c r="A50" s="4">
         <v>46</v>
       </c>
-      <c r="B50" s="16">
+      <c r="B50" s="7">
         <v>42594</v>
       </c>
       <c r="C50" s="3"/>
@@ -2736,7 +2808,7 @@
       <c r="J50" s="4">
         <v>31</v>
       </c>
-      <c r="K50" s="6">
+      <c r="K50" s="5">
         <v>16</v>
       </c>
       <c r="L50" s="4" t="s">
@@ -2745,13 +2817,13 @@
       <c r="M50" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N50" s="7"/>
+      <c r="N50" s="6"/>
     </row>
     <row r="51" spans="1:14" ht="22.5">
       <c r="A51" s="4">
         <v>47</v>
       </c>
-      <c r="B51" s="16">
+      <c r="B51" s="7">
         <v>42595</v>
       </c>
       <c r="C51" s="3"/>
@@ -2778,7 +2850,7 @@
       <c r="J51" s="4">
         <v>32</v>
       </c>
-      <c r="K51" s="6">
+      <c r="K51" s="5">
         <v>17</v>
       </c>
       <c r="L51" s="4" t="s">
@@ -2787,13 +2859,13 @@
       <c r="M51" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N51" s="7"/>
+      <c r="N51" s="6"/>
     </row>
     <row r="52" spans="1:14" ht="22.5">
       <c r="A52" s="4">
         <v>48</v>
       </c>
-      <c r="B52" s="16">
+      <c r="B52" s="7">
         <v>42596</v>
       </c>
       <c r="C52" s="3"/>
@@ -2820,7 +2892,7 @@
       <c r="J52" s="4">
         <v>33</v>
       </c>
-      <c r="K52" s="6">
+      <c r="K52" s="5">
         <v>18</v>
       </c>
       <c r="L52" s="4" t="s">
@@ -2829,13 +2901,13 @@
       <c r="M52" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N52" s="7"/>
+      <c r="N52" s="6"/>
     </row>
     <row r="53" spans="1:14" ht="22.5">
       <c r="A53" s="4">
         <v>49</v>
       </c>
-      <c r="B53" s="16">
+      <c r="B53" s="7">
         <v>42597</v>
       </c>
       <c r="C53" s="3"/>
@@ -2862,7 +2934,7 @@
       <c r="J53" s="4">
         <v>34</v>
       </c>
-      <c r="K53" s="6">
+      <c r="K53" s="5">
         <v>19</v>
       </c>
       <c r="L53" s="4" t="s">
@@ -2871,13 +2943,13 @@
       <c r="M53" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N53" s="7"/>
+      <c r="N53" s="6"/>
     </row>
     <row r="54" spans="1:14" ht="22.5">
       <c r="A54" s="4">
         <v>50</v>
       </c>
-      <c r="B54" s="16">
+      <c r="B54" s="7">
         <v>42598</v>
       </c>
       <c r="C54" s="3"/>
@@ -2904,7 +2976,7 @@
       <c r="J54" s="4">
         <v>35</v>
       </c>
-      <c r="K54" s="6">
+      <c r="K54" s="5">
         <v>20</v>
       </c>
       <c r="L54" s="4" t="s">
@@ -2913,13 +2985,13 @@
       <c r="M54" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N54" s="7"/>
+      <c r="N54" s="6"/>
     </row>
     <row r="55" spans="1:14" ht="22.5">
       <c r="A55" s="4">
         <v>51</v>
       </c>
-      <c r="B55" s="16">
+      <c r="B55" s="7">
         <v>42599</v>
       </c>
       <c r="C55" s="3"/>
@@ -2946,7 +3018,7 @@
       <c r="J55" s="4">
         <v>36</v>
       </c>
-      <c r="K55" s="6">
+      <c r="K55" s="5">
         <v>21</v>
       </c>
       <c r="L55" s="4" t="s">
@@ -2955,13 +3027,13 @@
       <c r="M55" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N55" s="7"/>
+      <c r="N55" s="6"/>
     </row>
     <row r="56" spans="1:14" ht="22.5">
       <c r="A56" s="4">
         <v>52</v>
       </c>
-      <c r="B56" s="16">
+      <c r="B56" s="7">
         <v>42600</v>
       </c>
       <c r="C56" s="3"/>
@@ -2988,7 +3060,7 @@
       <c r="J56" s="4">
         <v>37</v>
       </c>
-      <c r="K56" s="6">
+      <c r="K56" s="5">
         <v>22</v>
       </c>
       <c r="L56" s="4" t="s">
@@ -2997,13 +3069,13 @@
       <c r="M56" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N56" s="7"/>
+      <c r="N56" s="6"/>
     </row>
     <row r="57" spans="1:14" ht="22.5">
       <c r="A57" s="4">
         <v>53</v>
       </c>
-      <c r="B57" s="16">
+      <c r="B57" s="7">
         <v>42601</v>
       </c>
       <c r="C57" s="3"/>
@@ -3030,7 +3102,7 @@
       <c r="J57" s="4">
         <v>38</v>
       </c>
-      <c r="K57" s="6">
+      <c r="K57" s="5">
         <v>23</v>
       </c>
       <c r="L57" s="4" t="s">
@@ -3039,13 +3111,13 @@
       <c r="M57" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N57" s="7"/>
+      <c r="N57" s="6"/>
     </row>
     <row r="58" spans="1:14" ht="22.5">
       <c r="A58" s="4">
         <v>54</v>
       </c>
-      <c r="B58" s="16">
+      <c r="B58" s="7">
         <v>42602</v>
       </c>
       <c r="C58" s="3"/>
@@ -3072,7 +3144,7 @@
       <c r="J58" s="4">
         <v>39</v>
       </c>
-      <c r="K58" s="6">
+      <c r="K58" s="5">
         <v>24</v>
       </c>
       <c r="L58" s="4" t="s">
@@ -3081,13 +3153,13 @@
       <c r="M58" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N58" s="7"/>
+      <c r="N58" s="6"/>
     </row>
     <row r="59" spans="1:14" ht="22.5">
       <c r="A59" s="4">
         <v>55</v>
       </c>
-      <c r="B59" s="16">
+      <c r="B59" s="7">
         <v>42603</v>
       </c>
       <c r="C59" s="3"/>
@@ -3114,7 +3186,7 @@
       <c r="J59" s="4">
         <v>40</v>
       </c>
-      <c r="K59" s="6">
+      <c r="K59" s="5">
         <v>25</v>
       </c>
       <c r="L59" s="4" t="s">
@@ -3123,13 +3195,13 @@
       <c r="M59" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N59" s="7"/>
+      <c r="N59" s="6"/>
     </row>
     <row r="60" spans="1:14" ht="22.5">
       <c r="A60" s="4">
         <v>56</v>
       </c>
-      <c r="B60" s="16">
+      <c r="B60" s="7">
         <v>42604</v>
       </c>
       <c r="C60" s="3"/>
@@ -3156,7 +3228,7 @@
       <c r="J60" s="4">
         <v>41</v>
       </c>
-      <c r="K60" s="6">
+      <c r="K60" s="5">
         <v>26</v>
       </c>
       <c r="L60" s="4" t="s">
@@ -3165,13 +3237,13 @@
       <c r="M60" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N60" s="7"/>
+      <c r="N60" s="6"/>
     </row>
     <row r="61" spans="1:14" ht="22.5">
       <c r="A61" s="4">
         <v>57</v>
       </c>
-      <c r="B61" s="16">
+      <c r="B61" s="7">
         <v>42605</v>
       </c>
       <c r="C61" s="3"/>
@@ -3198,7 +3270,7 @@
       <c r="J61" s="4">
         <v>42</v>
       </c>
-      <c r="K61" s="6">
+      <c r="K61" s="5">
         <v>27</v>
       </c>
       <c r="L61" s="4" t="s">
@@ -3207,13 +3279,13 @@
       <c r="M61" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N61" s="7"/>
+      <c r="N61" s="6"/>
     </row>
     <row r="62" spans="1:14" ht="22.5">
       <c r="A62" s="4">
         <v>58</v>
       </c>
-      <c r="B62" s="16">
+      <c r="B62" s="7">
         <v>42606</v>
       </c>
       <c r="C62" s="3"/>
@@ -3240,7 +3312,7 @@
       <c r="J62" s="4">
         <v>43</v>
       </c>
-      <c r="K62" s="6">
+      <c r="K62" s="5">
         <v>28</v>
       </c>
       <c r="L62" s="4" t="s">
@@ -3249,13 +3321,13 @@
       <c r="M62" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N62" s="7"/>
+      <c r="N62" s="6"/>
     </row>
     <row r="63" spans="1:14" ht="22.5">
       <c r="A63" s="4">
         <v>59</v>
       </c>
-      <c r="B63" s="16">
+      <c r="B63" s="7">
         <v>42607</v>
       </c>
       <c r="C63" s="3"/>
@@ -3282,7 +3354,7 @@
       <c r="J63" s="4">
         <v>44</v>
       </c>
-      <c r="K63" s="6">
+      <c r="K63" s="5">
         <v>29</v>
       </c>
       <c r="L63" s="4" t="s">
@@ -3291,13 +3363,13 @@
       <c r="M63" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N63" s="7"/>
+      <c r="N63" s="6"/>
     </row>
     <row r="64" spans="1:14" ht="22.5">
       <c r="A64" s="4">
         <v>60</v>
       </c>
-      <c r="B64" s="16">
+      <c r="B64" s="7">
         <v>42608</v>
       </c>
       <c r="C64" s="3"/>
@@ -3324,7 +3396,7 @@
       <c r="J64" s="4">
         <v>45</v>
       </c>
-      <c r="K64" s="6">
+      <c r="K64" s="5">
         <v>30</v>
       </c>
       <c r="L64" s="4" t="s">
@@ -3333,13 +3405,13 @@
       <c r="M64" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N64" s="7"/>
+      <c r="N64" s="6"/>
     </row>
     <row r="65" spans="1:14" ht="22.5">
       <c r="A65" s="4">
         <v>61</v>
       </c>
-      <c r="B65" s="16">
+      <c r="B65" s="7">
         <v>42609</v>
       </c>
       <c r="C65" s="3"/>
@@ -3366,7 +3438,7 @@
       <c r="J65" s="4">
         <v>46</v>
       </c>
-      <c r="K65" s="6">
+      <c r="K65" s="5">
         <v>31</v>
       </c>
       <c r="L65" s="4" t="s">
@@ -3375,13 +3447,13 @@
       <c r="M65" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N65" s="7"/>
+      <c r="N65" s="6"/>
     </row>
     <row r="66" spans="1:14" ht="22.5">
       <c r="A66" s="4">
         <v>62</v>
       </c>
-      <c r="B66" s="16">
+      <c r="B66" s="7">
         <v>42610</v>
       </c>
       <c r="C66" s="3"/>
@@ -3408,7 +3480,7 @@
       <c r="J66" s="4">
         <v>47</v>
       </c>
-      <c r="K66" s="6">
+      <c r="K66" s="5">
         <v>32</v>
       </c>
       <c r="L66" s="4" t="s">
@@ -3417,13 +3489,13 @@
       <c r="M66" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N66" s="7"/>
+      <c r="N66" s="6"/>
     </row>
     <row r="67" spans="1:14" ht="22.5">
       <c r="A67" s="4">
         <v>63</v>
       </c>
-      <c r="B67" s="16">
+      <c r="B67" s="7">
         <v>42611</v>
       </c>
       <c r="C67" s="3"/>
@@ -3450,7 +3522,7 @@
       <c r="J67" s="4">
         <v>48</v>
       </c>
-      <c r="K67" s="6">
+      <c r="K67" s="5">
         <v>33</v>
       </c>
       <c r="L67" s="4" t="s">
@@ -3459,13 +3531,13 @@
       <c r="M67" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N67" s="7"/>
+      <c r="N67" s="6"/>
     </row>
     <row r="68" spans="1:14" ht="22.5">
       <c r="A68" s="4">
         <v>64</v>
       </c>
-      <c r="B68" s="16">
+      <c r="B68" s="7">
         <v>42612</v>
       </c>
       <c r="C68" s="3"/>
@@ -3492,7 +3564,7 @@
       <c r="J68" s="4">
         <v>49</v>
       </c>
-      <c r="K68" s="6">
+      <c r="K68" s="5">
         <v>34</v>
       </c>
       <c r="L68" s="4" t="s">
@@ -3501,13 +3573,13 @@
       <c r="M68" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N68" s="7"/>
+      <c r="N68" s="6"/>
     </row>
     <row r="69" spans="1:14" ht="22.5">
       <c r="A69" s="4">
         <v>65</v>
       </c>
-      <c r="B69" s="16">
+      <c r="B69" s="7">
         <v>42613</v>
       </c>
       <c r="C69" s="3"/>
@@ -3534,7 +3606,7 @@
       <c r="J69" s="4">
         <v>50</v>
       </c>
-      <c r="K69" s="6">
+      <c r="K69" s="5">
         <v>35</v>
       </c>
       <c r="L69" s="4" t="s">
@@ -3543,13 +3615,13 @@
       <c r="M69" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N69" s="7"/>
+      <c r="N69" s="6"/>
     </row>
     <row r="70" spans="1:14" ht="22.5">
       <c r="A70" s="4">
         <v>66</v>
       </c>
-      <c r="B70" s="16">
+      <c r="B70" s="7">
         <v>42614</v>
       </c>
       <c r="C70" s="3"/>
@@ -3576,7 +3648,7 @@
       <c r="J70" s="4">
         <v>51</v>
       </c>
-      <c r="K70" s="6">
+      <c r="K70" s="5">
         <v>36</v>
       </c>
       <c r="L70" s="4" t="s">
@@ -3585,13 +3657,13 @@
       <c r="M70" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N70" s="7"/>
+      <c r="N70" s="6"/>
     </row>
     <row r="71" spans="1:14" ht="22.5">
       <c r="A71" s="4">
         <v>67</v>
       </c>
-      <c r="B71" s="16">
+      <c r="B71" s="7">
         <v>42615</v>
       </c>
       <c r="C71" s="3"/>
@@ -3618,7 +3690,7 @@
       <c r="J71" s="4">
         <v>52</v>
       </c>
-      <c r="K71" s="6">
+      <c r="K71" s="5">
         <v>37</v>
       </c>
       <c r="L71" s="4" t="s">
@@ -3627,13 +3699,13 @@
       <c r="M71" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N71" s="7"/>
+      <c r="N71" s="6"/>
     </row>
     <row r="72" spans="1:14" ht="22.5">
       <c r="A72" s="4">
         <v>68</v>
       </c>
-      <c r="B72" s="16">
+      <c r="B72" s="7">
         <v>42616</v>
       </c>
       <c r="C72" s="3"/>
@@ -3660,7 +3732,7 @@
       <c r="J72" s="4">
         <v>53</v>
       </c>
-      <c r="K72" s="6">
+      <c r="K72" s="5">
         <v>38</v>
       </c>
       <c r="L72" s="4" t="s">
@@ -3669,13 +3741,13 @@
       <c r="M72" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N72" s="7"/>
+      <c r="N72" s="6"/>
     </row>
     <row r="73" spans="1:14" ht="22.5">
       <c r="A73" s="4">
         <v>69</v>
       </c>
-      <c r="B73" s="16">
+      <c r="B73" s="7">
         <v>42617</v>
       </c>
       <c r="C73" s="3"/>
@@ -3702,7 +3774,7 @@
       <c r="J73" s="4">
         <v>54</v>
       </c>
-      <c r="K73" s="6">
+      <c r="K73" s="5">
         <v>39</v>
       </c>
       <c r="L73" s="4" t="s">
@@ -3711,13 +3783,13 @@
       <c r="M73" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N73" s="7"/>
+      <c r="N73" s="6"/>
     </row>
     <row r="74" spans="1:14" ht="22.5">
       <c r="A74" s="4">
         <v>70</v>
       </c>
-      <c r="B74" s="16">
+      <c r="B74" s="7">
         <v>42618</v>
       </c>
       <c r="C74" s="3"/>
@@ -3744,7 +3816,7 @@
       <c r="J74" s="4">
         <v>55</v>
       </c>
-      <c r="K74" s="6">
+      <c r="K74" s="5">
         <v>40</v>
       </c>
       <c r="L74" s="4" t="s">
@@ -3753,13 +3825,13 @@
       <c r="M74" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N74" s="7"/>
+      <c r="N74" s="6"/>
     </row>
     <row r="75" spans="1:14" ht="22.5">
       <c r="A75" s="4">
         <v>71</v>
       </c>
-      <c r="B75" s="16">
+      <c r="B75" s="7">
         <v>42619</v>
       </c>
       <c r="C75" s="3"/>
@@ -3786,7 +3858,7 @@
       <c r="J75" s="4">
         <v>56</v>
       </c>
-      <c r="K75" s="6">
+      <c r="K75" s="5">
         <v>41</v>
       </c>
       <c r="L75" s="4" t="s">
@@ -3795,13 +3867,13 @@
       <c r="M75" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N75" s="7"/>
+      <c r="N75" s="6"/>
     </row>
     <row r="76" spans="1:14" ht="22.5">
       <c r="A76" s="4">
         <v>72</v>
       </c>
-      <c r="B76" s="16">
+      <c r="B76" s="7">
         <v>42620</v>
       </c>
       <c r="C76" s="3"/>
@@ -3828,7 +3900,7 @@
       <c r="J76" s="4">
         <v>57</v>
       </c>
-      <c r="K76" s="6">
+      <c r="K76" s="5">
         <v>42</v>
       </c>
       <c r="L76" s="4" t="s">
@@ -3837,13 +3909,13 @@
       <c r="M76" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N76" s="7"/>
+      <c r="N76" s="6"/>
     </row>
     <row r="77" spans="1:14" ht="22.5">
       <c r="A77" s="4">
         <v>73</v>
       </c>
-      <c r="B77" s="16">
+      <c r="B77" s="7">
         <v>42621</v>
       </c>
       <c r="C77" s="3"/>
@@ -3870,7 +3942,7 @@
       <c r="J77" s="4">
         <v>58</v>
       </c>
-      <c r="K77" s="6">
+      <c r="K77" s="5">
         <v>43</v>
       </c>
       <c r="L77" s="4" t="s">
@@ -3879,13 +3951,13 @@
       <c r="M77" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N77" s="7"/>
+      <c r="N77" s="6"/>
     </row>
     <row r="78" spans="1:14" ht="22.5">
       <c r="A78" s="4">
         <v>74</v>
       </c>
-      <c r="B78" s="16">
+      <c r="B78" s="7">
         <v>42622</v>
       </c>
       <c r="C78" s="3"/>
@@ -3912,7 +3984,7 @@
       <c r="J78" s="4">
         <v>59</v>
       </c>
-      <c r="K78" s="6">
+      <c r="K78" s="5">
         <v>44</v>
       </c>
       <c r="L78" s="4" t="s">
@@ -3921,13 +3993,13 @@
       <c r="M78" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N78" s="7"/>
+      <c r="N78" s="6"/>
     </row>
     <row r="79" spans="1:14" ht="22.5">
       <c r="A79" s="4">
         <v>75</v>
       </c>
-      <c r="B79" s="16">
+      <c r="B79" s="7">
         <v>42623</v>
       </c>
       <c r="C79" s="3"/>
@@ -3954,7 +4026,7 @@
       <c r="J79" s="4">
         <v>60</v>
       </c>
-      <c r="K79" s="6">
+      <c r="K79" s="5">
         <v>45</v>
       </c>
       <c r="L79" s="4" t="s">
@@ -3963,13 +4035,13 @@
       <c r="M79" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N79" s="7"/>
+      <c r="N79" s="6"/>
     </row>
     <row r="80" spans="1:14" ht="22.5">
       <c r="A80" s="4">
         <v>76</v>
       </c>
-      <c r="B80" s="16">
+      <c r="B80" s="7">
         <v>42624</v>
       </c>
       <c r="C80" s="3"/>
@@ -3996,7 +4068,7 @@
       <c r="J80" s="4">
         <v>61</v>
       </c>
-      <c r="K80" s="6">
+      <c r="K80" s="5">
         <v>46</v>
       </c>
       <c r="L80" s="4" t="s">
@@ -4005,13 +4077,13 @@
       <c r="M80" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N80" s="7"/>
+      <c r="N80" s="6"/>
     </row>
     <row r="81" spans="1:14" ht="22.5">
       <c r="A81" s="4">
         <v>77</v>
       </c>
-      <c r="B81" s="16">
+      <c r="B81" s="7">
         <v>42625</v>
       </c>
       <c r="C81" s="3"/>
@@ -4038,7 +4110,7 @@
       <c r="J81" s="4">
         <v>62</v>
       </c>
-      <c r="K81" s="6">
+      <c r="K81" s="5">
         <v>47</v>
       </c>
       <c r="L81" s="4" t="s">
@@ -4047,13 +4119,13 @@
       <c r="M81" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N81" s="7"/>
+      <c r="N81" s="6"/>
     </row>
     <row r="82" spans="1:14" ht="22.5">
       <c r="A82" s="4">
         <v>78</v>
       </c>
-      <c r="B82" s="16">
+      <c r="B82" s="7">
         <v>42626</v>
       </c>
       <c r="C82" s="3"/>
@@ -4080,7 +4152,7 @@
       <c r="J82" s="4">
         <v>63</v>
       </c>
-      <c r="K82" s="6">
+      <c r="K82" s="5">
         <v>48</v>
       </c>
       <c r="L82" s="4" t="s">
@@ -4089,13 +4161,13 @@
       <c r="M82" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N82" s="7"/>
+      <c r="N82" s="6"/>
     </row>
     <row r="83" spans="1:14" ht="22.5">
       <c r="A83" s="4">
         <v>79</v>
       </c>
-      <c r="B83" s="16">
+      <c r="B83" s="7">
         <v>42627</v>
       </c>
       <c r="C83" s="3"/>
@@ -4122,7 +4194,7 @@
       <c r="J83" s="4">
         <v>64</v>
       </c>
-      <c r="K83" s="6">
+      <c r="K83" s="5">
         <v>49</v>
       </c>
       <c r="L83" s="4" t="s">
@@ -4131,13 +4203,13 @@
       <c r="M83" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N83" s="7"/>
+      <c r="N83" s="6"/>
     </row>
     <row r="84" spans="1:14" ht="22.5">
       <c r="A84" s="4">
         <v>80</v>
       </c>
-      <c r="B84" s="16">
+      <c r="B84" s="7">
         <v>42628</v>
       </c>
       <c r="C84" s="3"/>
@@ -4164,7 +4236,7 @@
       <c r="J84" s="4">
         <v>65</v>
       </c>
-      <c r="K84" s="6">
+      <c r="K84" s="5">
         <v>50</v>
       </c>
       <c r="L84" s="4" t="s">
@@ -4173,13 +4245,13 @@
       <c r="M84" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N84" s="7"/>
+      <c r="N84" s="6"/>
     </row>
     <row r="85" spans="1:14" ht="22.5">
       <c r="A85" s="4">
         <v>81</v>
       </c>
-      <c r="B85" s="16">
+      <c r="B85" s="7">
         <v>42629</v>
       </c>
       <c r="C85" s="3"/>
@@ -4206,7 +4278,7 @@
       <c r="J85" s="4">
         <v>66</v>
       </c>
-      <c r="K85" s="6">
+      <c r="K85" s="5">
         <v>51</v>
       </c>
       <c r="L85" s="4" t="s">
@@ -4215,13 +4287,13 @@
       <c r="M85" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N85" s="7"/>
+      <c r="N85" s="6"/>
     </row>
     <row r="86" spans="1:14" ht="22.5">
       <c r="A86" s="4">
         <v>82</v>
       </c>
-      <c r="B86" s="16">
+      <c r="B86" s="7">
         <v>42630</v>
       </c>
       <c r="C86" s="3"/>
@@ -4248,7 +4320,7 @@
       <c r="J86" s="4">
         <v>67</v>
       </c>
-      <c r="K86" s="6">
+      <c r="K86" s="5">
         <v>52</v>
       </c>
       <c r="L86" s="4" t="s">
@@ -4257,13 +4329,13 @@
       <c r="M86" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N86" s="7"/>
+      <c r="N86" s="6"/>
     </row>
     <row r="87" spans="1:14" ht="22.5">
       <c r="A87" s="4">
         <v>83</v>
       </c>
-      <c r="B87" s="16">
+      <c r="B87" s="7">
         <v>42631</v>
       </c>
       <c r="C87" s="3"/>
@@ -4290,7 +4362,7 @@
       <c r="J87" s="4">
         <v>68</v>
       </c>
-      <c r="K87" s="6">
+      <c r="K87" s="5">
         <v>53</v>
       </c>
       <c r="L87" s="4" t="s">
@@ -4299,13 +4371,13 @@
       <c r="M87" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N87" s="7"/>
+      <c r="N87" s="6"/>
     </row>
     <row r="88" spans="1:14" ht="22.5">
       <c r="A88" s="4">
         <v>84</v>
       </c>
-      <c r="B88" s="16">
+      <c r="B88" s="7">
         <v>42632</v>
       </c>
       <c r="C88" s="3"/>
@@ -4332,7 +4404,7 @@
       <c r="J88" s="4">
         <v>69</v>
       </c>
-      <c r="K88" s="6">
+      <c r="K88" s="5">
         <v>54</v>
       </c>
       <c r="L88" s="4" t="s">
@@ -4341,13 +4413,13 @@
       <c r="M88" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N88" s="7"/>
+      <c r="N88" s="6"/>
     </row>
     <row r="89" spans="1:14" ht="22.5">
       <c r="A89" s="4">
         <v>85</v>
       </c>
-      <c r="B89" s="16">
+      <c r="B89" s="7">
         <v>42633</v>
       </c>
       <c r="C89" s="3"/>
@@ -4374,7 +4446,7 @@
       <c r="J89" s="4">
         <v>70</v>
       </c>
-      <c r="K89" s="6">
+      <c r="K89" s="5">
         <v>55</v>
       </c>
       <c r="L89" s="4" t="s">
@@ -4383,13 +4455,13 @@
       <c r="M89" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N89" s="7"/>
+      <c r="N89" s="6"/>
     </row>
     <row r="90" spans="1:14" ht="22.5">
       <c r="A90" s="4">
         <v>86</v>
       </c>
-      <c r="B90" s="16">
+      <c r="B90" s="7">
         <v>42634</v>
       </c>
       <c r="C90" s="3"/>
@@ -4416,7 +4488,7 @@
       <c r="J90" s="4">
         <v>71</v>
       </c>
-      <c r="K90" s="6">
+      <c r="K90" s="5">
         <v>56</v>
       </c>
       <c r="L90" s="4" t="s">
@@ -4425,13 +4497,13 @@
       <c r="M90" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N90" s="7"/>
+      <c r="N90" s="6"/>
     </row>
     <row r="91" spans="1:14" ht="22.5">
       <c r="A91" s="4">
         <v>87</v>
       </c>
-      <c r="B91" s="16">
+      <c r="B91" s="7">
         <v>42635</v>
       </c>
       <c r="C91" s="3"/>
@@ -4458,7 +4530,7 @@
       <c r="J91" s="4">
         <v>72</v>
       </c>
-      <c r="K91" s="6">
+      <c r="K91" s="5">
         <v>57</v>
       </c>
       <c r="L91" s="4" t="s">
@@ -4467,13 +4539,13 @@
       <c r="M91" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N91" s="7"/>
+      <c r="N91" s="6"/>
     </row>
     <row r="92" spans="1:14" ht="22.5">
       <c r="A92" s="4">
         <v>88</v>
       </c>
-      <c r="B92" s="16">
+      <c r="B92" s="7">
         <v>42636</v>
       </c>
       <c r="C92" s="3"/>
@@ -4500,7 +4572,7 @@
       <c r="J92" s="4">
         <v>73</v>
       </c>
-      <c r="K92" s="6">
+      <c r="K92" s="5">
         <v>58</v>
       </c>
       <c r="L92" s="4" t="s">
@@ -4509,13 +4581,13 @@
       <c r="M92" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N92" s="7"/>
+      <c r="N92" s="6"/>
     </row>
     <row r="93" spans="1:14" ht="22.5">
       <c r="A93" s="4">
         <v>89</v>
       </c>
-      <c r="B93" s="16">
+      <c r="B93" s="7">
         <v>42637</v>
       </c>
       <c r="C93" s="3"/>
@@ -4542,7 +4614,7 @@
       <c r="J93" s="4">
         <v>74</v>
       </c>
-      <c r="K93" s="6">
+      <c r="K93" s="5">
         <v>59</v>
       </c>
       <c r="L93" s="4" t="s">
@@ -4551,13 +4623,13 @@
       <c r="M93" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N93" s="7"/>
+      <c r="N93" s="6"/>
     </row>
     <row r="94" spans="1:14" ht="22.5">
       <c r="A94" s="4">
         <v>90</v>
       </c>
-      <c r="B94" s="16">
+      <c r="B94" s="7">
         <v>42638</v>
       </c>
       <c r="C94" s="3"/>
@@ -4584,7 +4656,7 @@
       <c r="J94" s="4">
         <v>75</v>
       </c>
-      <c r="K94" s="6">
+      <c r="K94" s="5">
         <v>60</v>
       </c>
       <c r="L94" s="4" t="s">
@@ -4593,13 +4665,13 @@
       <c r="M94" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N94" s="7"/>
+      <c r="N94" s="6"/>
     </row>
     <row r="95" spans="1:14" ht="22.5">
       <c r="A95" s="4">
         <v>91</v>
       </c>
-      <c r="B95" s="16">
+      <c r="B95" s="7">
         <v>42639</v>
       </c>
       <c r="C95" s="3"/>
@@ -4626,22 +4698,22 @@
       <c r="J95" s="4">
         <v>76</v>
       </c>
-      <c r="K95" s="6">
+      <c r="K95" s="5">
         <v>61</v>
       </c>
-      <c r="L95" s="6">
+      <c r="L95" s="5">
         <v>1</v>
       </c>
       <c r="M95" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N95" s="7"/>
+      <c r="N95" s="6"/>
     </row>
     <row r="96" spans="1:14" ht="22.5">
       <c r="A96" s="4">
         <v>92</v>
       </c>
-      <c r="B96" s="16">
+      <c r="B96" s="7">
         <v>42640</v>
       </c>
       <c r="C96" s="3"/>
@@ -4668,22 +4740,22 @@
       <c r="J96" s="4">
         <v>77</v>
       </c>
-      <c r="K96" s="6">
+      <c r="K96" s="5">
         <v>62</v>
       </c>
-      <c r="L96" s="6">
+      <c r="L96" s="5">
         <v>2</v>
       </c>
       <c r="M96" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N96" s="7"/>
+      <c r="N96" s="6"/>
     </row>
     <row r="97" spans="1:14" ht="22.5">
       <c r="A97" s="4">
         <v>93</v>
       </c>
-      <c r="B97" s="16">
+      <c r="B97" s="7">
         <v>42641</v>
       </c>
       <c r="C97" s="3"/>
@@ -4710,22 +4782,22 @@
       <c r="J97" s="4">
         <v>78</v>
       </c>
-      <c r="K97" s="6">
+      <c r="K97" s="5">
         <v>63</v>
       </c>
-      <c r="L97" s="6">
+      <c r="L97" s="5">
         <v>3</v>
       </c>
       <c r="M97" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N97" s="7"/>
+      <c r="N97" s="6"/>
     </row>
     <row r="98" spans="1:14" ht="22.5">
       <c r="A98" s="4">
         <v>94</v>
       </c>
-      <c r="B98" s="16">
+      <c r="B98" s="7">
         <v>42642</v>
       </c>
       <c r="C98" s="3"/>
@@ -4752,22 +4824,22 @@
       <c r="J98" s="4">
         <v>79</v>
       </c>
-      <c r="K98" s="6">
+      <c r="K98" s="5">
         <v>64</v>
       </c>
-      <c r="L98" s="6">
+      <c r="L98" s="5">
         <v>4</v>
       </c>
       <c r="M98" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N98" s="7"/>
+      <c r="N98" s="6"/>
     </row>
     <row r="99" spans="1:14" ht="22.5">
       <c r="A99" s="4">
         <v>95</v>
       </c>
-      <c r="B99" s="16">
+      <c r="B99" s="7">
         <v>42643</v>
       </c>
       <c r="C99" s="3"/>
@@ -4794,22 +4866,22 @@
       <c r="J99" s="4">
         <v>80</v>
       </c>
-      <c r="K99" s="6">
+      <c r="K99" s="5">
         <v>65</v>
       </c>
-      <c r="L99" s="6">
+      <c r="L99" s="5">
         <v>5</v>
       </c>
       <c r="M99" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N99" s="7"/>
+      <c r="N99" s="6"/>
     </row>
     <row r="100" spans="1:14" ht="22.5">
       <c r="A100" s="4">
         <v>96</v>
       </c>
-      <c r="B100" s="16">
+      <c r="B100" s="7">
         <v>42644</v>
       </c>
       <c r="C100" s="3"/>
@@ -4836,22 +4908,22 @@
       <c r="J100" s="4">
         <v>81</v>
       </c>
-      <c r="K100" s="6">
+      <c r="K100" s="5">
         <v>66</v>
       </c>
-      <c r="L100" s="6">
+      <c r="L100" s="5">
         <v>6</v>
       </c>
       <c r="M100" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N100" s="7"/>
+      <c r="N100" s="6"/>
     </row>
     <row r="101" spans="1:14" ht="22.5">
       <c r="A101" s="4">
         <v>97</v>
       </c>
-      <c r="B101" s="16">
+      <c r="B101" s="7">
         <v>42645</v>
       </c>
       <c r="C101" s="3"/>
@@ -4878,22 +4950,22 @@
       <c r="J101" s="4">
         <v>82</v>
       </c>
-      <c r="K101" s="6">
+      <c r="K101" s="5">
         <v>67</v>
       </c>
-      <c r="L101" s="6">
+      <c r="L101" s="5">
         <v>7</v>
       </c>
       <c r="M101" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N101" s="7"/>
+      <c r="N101" s="6"/>
     </row>
     <row r="102" spans="1:14" ht="22.5">
       <c r="A102" s="4">
         <v>98</v>
       </c>
-      <c r="B102" s="16">
+      <c r="B102" s="7">
         <v>42646</v>
       </c>
       <c r="C102" s="3"/>
@@ -4920,22 +4992,22 @@
       <c r="J102" s="4">
         <v>83</v>
       </c>
-      <c r="K102" s="6">
+      <c r="K102" s="5">
         <v>68</v>
       </c>
-      <c r="L102" s="6">
+      <c r="L102" s="5">
         <v>8</v>
       </c>
       <c r="M102" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N102" s="7"/>
+      <c r="N102" s="6"/>
     </row>
     <row r="103" spans="1:14" ht="22.5">
       <c r="A103" s="4">
         <v>99</v>
       </c>
-      <c r="B103" s="16">
+      <c r="B103" s="7">
         <v>42647</v>
       </c>
       <c r="C103" s="3"/>
@@ -4962,22 +5034,22 @@
       <c r="J103" s="4">
         <v>84</v>
       </c>
-      <c r="K103" s="6">
+      <c r="K103" s="5">
         <v>69</v>
       </c>
-      <c r="L103" s="6">
+      <c r="L103" s="5">
         <v>9</v>
       </c>
       <c r="M103" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N103" s="7"/>
+      <c r="N103" s="6"/>
     </row>
     <row r="104" spans="1:14" ht="22.5">
       <c r="A104" s="4">
         <v>100</v>
       </c>
-      <c r="B104" s="16">
+      <c r="B104" s="7">
         <v>42648</v>
       </c>
       <c r="C104" s="3"/>
@@ -5004,22 +5076,22 @@
       <c r="J104" s="4">
         <v>85</v>
       </c>
-      <c r="K104" s="6">
+      <c r="K104" s="5">
         <v>70</v>
       </c>
-      <c r="L104" s="6">
+      <c r="L104" s="5">
         <v>10</v>
       </c>
       <c r="M104" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N104" s="7"/>
+      <c r="N104" s="6"/>
     </row>
     <row r="105" spans="1:14" ht="22.5">
       <c r="A105" s="4">
         <v>101</v>
       </c>
-      <c r="B105" s="16">
+      <c r="B105" s="7">
         <v>42649</v>
       </c>
       <c r="C105" s="3"/>
@@ -5046,22 +5118,22 @@
       <c r="J105" s="4">
         <v>86</v>
       </c>
-      <c r="K105" s="6">
+      <c r="K105" s="5">
         <v>71</v>
       </c>
-      <c r="L105" s="6">
+      <c r="L105" s="5">
         <v>11</v>
       </c>
       <c r="M105" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N105" s="7"/>
+      <c r="N105" s="6"/>
     </row>
     <row r="106" spans="1:14" ht="22.5">
       <c r="A106" s="4">
         <v>102</v>
       </c>
-      <c r="B106" s="16">
+      <c r="B106" s="7">
         <v>42650</v>
       </c>
       <c r="C106" s="3"/>
@@ -5088,22 +5160,22 @@
       <c r="J106" s="4">
         <v>87</v>
       </c>
-      <c r="K106" s="6">
+      <c r="K106" s="5">
         <v>72</v>
       </c>
-      <c r="L106" s="6">
+      <c r="L106" s="5">
         <v>12</v>
       </c>
       <c r="M106" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N106" s="7"/>
+      <c r="N106" s="6"/>
     </row>
     <row r="107" spans="1:14" ht="22.5">
       <c r="A107" s="4">
         <v>103</v>
       </c>
-      <c r="B107" s="16">
+      <c r="B107" s="7">
         <v>42651</v>
       </c>
       <c r="C107" s="3"/>
@@ -5130,22 +5202,22 @@
       <c r="J107" s="4">
         <v>88</v>
       </c>
-      <c r="K107" s="6">
+      <c r="K107" s="5">
         <v>73</v>
       </c>
-      <c r="L107" s="6">
+      <c r="L107" s="5">
         <v>13</v>
       </c>
       <c r="M107" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N107" s="7"/>
+      <c r="N107" s="6"/>
     </row>
     <row r="108" spans="1:14" ht="22.5">
       <c r="A108" s="4">
         <v>104</v>
       </c>
-      <c r="B108" s="16">
+      <c r="B108" s="7">
         <v>42652</v>
       </c>
       <c r="C108" s="3"/>
@@ -5172,22 +5244,22 @@
       <c r="J108" s="4">
         <v>89</v>
       </c>
-      <c r="K108" s="6">
+      <c r="K108" s="5">
         <v>74</v>
       </c>
-      <c r="L108" s="6">
+      <c r="L108" s="5">
         <v>14</v>
       </c>
       <c r="M108" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N108" s="7"/>
+      <c r="N108" s="6"/>
     </row>
     <row r="109" spans="1:14" ht="22.5">
       <c r="A109" s="4">
         <v>105</v>
       </c>
-      <c r="B109" s="16">
+      <c r="B109" s="7">
         <v>42653</v>
       </c>
       <c r="C109" s="3"/>
@@ -5214,22 +5286,22 @@
       <c r="J109" s="4">
         <v>90</v>
       </c>
-      <c r="K109" s="6">
+      <c r="K109" s="5">
         <v>75</v>
       </c>
-      <c r="L109" s="6">
+      <c r="L109" s="5">
         <v>15</v>
       </c>
       <c r="M109" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N109" s="7"/>
+      <c r="N109" s="6"/>
     </row>
     <row r="110" spans="1:14" ht="22.5">
       <c r="A110" s="4">
         <v>106</v>
       </c>
-      <c r="B110" s="16">
+      <c r="B110" s="7">
         <v>42654</v>
       </c>
       <c r="C110" s="3"/>
@@ -5256,22 +5328,22 @@
       <c r="J110" s="4">
         <v>91</v>
       </c>
-      <c r="K110" s="6">
+      <c r="K110" s="5">
         <v>76</v>
       </c>
-      <c r="L110" s="6">
+      <c r="L110" s="5">
         <v>16</v>
       </c>
       <c r="M110" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N110" s="7"/>
+      <c r="N110" s="6"/>
     </row>
     <row r="111" spans="1:14" ht="22.5">
       <c r="A111" s="4">
         <v>107</v>
       </c>
-      <c r="B111" s="16">
+      <c r="B111" s="7">
         <v>42655</v>
       </c>
       <c r="C111" s="3"/>
@@ -5298,22 +5370,22 @@
       <c r="J111" s="4">
         <v>92</v>
       </c>
-      <c r="K111" s="6">
+      <c r="K111" s="5">
         <v>77</v>
       </c>
-      <c r="L111" s="6">
+      <c r="L111" s="5">
         <v>17</v>
       </c>
       <c r="M111" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N111" s="7"/>
+      <c r="N111" s="6"/>
     </row>
     <row r="112" spans="1:14" ht="22.5">
       <c r="A112" s="4">
         <v>108</v>
       </c>
-      <c r="B112" s="16">
+      <c r="B112" s="7">
         <v>42656</v>
       </c>
       <c r="C112" s="3"/>
@@ -5340,22 +5412,22 @@
       <c r="J112" s="4">
         <v>93</v>
       </c>
-      <c r="K112" s="6">
+      <c r="K112" s="5">
         <v>78</v>
       </c>
-      <c r="L112" s="6">
+      <c r="L112" s="5">
         <v>18</v>
       </c>
       <c r="M112" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N112" s="7"/>
+      <c r="N112" s="6"/>
     </row>
     <row r="113" spans="1:14" ht="22.5">
       <c r="A113" s="4">
         <v>109</v>
       </c>
-      <c r="B113" s="16">
+      <c r="B113" s="7">
         <v>42657</v>
       </c>
       <c r="C113" s="3"/>
@@ -5382,22 +5454,22 @@
       <c r="J113" s="4">
         <v>94</v>
       </c>
-      <c r="K113" s="6">
+      <c r="K113" s="5">
         <v>79</v>
       </c>
-      <c r="L113" s="6">
+      <c r="L113" s="5">
         <v>19</v>
       </c>
       <c r="M113" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N113" s="7"/>
+      <c r="N113" s="6"/>
     </row>
     <row r="114" spans="1:14" ht="22.5">
       <c r="A114" s="4">
         <v>110</v>
       </c>
-      <c r="B114" s="16">
+      <c r="B114" s="7">
         <v>42658</v>
       </c>
       <c r="C114" s="3"/>
@@ -5424,22 +5496,22 @@
       <c r="J114" s="4">
         <v>95</v>
       </c>
-      <c r="K114" s="6">
+      <c r="K114" s="5">
         <v>80</v>
       </c>
-      <c r="L114" s="6">
+      <c r="L114" s="5">
         <v>20</v>
       </c>
       <c r="M114" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N114" s="7"/>
+      <c r="N114" s="6"/>
     </row>
     <row r="115" spans="1:14" ht="22.5">
       <c r="A115" s="4">
         <v>111</v>
       </c>
-      <c r="B115" s="16">
+      <c r="B115" s="7">
         <v>42659</v>
       </c>
       <c r="C115" s="3"/>
@@ -5466,22 +5538,22 @@
       <c r="J115" s="4">
         <v>96</v>
       </c>
-      <c r="K115" s="6">
+      <c r="K115" s="5">
         <v>81</v>
       </c>
-      <c r="L115" s="6">
+      <c r="L115" s="5">
         <v>21</v>
       </c>
       <c r="M115" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N115" s="7"/>
+      <c r="N115" s="6"/>
     </row>
     <row r="116" spans="1:14" ht="22.5">
       <c r="A116" s="4">
         <v>112</v>
       </c>
-      <c r="B116" s="16">
+      <c r="B116" s="7">
         <v>42660</v>
       </c>
       <c r="C116" s="3"/>
@@ -5508,22 +5580,22 @@
       <c r="J116" s="4">
         <v>97</v>
       </c>
-      <c r="K116" s="6">
+      <c r="K116" s="5">
         <v>82</v>
       </c>
-      <c r="L116" s="6">
+      <c r="L116" s="5">
         <v>22</v>
       </c>
       <c r="M116" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N116" s="7"/>
+      <c r="N116" s="6"/>
     </row>
     <row r="117" spans="1:14" ht="22.5">
       <c r="A117" s="4">
         <v>113</v>
       </c>
-      <c r="B117" s="16">
+      <c r="B117" s="7">
         <v>42661</v>
       </c>
       <c r="C117" s="3"/>
@@ -5550,22 +5622,22 @@
       <c r="J117" s="4">
         <v>98</v>
       </c>
-      <c r="K117" s="6">
+      <c r="K117" s="5">
         <v>83</v>
       </c>
-      <c r="L117" s="6">
+      <c r="L117" s="5">
         <v>23</v>
       </c>
       <c r="M117" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N117" s="7"/>
+      <c r="N117" s="6"/>
     </row>
     <row r="118" spans="1:14" ht="22.5">
       <c r="A118" s="4">
         <v>114</v>
       </c>
-      <c r="B118" s="16">
+      <c r="B118" s="7">
         <v>42662</v>
       </c>
       <c r="C118" s="3"/>
@@ -5592,22 +5664,22 @@
       <c r="J118" s="4">
         <v>99</v>
       </c>
-      <c r="K118" s="6">
+      <c r="K118" s="5">
         <v>84</v>
       </c>
-      <c r="L118" s="6">
+      <c r="L118" s="5">
         <v>24</v>
       </c>
       <c r="M118" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N118" s="7"/>
+      <c r="N118" s="6"/>
     </row>
     <row r="119" spans="1:14" ht="22.5">
       <c r="A119" s="4">
         <v>115</v>
       </c>
-      <c r="B119" s="16">
+      <c r="B119" s="7">
         <v>42663</v>
       </c>
       <c r="C119" s="3"/>
@@ -5634,22 +5706,22 @@
       <c r="J119" s="4">
         <v>100</v>
       </c>
-      <c r="K119" s="6">
+      <c r="K119" s="5">
         <v>85</v>
       </c>
-      <c r="L119" s="6">
+      <c r="L119" s="5">
         <v>25</v>
       </c>
       <c r="M119" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N119" s="7"/>
+      <c r="N119" s="6"/>
     </row>
     <row r="120" spans="1:14" ht="22.5">
       <c r="A120" s="4">
         <v>116</v>
       </c>
-      <c r="B120" s="16">
+      <c r="B120" s="7">
         <v>42664</v>
       </c>
       <c r="C120" s="3"/>
@@ -5676,22 +5748,22 @@
       <c r="J120" s="4">
         <v>101</v>
       </c>
-      <c r="K120" s="6">
+      <c r="K120" s="5">
         <v>86</v>
       </c>
-      <c r="L120" s="6">
+      <c r="L120" s="5">
         <v>26</v>
       </c>
       <c r="M120" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N120" s="7"/>
+      <c r="N120" s="6"/>
     </row>
     <row r="121" spans="1:14" ht="22.5">
       <c r="A121" s="4">
         <v>117</v>
       </c>
-      <c r="B121" s="16">
+      <c r="B121" s="7">
         <v>42665</v>
       </c>
       <c r="C121" s="3"/>
@@ -5718,22 +5790,22 @@
       <c r="J121" s="4">
         <v>102</v>
       </c>
-      <c r="K121" s="6">
+      <c r="K121" s="5">
         <v>87</v>
       </c>
-      <c r="L121" s="6">
+      <c r="L121" s="5">
         <v>27</v>
       </c>
       <c r="M121" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N121" s="7"/>
+      <c r="N121" s="6"/>
     </row>
     <row r="122" spans="1:14" ht="22.5">
       <c r="A122" s="4">
         <v>118</v>
       </c>
-      <c r="B122" s="16">
+      <c r="B122" s="7">
         <v>42666</v>
       </c>
       <c r="C122" s="3"/>
@@ -5760,22 +5832,22 @@
       <c r="J122" s="4">
         <v>103</v>
       </c>
-      <c r="K122" s="6">
+      <c r="K122" s="5">
         <v>88</v>
       </c>
-      <c r="L122" s="6">
+      <c r="L122" s="5">
         <v>28</v>
       </c>
       <c r="M122" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N122" s="7"/>
+      <c r="N122" s="6"/>
     </row>
     <row r="123" spans="1:14" ht="22.5">
       <c r="A123" s="4">
         <v>119</v>
       </c>
-      <c r="B123" s="16">
+      <c r="B123" s="7">
         <v>42667</v>
       </c>
       <c r="C123" s="3"/>
@@ -5802,22 +5874,22 @@
       <c r="J123" s="4">
         <v>104</v>
       </c>
-      <c r="K123" s="6">
+      <c r="K123" s="5">
         <v>89</v>
       </c>
-      <c r="L123" s="6">
+      <c r="L123" s="5">
         <v>29</v>
       </c>
       <c r="M123" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N123" s="7"/>
+      <c r="N123" s="6"/>
     </row>
     <row r="124" spans="1:14" ht="22.5">
       <c r="A124" s="4">
         <v>120</v>
       </c>
-      <c r="B124" s="16">
+      <c r="B124" s="7">
         <v>42668</v>
       </c>
       <c r="C124" s="3"/>
@@ -5844,22 +5916,22 @@
       <c r="J124" s="4">
         <v>105</v>
       </c>
-      <c r="K124" s="6">
+      <c r="K124" s="5">
         <v>90</v>
       </c>
-      <c r="L124" s="6">
+      <c r="L124" s="5">
         <v>30</v>
       </c>
       <c r="M124" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N124" s="7"/>
+      <c r="N124" s="6"/>
     </row>
     <row r="125" spans="1:14" ht="22.5">
       <c r="A125" s="4">
         <v>121</v>
       </c>
-      <c r="B125" s="16">
+      <c r="B125" s="7">
         <v>42669</v>
       </c>
       <c r="C125" s="3"/>
@@ -5886,22 +5958,22 @@
       <c r="J125" s="4">
         <v>106</v>
       </c>
-      <c r="K125" s="6">
+      <c r="K125" s="5">
         <v>91</v>
       </c>
-      <c r="L125" s="6">
+      <c r="L125" s="5">
         <v>31</v>
       </c>
       <c r="M125" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N125" s="7"/>
+      <c r="N125" s="6"/>
     </row>
     <row r="126" spans="1:14" ht="22.5">
       <c r="A126" s="4">
         <v>122</v>
       </c>
-      <c r="B126" s="16">
+      <c r="B126" s="7">
         <v>42670</v>
       </c>
       <c r="C126" s="3"/>
@@ -5928,22 +6000,22 @@
       <c r="J126" s="4">
         <v>107</v>
       </c>
-      <c r="K126" s="6">
+      <c r="K126" s="5">
         <v>92</v>
       </c>
-      <c r="L126" s="6">
+      <c r="L126" s="5">
         <v>32</v>
       </c>
       <c r="M126" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N126" s="7"/>
+      <c r="N126" s="6"/>
     </row>
     <row r="127" spans="1:14" ht="22.5">
       <c r="A127" s="4">
         <v>123</v>
       </c>
-      <c r="B127" s="16">
+      <c r="B127" s="7">
         <v>42671</v>
       </c>
       <c r="C127" s="3"/>
@@ -5970,22 +6042,22 @@
       <c r="J127" s="4">
         <v>108</v>
       </c>
-      <c r="K127" s="6">
+      <c r="K127" s="5">
         <v>93</v>
       </c>
-      <c r="L127" s="6">
+      <c r="L127" s="5">
         <v>33</v>
       </c>
       <c r="M127" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N127" s="7"/>
+      <c r="N127" s="6"/>
     </row>
     <row r="128" spans="1:14" ht="22.5">
       <c r="A128" s="4">
         <v>124</v>
       </c>
-      <c r="B128" s="16">
+      <c r="B128" s="7">
         <v>42672</v>
       </c>
       <c r="C128" s="3"/>
@@ -6012,22 +6084,22 @@
       <c r="J128" s="4">
         <v>109</v>
       </c>
-      <c r="K128" s="6">
+      <c r="K128" s="5">
         <v>94</v>
       </c>
-      <c r="L128" s="6">
+      <c r="L128" s="5">
         <v>34</v>
       </c>
       <c r="M128" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N128" s="7"/>
+      <c r="N128" s="6"/>
     </row>
     <row r="129" spans="1:14" ht="22.5">
       <c r="A129" s="4">
         <v>125</v>
       </c>
-      <c r="B129" s="16">
+      <c r="B129" s="7">
         <v>42673</v>
       </c>
       <c r="C129" s="3"/>
@@ -6054,22 +6126,22 @@
       <c r="J129" s="4">
         <v>110</v>
       </c>
-      <c r="K129" s="6">
+      <c r="K129" s="5">
         <v>95</v>
       </c>
-      <c r="L129" s="6">
+      <c r="L129" s="5">
         <v>35</v>
       </c>
       <c r="M129" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N129" s="7"/>
+      <c r="N129" s="6"/>
     </row>
     <row r="130" spans="1:14" ht="22.5">
       <c r="A130" s="4">
         <v>126</v>
       </c>
-      <c r="B130" s="16">
+      <c r="B130" s="7">
         <v>42674</v>
       </c>
       <c r="C130" s="3"/>
@@ -6096,22 +6168,22 @@
       <c r="J130" s="4">
         <v>111</v>
       </c>
-      <c r="K130" s="6">
+      <c r="K130" s="5">
         <v>96</v>
       </c>
-      <c r="L130" s="6">
+      <c r="L130" s="5">
         <v>36</v>
       </c>
       <c r="M130" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N130" s="7"/>
+      <c r="N130" s="6"/>
     </row>
     <row r="131" spans="1:14" ht="22.5">
       <c r="A131" s="4">
         <v>127</v>
       </c>
-      <c r="B131" s="16">
+      <c r="B131" s="7">
         <v>42675</v>
       </c>
       <c r="C131" s="3"/>
@@ -6138,22 +6210,22 @@
       <c r="J131" s="4">
         <v>112</v>
       </c>
-      <c r="K131" s="6">
+      <c r="K131" s="5">
         <v>97</v>
       </c>
-      <c r="L131" s="6">
+      <c r="L131" s="5">
         <v>37</v>
       </c>
       <c r="M131" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N131" s="7"/>
+      <c r="N131" s="6"/>
     </row>
     <row r="132" spans="1:14" ht="22.5">
       <c r="A132" s="4">
         <v>128</v>
       </c>
-      <c r="B132" s="16">
+      <c r="B132" s="7">
         <v>42676</v>
       </c>
       <c r="C132" s="3"/>
@@ -6180,22 +6252,22 @@
       <c r="J132" s="4">
         <v>113</v>
       </c>
-      <c r="K132" s="6">
+      <c r="K132" s="5">
         <v>98</v>
       </c>
-      <c r="L132" s="6">
+      <c r="L132" s="5">
         <v>38</v>
       </c>
       <c r="M132" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N132" s="7"/>
+      <c r="N132" s="6"/>
     </row>
     <row r="133" spans="1:14" ht="22.5">
       <c r="A133" s="4">
         <v>129</v>
       </c>
-      <c r="B133" s="16">
+      <c r="B133" s="7">
         <v>42677</v>
       </c>
       <c r="C133" s="3"/>
@@ -6222,22 +6294,22 @@
       <c r="J133" s="4">
         <v>114</v>
       </c>
-      <c r="K133" s="6">
+      <c r="K133" s="5">
         <v>99</v>
       </c>
-      <c r="L133" s="6">
+      <c r="L133" s="5">
         <v>39</v>
       </c>
       <c r="M133" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N133" s="7"/>
+      <c r="N133" s="6"/>
     </row>
     <row r="134" spans="1:14" ht="22.5">
       <c r="A134" s="4">
         <v>130</v>
       </c>
-      <c r="B134" s="16">
+      <c r="B134" s="7">
         <v>42678</v>
       </c>
       <c r="C134" s="3"/>
@@ -6264,22 +6336,22 @@
       <c r="J134" s="4">
         <v>115</v>
       </c>
-      <c r="K134" s="6">
+      <c r="K134" s="5">
         <v>100</v>
       </c>
-      <c r="L134" s="6">
+      <c r="L134" s="5">
         <v>40</v>
       </c>
       <c r="M134" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N134" s="7"/>
+      <c r="N134" s="6"/>
     </row>
     <row r="135" spans="1:14" ht="22.5">
       <c r="A135" s="4">
         <v>131</v>
       </c>
-      <c r="B135" s="16">
+      <c r="B135" s="7">
         <v>42679</v>
       </c>
       <c r="C135" s="3"/>
@@ -6306,22 +6378,22 @@
       <c r="J135" s="4">
         <v>116</v>
       </c>
-      <c r="K135" s="6">
+      <c r="K135" s="5">
         <v>101</v>
       </c>
-      <c r="L135" s="6">
+      <c r="L135" s="5">
         <v>41</v>
       </c>
       <c r="M135" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N135" s="7"/>
+      <c r="N135" s="6"/>
     </row>
     <row r="136" spans="1:14" ht="22.5">
       <c r="A136" s="4">
         <v>132</v>
       </c>
-      <c r="B136" s="16">
+      <c r="B136" s="7">
         <v>42680</v>
       </c>
       <c r="C136" s="3"/>
@@ -6348,22 +6420,22 @@
       <c r="J136" s="4">
         <v>117</v>
       </c>
-      <c r="K136" s="6">
+      <c r="K136" s="5">
         <v>102</v>
       </c>
-      <c r="L136" s="6">
+      <c r="L136" s="5">
         <v>42</v>
       </c>
       <c r="M136" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N136" s="7"/>
+      <c r="N136" s="6"/>
     </row>
     <row r="137" spans="1:14" ht="22.5">
       <c r="A137" s="4">
         <v>133</v>
       </c>
-      <c r="B137" s="16">
+      <c r="B137" s="7">
         <v>42681</v>
       </c>
       <c r="C137" s="3"/>
@@ -6390,22 +6462,22 @@
       <c r="J137" s="4">
         <v>118</v>
       </c>
-      <c r="K137" s="6">
+      <c r="K137" s="5">
         <v>103</v>
       </c>
-      <c r="L137" s="6">
+      <c r="L137" s="5">
         <v>43</v>
       </c>
       <c r="M137" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N137" s="7"/>
+      <c r="N137" s="6"/>
     </row>
     <row r="138" spans="1:14" ht="22.5">
       <c r="A138" s="4">
         <v>134</v>
       </c>
-      <c r="B138" s="16">
+      <c r="B138" s="7">
         <v>42682</v>
       </c>
       <c r="C138" s="3"/>
@@ -6432,22 +6504,22 @@
       <c r="J138" s="4">
         <v>119</v>
       </c>
-      <c r="K138" s="6">
+      <c r="K138" s="5">
         <v>104</v>
       </c>
-      <c r="L138" s="6">
+      <c r="L138" s="5">
         <v>44</v>
       </c>
       <c r="M138" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N138" s="7"/>
+      <c r="N138" s="6"/>
     </row>
     <row r="139" spans="1:14" ht="22.5">
       <c r="A139" s="4">
         <v>135</v>
       </c>
-      <c r="B139" s="16">
+      <c r="B139" s="7">
         <v>42683</v>
       </c>
       <c r="C139" s="3"/>
@@ -6474,22 +6546,22 @@
       <c r="J139" s="4">
         <v>120</v>
       </c>
-      <c r="K139" s="6">
+      <c r="K139" s="5">
         <v>105</v>
       </c>
-      <c r="L139" s="6">
+      <c r="L139" s="5">
         <v>45</v>
       </c>
       <c r="M139" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N139" s="7"/>
+      <c r="N139" s="6"/>
     </row>
     <row r="140" spans="1:14" ht="22.5">
       <c r="A140" s="4">
         <v>136</v>
       </c>
-      <c r="B140" s="16">
+      <c r="B140" s="7">
         <v>42684</v>
       </c>
       <c r="C140" s="3"/>
@@ -6516,22 +6588,22 @@
       <c r="J140" s="4">
         <v>121</v>
       </c>
-      <c r="K140" s="6">
+      <c r="K140" s="5">
         <v>106</v>
       </c>
-      <c r="L140" s="6">
+      <c r="L140" s="5">
         <v>46</v>
       </c>
       <c r="M140" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N140" s="7"/>
+      <c r="N140" s="6"/>
     </row>
     <row r="141" spans="1:14" ht="22.5">
       <c r="A141" s="4">
         <v>137</v>
       </c>
-      <c r="B141" s="16">
+      <c r="B141" s="7">
         <v>42685</v>
       </c>
       <c r="C141" s="3"/>
@@ -6558,22 +6630,22 @@
       <c r="J141" s="4">
         <v>122</v>
       </c>
-      <c r="K141" s="6">
+      <c r="K141" s="5">
         <v>107</v>
       </c>
-      <c r="L141" s="6">
+      <c r="L141" s="5">
         <v>47</v>
       </c>
       <c r="M141" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N141" s="7"/>
+      <c r="N141" s="6"/>
     </row>
     <row r="142" spans="1:14" ht="22.5">
       <c r="A142" s="4">
         <v>138</v>
       </c>
-      <c r="B142" s="16">
+      <c r="B142" s="7">
         <v>42686</v>
       </c>
       <c r="C142" s="3"/>
@@ -6600,22 +6672,22 @@
       <c r="J142" s="4">
         <v>123</v>
       </c>
-      <c r="K142" s="6">
+      <c r="K142" s="5">
         <v>108</v>
       </c>
-      <c r="L142" s="6">
+      <c r="L142" s="5">
         <v>48</v>
       </c>
       <c r="M142" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N142" s="7"/>
+      <c r="N142" s="6"/>
     </row>
     <row r="143" spans="1:14" ht="22.5">
       <c r="A143" s="4">
         <v>139</v>
       </c>
-      <c r="B143" s="16">
+      <c r="B143" s="7">
         <v>42687</v>
       </c>
       <c r="C143" s="3"/>
@@ -6642,22 +6714,22 @@
       <c r="J143" s="4">
         <v>124</v>
       </c>
-      <c r="K143" s="6">
+      <c r="K143" s="5">
         <v>109</v>
       </c>
-      <c r="L143" s="6">
+      <c r="L143" s="5">
         <v>49</v>
       </c>
       <c r="M143" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N143" s="7"/>
+      <c r="N143" s="6"/>
     </row>
     <row r="144" spans="1:14" ht="22.5">
       <c r="A144" s="4">
         <v>140</v>
       </c>
-      <c r="B144" s="16">
+      <c r="B144" s="7">
         <v>42688</v>
       </c>
       <c r="C144" s="3"/>
@@ -6684,22 +6756,22 @@
       <c r="J144" s="4">
         <v>125</v>
       </c>
-      <c r="K144" s="6">
+      <c r="K144" s="5">
         <v>110</v>
       </c>
-      <c r="L144" s="6">
+      <c r="L144" s="5">
         <v>50</v>
       </c>
       <c r="M144" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N144" s="7"/>
+      <c r="N144" s="6"/>
     </row>
     <row r="145" spans="1:14" ht="22.5">
       <c r="A145" s="4">
         <v>141</v>
       </c>
-      <c r="B145" s="16">
+      <c r="B145" s="7">
         <v>42689</v>
       </c>
       <c r="C145" s="3"/>
@@ -6726,22 +6798,22 @@
       <c r="J145" s="4">
         <v>126</v>
       </c>
-      <c r="K145" s="6">
+      <c r="K145" s="5">
         <v>111</v>
       </c>
-      <c r="L145" s="6">
+      <c r="L145" s="5">
         <v>51</v>
       </c>
       <c r="M145" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N145" s="7"/>
+      <c r="N145" s="6"/>
     </row>
     <row r="146" spans="1:14" ht="22.5">
       <c r="A146" s="4">
         <v>142</v>
       </c>
-      <c r="B146" s="16">
+      <c r="B146" s="7">
         <v>42690</v>
       </c>
       <c r="C146" s="3"/>
@@ -6768,22 +6840,22 @@
       <c r="J146" s="4">
         <v>127</v>
       </c>
-      <c r="K146" s="6">
+      <c r="K146" s="5">
         <v>112</v>
       </c>
-      <c r="L146" s="6">
+      <c r="L146" s="5">
         <v>52</v>
       </c>
       <c r="M146" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N146" s="7"/>
+      <c r="N146" s="6"/>
     </row>
     <row r="147" spans="1:14" ht="22.5">
       <c r="A147" s="4">
         <v>143</v>
       </c>
-      <c r="B147" s="16">
+      <c r="B147" s="7">
         <v>42691</v>
       </c>
       <c r="C147" s="3"/>
@@ -6810,22 +6882,22 @@
       <c r="J147" s="4">
         <v>128</v>
       </c>
-      <c r="K147" s="6">
+      <c r="K147" s="5">
         <v>113</v>
       </c>
-      <c r="L147" s="6">
+      <c r="L147" s="5">
         <v>53</v>
       </c>
       <c r="M147" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N147" s="7"/>
+      <c r="N147" s="6"/>
     </row>
     <row r="148" spans="1:14" ht="22.5">
       <c r="A148" s="4">
         <v>144</v>
       </c>
-      <c r="B148" s="16">
+      <c r="B148" s="7">
         <v>42692</v>
       </c>
       <c r="C148" s="3"/>
@@ -6852,22 +6924,22 @@
       <c r="J148" s="4">
         <v>129</v>
       </c>
-      <c r="K148" s="6">
+      <c r="K148" s="5">
         <v>114</v>
       </c>
-      <c r="L148" s="6">
+      <c r="L148" s="5">
         <v>54</v>
       </c>
       <c r="M148" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N148" s="7"/>
+      <c r="N148" s="6"/>
     </row>
     <row r="149" spans="1:14" ht="22.5">
       <c r="A149" s="4">
         <v>145</v>
       </c>
-      <c r="B149" s="16">
+      <c r="B149" s="7">
         <v>42693</v>
       </c>
       <c r="C149" s="3"/>
@@ -6894,22 +6966,22 @@
       <c r="J149" s="4">
         <v>130</v>
       </c>
-      <c r="K149" s="6">
+      <c r="K149" s="5">
         <v>115</v>
       </c>
-      <c r="L149" s="6">
+      <c r="L149" s="5">
         <v>55</v>
       </c>
       <c r="M149" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N149" s="7"/>
+      <c r="N149" s="6"/>
     </row>
     <row r="150" spans="1:14" ht="22.5">
       <c r="A150" s="4">
         <v>146</v>
       </c>
-      <c r="B150" s="16">
+      <c r="B150" s="7">
         <v>42694</v>
       </c>
       <c r="C150" s="3"/>
@@ -6936,22 +7008,22 @@
       <c r="J150" s="4">
         <v>131</v>
       </c>
-      <c r="K150" s="6">
+      <c r="K150" s="5">
         <v>116</v>
       </c>
-      <c r="L150" s="6">
+      <c r="L150" s="5">
         <v>56</v>
       </c>
       <c r="M150" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N150" s="7"/>
+      <c r="N150" s="6"/>
     </row>
     <row r="151" spans="1:14" ht="22.5">
       <c r="A151" s="4">
         <v>147</v>
       </c>
-      <c r="B151" s="16">
+      <c r="B151" s="7">
         <v>42695</v>
       </c>
       <c r="C151" s="3"/>
@@ -6978,22 +7050,22 @@
       <c r="J151" s="4">
         <v>132</v>
       </c>
-      <c r="K151" s="6">
+      <c r="K151" s="5">
         <v>117</v>
       </c>
-      <c r="L151" s="6">
+      <c r="L151" s="5">
         <v>57</v>
       </c>
       <c r="M151" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N151" s="7"/>
+      <c r="N151" s="6"/>
     </row>
     <row r="152" spans="1:14" ht="22.5">
       <c r="A152" s="4">
         <v>148</v>
       </c>
-      <c r="B152" s="16">
+      <c r="B152" s="7">
         <v>42696</v>
       </c>
       <c r="C152" s="3"/>
@@ -7020,22 +7092,22 @@
       <c r="J152" s="4">
         <v>133</v>
       </c>
-      <c r="K152" s="6">
+      <c r="K152" s="5">
         <v>118</v>
       </c>
-      <c r="L152" s="6">
+      <c r="L152" s="5">
         <v>58</v>
       </c>
       <c r="M152" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N152" s="7"/>
+      <c r="N152" s="6"/>
     </row>
     <row r="153" spans="1:14" ht="22.5">
       <c r="A153" s="4">
         <v>149</v>
       </c>
-      <c r="B153" s="16">
+      <c r="B153" s="7">
         <v>42697</v>
       </c>
       <c r="C153" s="3"/>
@@ -7062,22 +7134,22 @@
       <c r="J153" s="4">
         <v>134</v>
       </c>
-      <c r="K153" s="6">
+      <c r="K153" s="5">
         <v>119</v>
       </c>
-      <c r="L153" s="6">
+      <c r="L153" s="5">
         <v>59</v>
       </c>
       <c r="M153" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N153" s="7"/>
+      <c r="N153" s="6"/>
     </row>
     <row r="154" spans="1:14" ht="22.5">
       <c r="A154" s="4">
         <v>150</v>
       </c>
-      <c r="B154" s="16">
+      <c r="B154" s="7">
         <v>42698</v>
       </c>
       <c r="C154" s="3"/>
@@ -7104,22 +7176,22 @@
       <c r="J154" s="4">
         <v>135</v>
       </c>
-      <c r="K154" s="6">
+      <c r="K154" s="5">
         <v>120</v>
       </c>
-      <c r="L154" s="6">
+      <c r="L154" s="5">
         <v>60</v>
       </c>
       <c r="M154" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N154" s="7"/>
+      <c r="N154" s="6"/>
     </row>
     <row r="155" spans="1:14" ht="22.5">
       <c r="A155" s="4">
         <v>151</v>
       </c>
-      <c r="B155" s="16">
+      <c r="B155" s="7">
         <v>42699</v>
       </c>
       <c r="C155" s="3"/>
@@ -7146,22 +7218,22 @@
       <c r="J155" s="4">
         <v>136</v>
       </c>
-      <c r="K155" s="6">
+      <c r="K155" s="5">
         <v>121</v>
       </c>
-      <c r="L155" s="6">
+      <c r="L155" s="5">
         <v>61</v>
       </c>
       <c r="M155" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N155" s="7"/>
+      <c r="N155" s="6"/>
     </row>
     <row r="156" spans="1:14" ht="22.5">
       <c r="A156" s="4">
         <v>152</v>
       </c>
-      <c r="B156" s="16">
+      <c r="B156" s="7">
         <v>42700</v>
       </c>
       <c r="C156" s="3"/>
@@ -7188,22 +7260,22 @@
       <c r="J156" s="4">
         <v>137</v>
       </c>
-      <c r="K156" s="6">
+      <c r="K156" s="5">
         <v>122</v>
       </c>
-      <c r="L156" s="6">
+      <c r="L156" s="5">
         <v>62</v>
       </c>
       <c r="M156" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N156" s="7"/>
+      <c r="N156" s="6"/>
     </row>
     <row r="157" spans="1:14" ht="22.5">
       <c r="A157" s="4">
         <v>153</v>
       </c>
-      <c r="B157" s="16">
+      <c r="B157" s="7">
         <v>42701</v>
       </c>
       <c r="C157" s="3"/>
@@ -7230,22 +7302,22 @@
       <c r="J157" s="4">
         <v>138</v>
       </c>
-      <c r="K157" s="6">
+      <c r="K157" s="5">
         <v>123</v>
       </c>
-      <c r="L157" s="6">
+      <c r="L157" s="5">
         <v>63</v>
       </c>
       <c r="M157" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N157" s="7"/>
+      <c r="N157" s="6"/>
     </row>
     <row r="158" spans="1:14" ht="22.5">
       <c r="A158" s="4">
         <v>154</v>
       </c>
-      <c r="B158" s="16">
+      <c r="B158" s="7">
         <v>42702</v>
       </c>
       <c r="C158" s="3"/>
@@ -7272,22 +7344,22 @@
       <c r="J158" s="4">
         <v>139</v>
       </c>
-      <c r="K158" s="6">
+      <c r="K158" s="5">
         <v>124</v>
       </c>
-      <c r="L158" s="6">
+      <c r="L158" s="5">
         <v>64</v>
       </c>
       <c r="M158" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N158" s="7"/>
+      <c r="N158" s="6"/>
     </row>
     <row r="159" spans="1:14" ht="22.5">
       <c r="A159" s="4">
         <v>155</v>
       </c>
-      <c r="B159" s="16">
+      <c r="B159" s="7">
         <v>42703</v>
       </c>
       <c r="C159" s="3"/>
@@ -7314,22 +7386,22 @@
       <c r="J159" s="4">
         <v>140</v>
       </c>
-      <c r="K159" s="6">
+      <c r="K159" s="5">
         <v>125</v>
       </c>
-      <c r="L159" s="6">
+      <c r="L159" s="5">
         <v>65</v>
       </c>
       <c r="M159" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N159" s="7"/>
+      <c r="N159" s="6"/>
     </row>
     <row r="160" spans="1:14" ht="22.5">
       <c r="A160" s="4">
         <v>156</v>
       </c>
-      <c r="B160" s="16">
+      <c r="B160" s="7">
         <v>42704</v>
       </c>
       <c r="C160" s="3"/>
@@ -7356,22 +7428,22 @@
       <c r="J160" s="4">
         <v>141</v>
       </c>
-      <c r="K160" s="6">
+      <c r="K160" s="5">
         <v>126</v>
       </c>
-      <c r="L160" s="6">
+      <c r="L160" s="5">
         <v>66</v>
       </c>
       <c r="M160" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N160" s="7"/>
+      <c r="N160" s="6"/>
     </row>
     <row r="161" spans="1:14" ht="22.5">
       <c r="A161" s="4">
         <v>157</v>
       </c>
-      <c r="B161" s="16">
+      <c r="B161" s="7">
         <v>42705</v>
       </c>
       <c r="C161" s="3"/>
@@ -7398,22 +7470,22 @@
       <c r="J161" s="4">
         <v>142</v>
       </c>
-      <c r="K161" s="6">
+      <c r="K161" s="5">
         <v>127</v>
       </c>
-      <c r="L161" s="6">
+      <c r="L161" s="5">
         <v>67</v>
       </c>
       <c r="M161" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N161" s="7"/>
+      <c r="N161" s="6"/>
     </row>
     <row r="162" spans="1:14" ht="22.5">
       <c r="A162" s="4">
         <v>158</v>
       </c>
-      <c r="B162" s="16">
+      <c r="B162" s="7">
         <v>42706</v>
       </c>
       <c r="C162" s="3"/>
@@ -7440,22 +7512,22 @@
       <c r="J162" s="4">
         <v>143</v>
       </c>
-      <c r="K162" s="6">
+      <c r="K162" s="5">
         <v>128</v>
       </c>
-      <c r="L162" s="6">
+      <c r="L162" s="5">
         <v>68</v>
       </c>
       <c r="M162" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N162" s="7"/>
+      <c r="N162" s="6"/>
     </row>
     <row r="163" spans="1:14" ht="22.5">
       <c r="A163" s="4">
         <v>159</v>
       </c>
-      <c r="B163" s="16">
+      <c r="B163" s="7">
         <v>42707</v>
       </c>
       <c r="C163" s="3"/>
@@ -7482,22 +7554,22 @@
       <c r="J163" s="4">
         <v>144</v>
       </c>
-      <c r="K163" s="6">
+      <c r="K163" s="5">
         <v>129</v>
       </c>
-      <c r="L163" s="6">
+      <c r="L163" s="5">
         <v>69</v>
       </c>
       <c r="M163" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N163" s="7"/>
+      <c r="N163" s="6"/>
     </row>
     <row r="164" spans="1:14" ht="22.5">
       <c r="A164" s="4">
         <v>160</v>
       </c>
-      <c r="B164" s="16">
+      <c r="B164" s="7">
         <v>42708</v>
       </c>
       <c r="C164" s="3"/>
@@ -7524,22 +7596,22 @@
       <c r="J164" s="4">
         <v>145</v>
       </c>
-      <c r="K164" s="6">
+      <c r="K164" s="5">
         <v>130</v>
       </c>
-      <c r="L164" s="6">
+      <c r="L164" s="5">
         <v>70</v>
       </c>
       <c r="M164" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N164" s="7"/>
+      <c r="N164" s="6"/>
     </row>
     <row r="165" spans="1:14" ht="22.5">
       <c r="A165" s="4">
         <v>161</v>
       </c>
-      <c r="B165" s="16">
+      <c r="B165" s="7">
         <v>42709</v>
       </c>
       <c r="C165" s="3"/>
@@ -7566,22 +7638,22 @@
       <c r="J165" s="4">
         <v>146</v>
       </c>
-      <c r="K165" s="6">
+      <c r="K165" s="5">
         <v>131</v>
       </c>
-      <c r="L165" s="6">
+      <c r="L165" s="5">
         <v>71</v>
       </c>
       <c r="M165" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N165" s="7"/>
+      <c r="N165" s="6"/>
     </row>
     <row r="166" spans="1:14" ht="22.5">
       <c r="A166" s="4">
         <v>162</v>
       </c>
-      <c r="B166" s="16">
+      <c r="B166" s="7">
         <v>42710</v>
       </c>
       <c r="C166" s="3"/>
@@ -7608,22 +7680,22 @@
       <c r="J166" s="4">
         <v>147</v>
       </c>
-      <c r="K166" s="6">
+      <c r="K166" s="5">
         <v>132</v>
       </c>
-      <c r="L166" s="6">
+      <c r="L166" s="5">
         <v>72</v>
       </c>
       <c r="M166" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N166" s="7"/>
+      <c r="N166" s="6"/>
     </row>
     <row r="167" spans="1:14" ht="22.5">
       <c r="A167" s="4">
         <v>163</v>
       </c>
-      <c r="B167" s="16">
+      <c r="B167" s="7">
         <v>42711</v>
       </c>
       <c r="C167" s="3"/>
@@ -7650,22 +7722,22 @@
       <c r="J167" s="4">
         <v>148</v>
       </c>
-      <c r="K167" s="6">
+      <c r="K167" s="5">
         <v>133</v>
       </c>
-      <c r="L167" s="6">
+      <c r="L167" s="5">
         <v>73</v>
       </c>
       <c r="M167" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N167" s="7"/>
+      <c r="N167" s="6"/>
     </row>
     <row r="168" spans="1:14" ht="22.5">
       <c r="A168" s="4">
         <v>164</v>
       </c>
-      <c r="B168" s="16">
+      <c r="B168" s="7">
         <v>42712</v>
       </c>
       <c r="C168" s="3"/>
@@ -7692,22 +7764,22 @@
       <c r="J168" s="4">
         <v>149</v>
       </c>
-      <c r="K168" s="6">
+      <c r="K168" s="5">
         <v>134</v>
       </c>
-      <c r="L168" s="6">
+      <c r="L168" s="5">
         <v>74</v>
       </c>
       <c r="M168" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N168" s="7"/>
+      <c r="N168" s="6"/>
     </row>
     <row r="169" spans="1:14" ht="22.5">
       <c r="A169" s="4">
         <v>165</v>
       </c>
-      <c r="B169" s="16">
+      <c r="B169" s="7">
         <v>42713</v>
       </c>
       <c r="C169" s="3"/>
@@ -7734,22 +7806,22 @@
       <c r="J169" s="4">
         <v>150</v>
       </c>
-      <c r="K169" s="6">
+      <c r="K169" s="5">
         <v>135</v>
       </c>
-      <c r="L169" s="6">
+      <c r="L169" s="5">
         <v>75</v>
       </c>
       <c r="M169" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N169" s="7"/>
+      <c r="N169" s="6"/>
     </row>
     <row r="170" spans="1:14" ht="22.5">
       <c r="A170" s="4">
         <v>166</v>
       </c>
-      <c r="B170" s="16">
+      <c r="B170" s="7">
         <v>42714</v>
       </c>
       <c r="C170" s="3"/>
@@ -7776,22 +7848,22 @@
       <c r="J170" s="4">
         <v>151</v>
       </c>
-      <c r="K170" s="6">
+      <c r="K170" s="5">
         <v>136</v>
       </c>
-      <c r="L170" s="6">
+      <c r="L170" s="5">
         <v>76</v>
       </c>
       <c r="M170" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N170" s="7"/>
+      <c r="N170" s="6"/>
     </row>
     <row r="171" spans="1:14" ht="22.5">
       <c r="A171" s="4">
         <v>167</v>
       </c>
-      <c r="B171" s="16">
+      <c r="B171" s="7">
         <v>42715</v>
       </c>
       <c r="C171" s="3"/>
@@ -7818,22 +7890,22 @@
       <c r="J171" s="4">
         <v>152</v>
       </c>
-      <c r="K171" s="6">
+      <c r="K171" s="5">
         <v>137</v>
       </c>
-      <c r="L171" s="6">
+      <c r="L171" s="5">
         <v>77</v>
       </c>
       <c r="M171" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N171" s="7"/>
+      <c r="N171" s="6"/>
     </row>
     <row r="172" spans="1:14" ht="22.5">
       <c r="A172" s="4">
         <v>168</v>
       </c>
-      <c r="B172" s="16">
+      <c r="B172" s="7">
         <v>42716</v>
       </c>
       <c r="C172" s="3"/>
@@ -7860,22 +7932,22 @@
       <c r="J172" s="4">
         <v>153</v>
       </c>
-      <c r="K172" s="6">
+      <c r="K172" s="5">
         <v>138</v>
       </c>
-      <c r="L172" s="6">
+      <c r="L172" s="5">
         <v>78</v>
       </c>
       <c r="M172" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N172" s="7"/>
+      <c r="N172" s="6"/>
     </row>
     <row r="173" spans="1:14" ht="22.5">
       <c r="A173" s="4">
         <v>169</v>
       </c>
-      <c r="B173" s="16">
+      <c r="B173" s="7">
         <v>42717</v>
       </c>
       <c r="C173" s="3"/>
@@ -7902,22 +7974,22 @@
       <c r="J173" s="4">
         <v>154</v>
       </c>
-      <c r="K173" s="6">
+      <c r="K173" s="5">
         <v>139</v>
       </c>
-      <c r="L173" s="6">
+      <c r="L173" s="5">
         <v>79</v>
       </c>
       <c r="M173" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N173" s="7"/>
+      <c r="N173" s="6"/>
     </row>
     <row r="174" spans="1:14" ht="22.5">
       <c r="A174" s="4">
         <v>170</v>
       </c>
-      <c r="B174" s="16">
+      <c r="B174" s="7">
         <v>42718</v>
       </c>
       <c r="C174" s="3"/>
@@ -7944,22 +8016,22 @@
       <c r="J174" s="4">
         <v>155</v>
       </c>
-      <c r="K174" s="6">
+      <c r="K174" s="5">
         <v>140</v>
       </c>
-      <c r="L174" s="6">
+      <c r="L174" s="5">
         <v>80</v>
       </c>
       <c r="M174" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N174" s="7"/>
+      <c r="N174" s="6"/>
     </row>
     <row r="175" spans="1:14" ht="22.5">
       <c r="A175" s="4">
         <v>171</v>
       </c>
-      <c r="B175" s="16">
+      <c r="B175" s="7">
         <v>42719</v>
       </c>
       <c r="C175" s="3"/>
@@ -7986,22 +8058,22 @@
       <c r="J175" s="4">
         <v>156</v>
       </c>
-      <c r="K175" s="6">
+      <c r="K175" s="5">
         <v>141</v>
       </c>
-      <c r="L175" s="6">
+      <c r="L175" s="5">
         <v>81</v>
       </c>
       <c r="M175" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N175" s="7"/>
+      <c r="N175" s="6"/>
     </row>
     <row r="176" spans="1:14" ht="22.5">
       <c r="A176" s="4">
         <v>172</v>
       </c>
-      <c r="B176" s="16">
+      <c r="B176" s="7">
         <v>42720</v>
       </c>
       <c r="C176" s="3"/>
@@ -8028,22 +8100,22 @@
       <c r="J176" s="4">
         <v>157</v>
       </c>
-      <c r="K176" s="6">
+      <c r="K176" s="5">
         <v>142</v>
       </c>
-      <c r="L176" s="6">
+      <c r="L176" s="5">
         <v>82</v>
       </c>
       <c r="M176" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N176" s="7"/>
+      <c r="N176" s="6"/>
     </row>
     <row r="177" spans="1:14" ht="22.5">
       <c r="A177" s="4">
         <v>173</v>
       </c>
-      <c r="B177" s="16">
+      <c r="B177" s="7">
         <v>42721</v>
       </c>
       <c r="C177" s="3"/>
@@ -8070,22 +8142,22 @@
       <c r="J177" s="4">
         <v>158</v>
       </c>
-      <c r="K177" s="6">
+      <c r="K177" s="5">
         <v>143</v>
       </c>
-      <c r="L177" s="6">
+      <c r="L177" s="5">
         <v>83</v>
       </c>
       <c r="M177" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N177" s="7"/>
+      <c r="N177" s="6"/>
     </row>
     <row r="178" spans="1:14" ht="22.5">
       <c r="A178" s="4">
         <v>174</v>
       </c>
-      <c r="B178" s="16">
+      <c r="B178" s="7">
         <v>42722</v>
       </c>
       <c r="C178" s="3"/>
@@ -8112,22 +8184,22 @@
       <c r="J178" s="4">
         <v>159</v>
       </c>
-      <c r="K178" s="6">
+      <c r="K178" s="5">
         <v>144</v>
       </c>
-      <c r="L178" s="6">
+      <c r="L178" s="5">
         <v>84</v>
       </c>
       <c r="M178" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N178" s="7"/>
+      <c r="N178" s="6"/>
     </row>
     <row r="179" spans="1:14" ht="22.5">
       <c r="A179" s="4">
         <v>175</v>
       </c>
-      <c r="B179" s="16">
+      <c r="B179" s="7">
         <v>42723</v>
       </c>
       <c r="C179" s="3"/>
@@ -8154,22 +8226,22 @@
       <c r="J179" s="4">
         <v>160</v>
       </c>
-      <c r="K179" s="6">
+      <c r="K179" s="5">
         <v>145</v>
       </c>
-      <c r="L179" s="6">
+      <c r="L179" s="5">
         <v>85</v>
       </c>
       <c r="M179" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N179" s="7"/>
+      <c r="N179" s="6"/>
     </row>
     <row r="180" spans="1:14" ht="22.5">
       <c r="A180" s="4">
         <v>176</v>
       </c>
-      <c r="B180" s="16">
+      <c r="B180" s="7">
         <v>42724</v>
       </c>
       <c r="C180" s="3"/>
@@ -8196,22 +8268,22 @@
       <c r="J180" s="4">
         <v>161</v>
       </c>
-      <c r="K180" s="6">
+      <c r="K180" s="5">
         <v>146</v>
       </c>
-      <c r="L180" s="6">
+      <c r="L180" s="5">
         <v>86</v>
       </c>
       <c r="M180" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N180" s="7"/>
+      <c r="N180" s="6"/>
     </row>
     <row r="181" spans="1:14" ht="22.5">
       <c r="A181" s="4">
         <v>177</v>
       </c>
-      <c r="B181" s="16">
+      <c r="B181" s="7">
         <v>42725</v>
       </c>
       <c r="C181" s="3"/>
@@ -8238,22 +8310,22 @@
       <c r="J181" s="4">
         <v>162</v>
       </c>
-      <c r="K181" s="6">
+      <c r="K181" s="5">
         <v>147</v>
       </c>
-      <c r="L181" s="6">
+      <c r="L181" s="5">
         <v>87</v>
       </c>
       <c r="M181" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N181" s="7"/>
+      <c r="N181" s="6"/>
     </row>
     <row r="182" spans="1:14" ht="22.5">
       <c r="A182" s="4">
         <v>178</v>
       </c>
-      <c r="B182" s="16">
+      <c r="B182" s="7">
         <v>42726</v>
       </c>
       <c r="C182" s="3"/>
@@ -8280,22 +8352,22 @@
       <c r="J182" s="4">
         <v>163</v>
       </c>
-      <c r="K182" s="6">
+      <c r="K182" s="5">
         <v>148</v>
       </c>
-      <c r="L182" s="6">
+      <c r="L182" s="5">
         <v>88</v>
       </c>
       <c r="M182" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N182" s="7"/>
+      <c r="N182" s="6"/>
     </row>
     <row r="183" spans="1:14" ht="22.5">
       <c r="A183" s="4">
         <v>179</v>
       </c>
-      <c r="B183" s="16">
+      <c r="B183" s="7">
         <v>42727</v>
       </c>
       <c r="C183" s="3"/>
@@ -8322,22 +8394,22 @@
       <c r="J183" s="4">
         <v>164</v>
       </c>
-      <c r="K183" s="6">
+      <c r="K183" s="5">
         <v>149</v>
       </c>
-      <c r="L183" s="6">
+      <c r="L183" s="5">
         <v>89</v>
       </c>
       <c r="M183" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N183" s="7"/>
+      <c r="N183" s="6"/>
     </row>
     <row r="184" spans="1:14" ht="22.5">
       <c r="A184" s="4">
         <v>180</v>
       </c>
-      <c r="B184" s="16">
+      <c r="B184" s="7">
         <v>42728</v>
       </c>
       <c r="C184" s="3"/>
@@ -8364,22 +8436,22 @@
       <c r="J184" s="4">
         <v>165</v>
       </c>
-      <c r="K184" s="6">
+      <c r="K184" s="5">
         <v>150</v>
       </c>
-      <c r="L184" s="6">
+      <c r="L184" s="5">
         <v>90</v>
       </c>
-      <c r="M184" s="6">
+      <c r="M184" s="5">
         <v>1</v>
       </c>
-      <c r="N184" s="7"/>
+      <c r="N184" s="6"/>
     </row>
     <row r="185" spans="1:14" ht="22.5">
       <c r="A185" s="4">
         <v>181</v>
       </c>
-      <c r="B185" s="16">
+      <c r="B185" s="7">
         <v>42729</v>
       </c>
       <c r="C185" s="3"/>
@@ -8406,22 +8478,22 @@
       <c r="J185" s="4">
         <v>166</v>
       </c>
-      <c r="K185" s="6">
+      <c r="K185" s="5">
         <v>151</v>
       </c>
-      <c r="L185" s="6">
+      <c r="L185" s="5">
         <v>91</v>
       </c>
-      <c r="M185" s="6">
+      <c r="M185" s="5">
         <v>2</v>
       </c>
-      <c r="N185" s="7"/>
+      <c r="N185" s="6"/>
     </row>
     <row r="186" spans="1:14" ht="22.5">
       <c r="A186" s="4">
         <v>182</v>
       </c>
-      <c r="B186" s="16">
+      <c r="B186" s="7">
         <v>42730</v>
       </c>
       <c r="C186" s="3"/>
@@ -8448,22 +8520,22 @@
       <c r="J186" s="4">
         <v>167</v>
       </c>
-      <c r="K186" s="6">
+      <c r="K186" s="5">
         <v>152</v>
       </c>
-      <c r="L186" s="6">
+      <c r="L186" s="5">
         <v>92</v>
       </c>
-      <c r="M186" s="6">
+      <c r="M186" s="5">
         <v>3</v>
       </c>
-      <c r="N186" s="7"/>
+      <c r="N186" s="6"/>
     </row>
     <row r="187" spans="1:14" ht="22.5">
       <c r="A187" s="4">
         <v>183</v>
       </c>
-      <c r="B187" s="16">
+      <c r="B187" s="7">
         <v>42731</v>
       </c>
       <c r="C187" s="3"/>
@@ -8490,22 +8562,22 @@
       <c r="J187" s="4">
         <v>168</v>
       </c>
-      <c r="K187" s="6">
+      <c r="K187" s="5">
         <v>153</v>
       </c>
-      <c r="L187" s="6">
+      <c r="L187" s="5">
         <v>93</v>
       </c>
-      <c r="M187" s="6">
+      <c r="M187" s="5">
         <v>4</v>
       </c>
-      <c r="N187" s="7"/>
+      <c r="N187" s="6"/>
     </row>
     <row r="188" spans="1:14" ht="22.5">
       <c r="A188" s="4">
         <v>184</v>
       </c>
-      <c r="B188" s="16">
+      <c r="B188" s="7">
         <v>42732</v>
       </c>
       <c r="C188" s="3"/>
@@ -8532,22 +8604,22 @@
       <c r="J188" s="4">
         <v>169</v>
       </c>
-      <c r="K188" s="6">
+      <c r="K188" s="5">
         <v>154</v>
       </c>
-      <c r="L188" s="6">
+      <c r="L188" s="5">
         <v>94</v>
       </c>
-      <c r="M188" s="6">
+      <c r="M188" s="5">
         <v>5</v>
       </c>
-      <c r="N188" s="7"/>
+      <c r="N188" s="6"/>
     </row>
     <row r="189" spans="1:14" ht="22.5">
       <c r="A189" s="4">
         <v>185</v>
       </c>
-      <c r="B189" s="16">
+      <c r="B189" s="7">
         <v>42733</v>
       </c>
       <c r="C189" s="3"/>
@@ -8574,22 +8646,22 @@
       <c r="J189" s="4">
         <v>170</v>
       </c>
-      <c r="K189" s="6">
+      <c r="K189" s="5">
         <v>155</v>
       </c>
-      <c r="L189" s="6">
+      <c r="L189" s="5">
         <v>95</v>
       </c>
-      <c r="M189" s="6">
+      <c r="M189" s="5">
         <v>6</v>
       </c>
-      <c r="N189" s="7"/>
+      <c r="N189" s="6"/>
     </row>
     <row r="190" spans="1:14" ht="22.5">
       <c r="A190" s="4">
         <v>186</v>
       </c>
-      <c r="B190" s="16">
+      <c r="B190" s="7">
         <v>42734</v>
       </c>
       <c r="C190" s="3"/>
@@ -8616,22 +8688,22 @@
       <c r="J190" s="4">
         <v>171</v>
       </c>
-      <c r="K190" s="6">
+      <c r="K190" s="5">
         <v>156</v>
       </c>
-      <c r="L190" s="6">
+      <c r="L190" s="5">
         <v>96</v>
       </c>
-      <c r="M190" s="6">
+      <c r="M190" s="5">
         <v>7</v>
       </c>
-      <c r="N190" s="7"/>
+      <c r="N190" s="6"/>
     </row>
     <row r="191" spans="1:14" ht="22.5">
       <c r="A191" s="4">
         <v>187</v>
       </c>
-      <c r="B191" s="16">
+      <c r="B191" s="7">
         <v>42735</v>
       </c>
       <c r="C191" s="3"/>
@@ -8658,22 +8730,22 @@
       <c r="J191" s="4">
         <v>172</v>
       </c>
-      <c r="K191" s="6">
+      <c r="K191" s="5">
         <v>157</v>
       </c>
-      <c r="L191" s="6">
+      <c r="L191" s="5">
         <v>97</v>
       </c>
-      <c r="M191" s="6">
+      <c r="M191" s="5">
         <v>8</v>
       </c>
-      <c r="N191" s="7"/>
+      <c r="N191" s="6"/>
     </row>
     <row r="192" spans="1:14" ht="22.5">
       <c r="A192" s="4">
         <v>188</v>
       </c>
-      <c r="B192" s="16">
+      <c r="B192" s="7">
         <v>42736</v>
       </c>
       <c r="C192" s="3"/>
@@ -8700,22 +8772,22 @@
       <c r="J192" s="4">
         <v>173</v>
       </c>
-      <c r="K192" s="6">
+      <c r="K192" s="5">
         <v>158</v>
       </c>
-      <c r="L192" s="6">
+      <c r="L192" s="5">
         <v>98</v>
       </c>
-      <c r="M192" s="6">
+      <c r="M192" s="5">
         <v>9</v>
       </c>
-      <c r="N192" s="7"/>
+      <c r="N192" s="6"/>
     </row>
     <row r="193" spans="1:14" ht="22.5">
       <c r="A193" s="4">
         <v>189</v>
       </c>
-      <c r="B193" s="16">
+      <c r="B193" s="7">
         <v>42737</v>
       </c>
       <c r="C193" s="3"/>
@@ -8742,22 +8814,22 @@
       <c r="J193" s="4">
         <v>174</v>
       </c>
-      <c r="K193" s="6">
+      <c r="K193" s="5">
         <v>159</v>
       </c>
-      <c r="L193" s="6">
+      <c r="L193" s="5">
         <v>99</v>
       </c>
-      <c r="M193" s="6">
+      <c r="M193" s="5">
         <v>10</v>
       </c>
-      <c r="N193" s="7"/>
+      <c r="N193" s="6"/>
     </row>
     <row r="194" spans="1:14" ht="22.5">
       <c r="A194" s="4">
         <v>190</v>
       </c>
-      <c r="B194" s="16">
+      <c r="B194" s="7">
         <v>42738</v>
       </c>
       <c r="C194" s="3"/>
@@ -8784,22 +8856,22 @@
       <c r="J194" s="4">
         <v>175</v>
       </c>
-      <c r="K194" s="6">
+      <c r="K194" s="5">
         <v>160</v>
       </c>
-      <c r="L194" s="6">
+      <c r="L194" s="5">
         <v>100</v>
       </c>
-      <c r="M194" s="6">
+      <c r="M194" s="5">
         <v>11</v>
       </c>
-      <c r="N194" s="7"/>
+      <c r="N194" s="6"/>
     </row>
     <row r="195" spans="1:14" ht="22.5">
       <c r="A195" s="4">
         <v>191</v>
       </c>
-      <c r="B195" s="16">
+      <c r="B195" s="7">
         <v>42739</v>
       </c>
       <c r="C195" s="3"/>
@@ -8826,22 +8898,22 @@
       <c r="J195" s="4">
         <v>176</v>
       </c>
-      <c r="K195" s="6">
+      <c r="K195" s="5">
         <v>161</v>
       </c>
-      <c r="L195" s="6">
+      <c r="L195" s="5">
         <v>101</v>
       </c>
-      <c r="M195" s="6">
-        <v>12</v>
-      </c>
-      <c r="N195" s="7"/>
+      <c r="M195" s="5">
+        <v>12</v>
+      </c>
+      <c r="N195" s="6"/>
     </row>
     <row r="196" spans="1:14" ht="22.5">
       <c r="A196" s="4">
         <v>192</v>
       </c>
-      <c r="B196" s="16">
+      <c r="B196" s="7">
         <v>42740</v>
       </c>
       <c r="C196" s="3"/>
@@ -8868,22 +8940,22 @@
       <c r="J196" s="4">
         <v>177</v>
       </c>
-      <c r="K196" s="6">
+      <c r="K196" s="5">
         <v>162</v>
       </c>
-      <c r="L196" s="6">
+      <c r="L196" s="5">
         <v>102</v>
       </c>
-      <c r="M196" s="6">
+      <c r="M196" s="5">
         <v>13</v>
       </c>
-      <c r="N196" s="7"/>
+      <c r="N196" s="6"/>
     </row>
     <row r="197" spans="1:14" ht="22.5">
       <c r="A197" s="4">
         <v>193</v>
       </c>
-      <c r="B197" s="16">
+      <c r="B197" s="7">
         <v>42741</v>
       </c>
       <c r="C197" s="3"/>
@@ -8910,22 +8982,22 @@
       <c r="J197" s="4">
         <v>178</v>
       </c>
-      <c r="K197" s="6">
+      <c r="K197" s="5">
         <v>163</v>
       </c>
-      <c r="L197" s="6">
+      <c r="L197" s="5">
         <v>103</v>
       </c>
-      <c r="M197" s="6">
+      <c r="M197" s="5">
         <v>14</v>
       </c>
-      <c r="N197" s="7"/>
+      <c r="N197" s="6"/>
     </row>
     <row r="198" spans="1:14" ht="22.5">
       <c r="A198" s="4">
         <v>194</v>
       </c>
-      <c r="B198" s="16">
+      <c r="B198" s="7">
         <v>42742</v>
       </c>
       <c r="C198" s="3"/>
@@ -8952,22 +9024,22 @@
       <c r="J198" s="4">
         <v>179</v>
       </c>
-      <c r="K198" s="6">
+      <c r="K198" s="5">
         <v>164</v>
       </c>
-      <c r="L198" s="6">
+      <c r="L198" s="5">
         <v>104</v>
       </c>
-      <c r="M198" s="6">
+      <c r="M198" s="5">
         <v>15</v>
       </c>
-      <c r="N198" s="7"/>
+      <c r="N198" s="6"/>
     </row>
     <row r="199" spans="1:14" ht="22.5">
       <c r="A199" s="4">
         <v>195</v>
       </c>
-      <c r="B199" s="16">
+      <c r="B199" s="7">
         <v>42743</v>
       </c>
       <c r="C199" s="3"/>
@@ -8994,22 +9066,22 @@
       <c r="J199" s="4">
         <v>180</v>
       </c>
-      <c r="K199" s="6">
+      <c r="K199" s="5">
         <v>165</v>
       </c>
-      <c r="L199" s="6">
+      <c r="L199" s="5">
         <v>105</v>
       </c>
-      <c r="M199" s="6">
+      <c r="M199" s="5">
         <v>16</v>
       </c>
-      <c r="N199" s="7"/>
+      <c r="N199" s="6"/>
     </row>
     <row r="200" spans="1:14" ht="22.5">
       <c r="A200" s="4">
         <v>196</v>
       </c>
-      <c r="B200" s="16">
+      <c r="B200" s="7">
         <v>42744</v>
       </c>
       <c r="C200" s="3"/>
@@ -9036,22 +9108,22 @@
       <c r="J200" s="4">
         <v>181</v>
       </c>
-      <c r="K200" s="6">
+      <c r="K200" s="5">
         <v>166</v>
       </c>
-      <c r="L200" s="6">
+      <c r="L200" s="5">
         <v>106</v>
       </c>
-      <c r="M200" s="6">
+      <c r="M200" s="5">
         <v>17</v>
       </c>
-      <c r="N200" s="7"/>
+      <c r="N200" s="6"/>
     </row>
     <row r="201" spans="1:14" ht="22.5">
       <c r="A201" s="4">
         <v>197</v>
       </c>
-      <c r="B201" s="16">
+      <c r="B201" s="7">
         <v>42745</v>
       </c>
       <c r="C201" s="3"/>
@@ -9078,22 +9150,22 @@
       <c r="J201" s="4">
         <v>182</v>
       </c>
-      <c r="K201" s="6">
+      <c r="K201" s="5">
         <v>167</v>
       </c>
-      <c r="L201" s="6">
+      <c r="L201" s="5">
         <v>107</v>
       </c>
-      <c r="M201" s="6">
+      <c r="M201" s="5">
         <v>18</v>
       </c>
-      <c r="N201" s="7"/>
+      <c r="N201" s="6"/>
     </row>
     <row r="202" spans="1:14" ht="22.5">
       <c r="A202" s="4">
         <v>198</v>
       </c>
-      <c r="B202" s="16">
+      <c r="B202" s="7">
         <v>42746</v>
       </c>
       <c r="C202" s="3"/>
@@ -9120,22 +9192,22 @@
       <c r="J202" s="4">
         <v>183</v>
       </c>
-      <c r="K202" s="6">
+      <c r="K202" s="5">
         <v>168</v>
       </c>
-      <c r="L202" s="6">
+      <c r="L202" s="5">
         <v>108</v>
       </c>
-      <c r="M202" s="6">
+      <c r="M202" s="5">
         <v>19</v>
       </c>
-      <c r="N202" s="7"/>
+      <c r="N202" s="6"/>
     </row>
     <row r="203" spans="1:14" ht="22.5">
       <c r="A203" s="4">
         <v>199</v>
       </c>
-      <c r="B203" s="16">
+      <c r="B203" s="7">
         <v>42747</v>
       </c>
       <c r="C203" s="3"/>
@@ -9162,22 +9234,22 @@
       <c r="J203" s="4">
         <v>184</v>
       </c>
-      <c r="K203" s="6">
+      <c r="K203" s="5">
         <v>169</v>
       </c>
-      <c r="L203" s="6">
+      <c r="L203" s="5">
         <v>109</v>
       </c>
-      <c r="M203" s="6">
+      <c r="M203" s="5">
         <v>20</v>
       </c>
-      <c r="N203" s="7"/>
+      <c r="N203" s="6"/>
     </row>
     <row r="204" spans="1:14" ht="22.5">
       <c r="A204" s="4">
         <v>200</v>
       </c>
-      <c r="B204" s="16">
+      <c r="B204" s="7">
         <v>42748</v>
       </c>
       <c r="C204" s="3"/>
@@ -9204,22 +9276,22 @@
       <c r="J204" s="4">
         <v>185</v>
       </c>
-      <c r="K204" s="6">
+      <c r="K204" s="5">
         <v>170</v>
       </c>
-      <c r="L204" s="6">
+      <c r="L204" s="5">
         <v>110</v>
       </c>
-      <c r="M204" s="6">
+      <c r="M204" s="5">
         <v>21</v>
       </c>
-      <c r="N204" s="7"/>
+      <c r="N204" s="6"/>
     </row>
     <row r="205" spans="1:14" ht="22.5">
       <c r="A205" s="4">
         <v>201</v>
       </c>
-      <c r="B205" s="16">
+      <c r="B205" s="7">
         <v>42749</v>
       </c>
       <c r="C205" s="3"/>
@@ -9246,22 +9318,22 @@
       <c r="J205" s="4">
         <v>186</v>
       </c>
-      <c r="K205" s="6">
+      <c r="K205" s="5">
         <v>171</v>
       </c>
-      <c r="L205" s="6">
+      <c r="L205" s="5">
         <v>111</v>
       </c>
-      <c r="M205" s="6">
+      <c r="M205" s="5">
         <v>22</v>
       </c>
-      <c r="N205" s="7"/>
+      <c r="N205" s="6"/>
     </row>
     <row r="206" spans="1:14" ht="22.5">
       <c r="A206" s="4">
         <v>202</v>
       </c>
-      <c r="B206" s="16">
+      <c r="B206" s="7">
         <v>42750</v>
       </c>
       <c r="C206" s="3"/>
@@ -9288,22 +9360,22 @@
       <c r="J206" s="4">
         <v>187</v>
       </c>
-      <c r="K206" s="6">
+      <c r="K206" s="5">
         <v>172</v>
       </c>
-      <c r="L206" s="6">
+      <c r="L206" s="5">
         <v>112</v>
       </c>
-      <c r="M206" s="6">
+      <c r="M206" s="5">
         <v>23</v>
       </c>
-      <c r="N206" s="7"/>
+      <c r="N206" s="6"/>
     </row>
     <row r="207" spans="1:14" ht="22.5">
       <c r="A207" s="4">
         <v>203</v>
       </c>
-      <c r="B207" s="16">
+      <c r="B207" s="7">
         <v>42751</v>
       </c>
       <c r="C207" s="3"/>
@@ -9330,22 +9402,22 @@
       <c r="J207" s="4">
         <v>188</v>
       </c>
-      <c r="K207" s="6">
+      <c r="K207" s="5">
         <v>173</v>
       </c>
-      <c r="L207" s="6">
+      <c r="L207" s="5">
         <v>113</v>
       </c>
-      <c r="M207" s="6">
+      <c r="M207" s="5">
         <v>24</v>
       </c>
-      <c r="N207" s="7"/>
+      <c r="N207" s="6"/>
     </row>
     <row r="208" spans="1:14" ht="22.5">
       <c r="A208" s="4">
         <v>204</v>
       </c>
-      <c r="B208" s="16">
+      <c r="B208" s="7">
         <v>42752</v>
       </c>
       <c r="C208" s="3"/>
@@ -9372,22 +9444,22 @@
       <c r="J208" s="4">
         <v>189</v>
       </c>
-      <c r="K208" s="6">
+      <c r="K208" s="5">
         <v>174</v>
       </c>
-      <c r="L208" s="6">
+      <c r="L208" s="5">
         <v>114</v>
       </c>
-      <c r="M208" s="6">
+      <c r="M208" s="5">
         <v>25</v>
       </c>
-      <c r="N208" s="7"/>
+      <c r="N208" s="6"/>
     </row>
     <row r="209" spans="1:14" ht="22.5">
       <c r="A209" s="4">
         <v>205</v>
       </c>
-      <c r="B209" s="16">
+      <c r="B209" s="7">
         <v>42753</v>
       </c>
       <c r="C209" s="3"/>
@@ -9414,22 +9486,22 @@
       <c r="J209" s="4">
         <v>190</v>
       </c>
-      <c r="K209" s="6">
+      <c r="K209" s="5">
         <v>175</v>
       </c>
-      <c r="L209" s="6">
+      <c r="L209" s="5">
         <v>115</v>
       </c>
-      <c r="M209" s="6">
+      <c r="M209" s="5">
         <v>26</v>
       </c>
-      <c r="N209" s="7"/>
+      <c r="N209" s="6"/>
     </row>
     <row r="210" spans="1:14" ht="22.5">
       <c r="A210" s="4">
         <v>206</v>
       </c>
-      <c r="B210" s="16">
+      <c r="B210" s="7">
         <v>42754</v>
       </c>
       <c r="C210" s="3"/>
@@ -9456,22 +9528,22 @@
       <c r="J210" s="4">
         <v>191</v>
       </c>
-      <c r="K210" s="6">
+      <c r="K210" s="5">
         <v>176</v>
       </c>
-      <c r="L210" s="6">
+      <c r="L210" s="5">
         <v>116</v>
       </c>
-      <c r="M210" s="6">
+      <c r="M210" s="5">
         <v>27</v>
       </c>
-      <c r="N210" s="7"/>
+      <c r="N210" s="6"/>
     </row>
     <row r="211" spans="1:14" ht="22.5">
       <c r="A211" s="4">
         <v>207</v>
       </c>
-      <c r="B211" s="16">
+      <c r="B211" s="7">
         <v>42755</v>
       </c>
       <c r="C211" s="3"/>
@@ -9498,22 +9570,22 @@
       <c r="J211" s="4">
         <v>192</v>
       </c>
-      <c r="K211" s="6">
+      <c r="K211" s="5">
         <v>177</v>
       </c>
-      <c r="L211" s="6">
+      <c r="L211" s="5">
         <v>117</v>
       </c>
-      <c r="M211" s="6">
+      <c r="M211" s="5">
         <v>28</v>
       </c>
-      <c r="N211" s="7"/>
+      <c r="N211" s="6"/>
     </row>
     <row r="212" spans="1:14" ht="22.5">
       <c r="A212" s="4">
         <v>208</v>
       </c>
-      <c r="B212" s="16">
+      <c r="B212" s="7">
         <v>42756</v>
       </c>
       <c r="C212" s="3"/>
@@ -9540,22 +9612,22 @@
       <c r="J212" s="4">
         <v>193</v>
       </c>
-      <c r="K212" s="6">
+      <c r="K212" s="5">
         <v>178</v>
       </c>
-      <c r="L212" s="6">
+      <c r="L212" s="5">
         <v>118</v>
       </c>
-      <c r="M212" s="6">
+      <c r="M212" s="5">
         <v>29</v>
       </c>
-      <c r="N212" s="7"/>
+      <c r="N212" s="6"/>
     </row>
     <row r="213" spans="1:14" ht="22.5">
       <c r="A213" s="4">
         <v>209</v>
       </c>
-      <c r="B213" s="16">
+      <c r="B213" s="7">
         <v>42757</v>
       </c>
       <c r="C213" s="3"/>
@@ -9582,22 +9654,22 @@
       <c r="J213" s="4">
         <v>194</v>
       </c>
-      <c r="K213" s="6">
+      <c r="K213" s="5">
         <v>179</v>
       </c>
-      <c r="L213" s="6">
+      <c r="L213" s="5">
         <v>119</v>
       </c>
-      <c r="M213" s="6">
+      <c r="M213" s="5">
         <v>30</v>
       </c>
-      <c r="N213" s="7"/>
+      <c r="N213" s="6"/>
     </row>
     <row r="214" spans="1:14" ht="22.5">
       <c r="A214" s="4">
         <v>210</v>
       </c>
-      <c r="B214" s="16">
+      <c r="B214" s="7">
         <v>42758</v>
       </c>
       <c r="C214" s="3"/>
@@ -9624,22 +9696,22 @@
       <c r="J214" s="4">
         <v>195</v>
       </c>
-      <c r="K214" s="6">
+      <c r="K214" s="5">
         <v>180</v>
       </c>
-      <c r="L214" s="6">
+      <c r="L214" s="5">
         <v>120</v>
       </c>
-      <c r="M214" s="6">
+      <c r="M214" s="5">
         <v>31</v>
       </c>
-      <c r="N214" s="7"/>
+      <c r="N214" s="6"/>
     </row>
     <row r="215" spans="1:14" ht="22.5">
       <c r="A215" s="4">
         <v>211</v>
       </c>
-      <c r="B215" s="16">
+      <c r="B215" s="7">
         <v>42759</v>
       </c>
       <c r="C215" s="3"/>
@@ -9666,22 +9738,22 @@
       <c r="J215" s="4">
         <v>196</v>
       </c>
-      <c r="K215" s="6">
+      <c r="K215" s="5">
         <v>181</v>
       </c>
-      <c r="L215" s="6">
+      <c r="L215" s="5">
         <v>121</v>
       </c>
-      <c r="M215" s="6">
+      <c r="M215" s="5">
         <v>32</v>
       </c>
-      <c r="N215" s="7"/>
+      <c r="N215" s="6"/>
     </row>
     <row r="216" spans="1:14" ht="22.5">
       <c r="A216" s="4">
         <v>212</v>
       </c>
-      <c r="B216" s="16">
+      <c r="B216" s="7">
         <v>42760</v>
       </c>
       <c r="C216" s="3"/>
@@ -9708,22 +9780,22 @@
       <c r="J216" s="4">
         <v>197</v>
       </c>
-      <c r="K216" s="6">
+      <c r="K216" s="5">
         <v>182</v>
       </c>
-      <c r="L216" s="6">
+      <c r="L216" s="5">
         <v>122</v>
       </c>
-      <c r="M216" s="6">
+      <c r="M216" s="5">
         <v>33</v>
       </c>
-      <c r="N216" s="7"/>
+      <c r="N216" s="6"/>
     </row>
     <row r="217" spans="1:14" ht="22.5">
       <c r="A217" s="4">
         <v>213</v>
       </c>
-      <c r="B217" s="16">
+      <c r="B217" s="7">
         <v>42761</v>
       </c>
       <c r="C217" s="3"/>
@@ -9750,22 +9822,22 @@
       <c r="J217" s="4">
         <v>198</v>
       </c>
-      <c r="K217" s="6">
+      <c r="K217" s="5">
         <v>183</v>
       </c>
-      <c r="L217" s="6">
+      <c r="L217" s="5">
         <v>123</v>
       </c>
-      <c r="M217" s="6">
+      <c r="M217" s="5">
         <v>34</v>
       </c>
-      <c r="N217" s="7"/>
+      <c r="N217" s="6"/>
     </row>
     <row r="218" spans="1:14" ht="22.5">
       <c r="A218" s="4">
         <v>214</v>
       </c>
-      <c r="B218" s="16">
+      <c r="B218" s="7">
         <v>42762</v>
       </c>
       <c r="C218" s="3"/>
@@ -9792,22 +9864,22 @@
       <c r="J218" s="4">
         <v>199</v>
       </c>
-      <c r="K218" s="6">
+      <c r="K218" s="5">
         <v>184</v>
       </c>
-      <c r="L218" s="6">
+      <c r="L218" s="5">
         <v>124</v>
       </c>
-      <c r="M218" s="6">
+      <c r="M218" s="5">
         <v>35</v>
       </c>
-      <c r="N218" s="7"/>
+      <c r="N218" s="6"/>
     </row>
     <row r="219" spans="1:14" ht="22.5">
       <c r="A219" s="4">
         <v>215</v>
       </c>
-      <c r="B219" s="16">
+      <c r="B219" s="7">
         <v>42763</v>
       </c>
       <c r="C219" s="3"/>
@@ -9834,22 +9906,22 @@
       <c r="J219" s="4">
         <v>200</v>
       </c>
-      <c r="K219" s="6">
+      <c r="K219" s="5">
         <v>185</v>
       </c>
-      <c r="L219" s="6">
+      <c r="L219" s="5">
         <v>125</v>
       </c>
-      <c r="M219" s="6">
+      <c r="M219" s="5">
         <v>36</v>
       </c>
-      <c r="N219" s="7"/>
+      <c r="N219" s="6"/>
     </row>
     <row r="220" spans="1:14" ht="22.5">
       <c r="A220" s="4">
         <v>216</v>
       </c>
-      <c r="B220" s="16">
+      <c r="B220" s="7">
         <v>42764</v>
       </c>
       <c r="C220" s="3"/>
@@ -9876,22 +9948,22 @@
       <c r="J220" s="4">
         <v>201</v>
       </c>
-      <c r="K220" s="6">
+      <c r="K220" s="5">
         <v>186</v>
       </c>
-      <c r="L220" s="6">
+      <c r="L220" s="5">
         <v>126</v>
       </c>
-      <c r="M220" s="6">
+      <c r="M220" s="5">
         <v>37</v>
       </c>
-      <c r="N220" s="7"/>
+      <c r="N220" s="6"/>
     </row>
     <row r="221" spans="1:14" ht="22.5">
       <c r="A221" s="4">
         <v>217</v>
       </c>
-      <c r="B221" s="16">
+      <c r="B221" s="7">
         <v>42765</v>
       </c>
       <c r="C221" s="3"/>
@@ -9918,22 +9990,22 @@
       <c r="J221" s="4">
         <v>202</v>
       </c>
-      <c r="K221" s="6">
+      <c r="K221" s="5">
         <v>187</v>
       </c>
-      <c r="L221" s="6">
+      <c r="L221" s="5">
         <v>127</v>
       </c>
-      <c r="M221" s="6">
+      <c r="M221" s="5">
         <v>38</v>
       </c>
-      <c r="N221" s="7"/>
+      <c r="N221" s="6"/>
     </row>
     <row r="222" spans="1:14" ht="22.5">
       <c r="A222" s="4">
         <v>218</v>
       </c>
-      <c r="B222" s="16">
+      <c r="B222" s="7">
         <v>42766</v>
       </c>
       <c r="C222" s="3"/>
@@ -9960,22 +10032,22 @@
       <c r="J222" s="4">
         <v>203</v>
       </c>
-      <c r="K222" s="6">
+      <c r="K222" s="5">
         <v>188</v>
       </c>
-      <c r="L222" s="6">
+      <c r="L222" s="5">
         <v>128</v>
       </c>
-      <c r="M222" s="6">
+      <c r="M222" s="5">
         <v>39</v>
       </c>
-      <c r="N222" s="7"/>
+      <c r="N222" s="6"/>
     </row>
     <row r="223" spans="1:14" ht="22.5">
       <c r="A223" s="4">
         <v>219</v>
       </c>
-      <c r="B223" s="16">
+      <c r="B223" s="7">
         <v>42767</v>
       </c>
       <c r="C223" s="3"/>
@@ -10002,22 +10074,22 @@
       <c r="J223" s="4">
         <v>204</v>
       </c>
-      <c r="K223" s="6">
+      <c r="K223" s="5">
         <v>189</v>
       </c>
-      <c r="L223" s="6">
+      <c r="L223" s="5">
         <v>129</v>
       </c>
-      <c r="M223" s="6">
+      <c r="M223" s="5">
         <v>40</v>
       </c>
-      <c r="N223" s="7"/>
+      <c r="N223" s="6"/>
     </row>
     <row r="224" spans="1:14" ht="22.5">
       <c r="A224" s="4">
         <v>220</v>
       </c>
-      <c r="B224" s="16">
+      <c r="B224" s="7">
         <v>42768</v>
       </c>
       <c r="C224" s="3"/>
@@ -10044,22 +10116,22 @@
       <c r="J224" s="4">
         <v>205</v>
       </c>
-      <c r="K224" s="6">
+      <c r="K224" s="5">
         <v>190</v>
       </c>
-      <c r="L224" s="6">
+      <c r="L224" s="5">
         <v>130</v>
       </c>
-      <c r="M224" s="6">
+      <c r="M224" s="5">
         <v>41</v>
       </c>
-      <c r="N224" s="7"/>
+      <c r="N224" s="6"/>
     </row>
     <row r="225" spans="1:14" ht="22.5">
       <c r="A225" s="4">
         <v>221</v>
       </c>
-      <c r="B225" s="16">
+      <c r="B225" s="7">
         <v>42769</v>
       </c>
       <c r="C225" s="3"/>
@@ -10086,22 +10158,22 @@
       <c r="J225" s="4">
         <v>206</v>
       </c>
-      <c r="K225" s="6">
+      <c r="K225" s="5">
         <v>191</v>
       </c>
-      <c r="L225" s="6">
+      <c r="L225" s="5">
         <v>131</v>
       </c>
-      <c r="M225" s="6">
+      <c r="M225" s="5">
         <v>42</v>
       </c>
-      <c r="N225" s="7"/>
+      <c r="N225" s="6"/>
     </row>
     <row r="226" spans="1:14" ht="22.5">
       <c r="A226" s="4">
         <v>222</v>
       </c>
-      <c r="B226" s="16">
+      <c r="B226" s="7">
         <v>42770</v>
       </c>
       <c r="C226" s="3"/>
@@ -10128,22 +10200,22 @@
       <c r="J226" s="4">
         <v>207</v>
       </c>
-      <c r="K226" s="6">
+      <c r="K226" s="5">
         <v>192</v>
       </c>
-      <c r="L226" s="6">
+      <c r="L226" s="5">
         <v>132</v>
       </c>
-      <c r="M226" s="6">
+      <c r="M226" s="5">
         <v>43</v>
       </c>
-      <c r="N226" s="7"/>
+      <c r="N226" s="6"/>
     </row>
     <row r="227" spans="1:14" ht="22.5">
       <c r="A227" s="4">
         <v>223</v>
       </c>
-      <c r="B227" s="16">
+      <c r="B227" s="7">
         <v>42771</v>
       </c>
       <c r="C227" s="3"/>
@@ -10170,22 +10242,22 @@
       <c r="J227" s="4">
         <v>208</v>
       </c>
-      <c r="K227" s="6">
+      <c r="K227" s="5">
         <v>193</v>
       </c>
-      <c r="L227" s="6">
+      <c r="L227" s="5">
         <v>133</v>
       </c>
-      <c r="M227" s="6">
+      <c r="M227" s="5">
         <v>44</v>
       </c>
-      <c r="N227" s="7"/>
+      <c r="N227" s="6"/>
     </row>
     <row r="228" spans="1:14" ht="22.5">
       <c r="A228" s="4">
         <v>224</v>
       </c>
-      <c r="B228" s="16">
+      <c r="B228" s="7">
         <v>42772</v>
       </c>
       <c r="C228" s="3"/>
@@ -10212,22 +10284,22 @@
       <c r="J228" s="4">
         <v>209</v>
       </c>
-      <c r="K228" s="6">
+      <c r="K228" s="5">
         <v>194</v>
       </c>
-      <c r="L228" s="6">
+      <c r="L228" s="5">
         <v>134</v>
       </c>
-      <c r="M228" s="6">
+      <c r="M228" s="5">
         <v>45</v>
       </c>
-      <c r="N228" s="7"/>
+      <c r="N228" s="6"/>
     </row>
     <row r="229" spans="1:14" ht="22.5">
       <c r="A229" s="4">
         <v>225</v>
       </c>
-      <c r="B229" s="16">
+      <c r="B229" s="7">
         <v>42773</v>
       </c>
       <c r="C229" s="3"/>
@@ -10254,22 +10326,22 @@
       <c r="J229" s="4">
         <v>210</v>
       </c>
-      <c r="K229" s="6">
+      <c r="K229" s="5">
         <v>195</v>
       </c>
-      <c r="L229" s="6">
+      <c r="L229" s="5">
         <v>135</v>
       </c>
-      <c r="M229" s="6">
+      <c r="M229" s="5">
         <v>46</v>
       </c>
-      <c r="N229" s="7"/>
+      <c r="N229" s="6"/>
     </row>
     <row r="230" spans="1:14" ht="22.5">
       <c r="A230" s="4">
         <v>226</v>
       </c>
-      <c r="B230" s="16">
+      <c r="B230" s="7">
         <v>42774</v>
       </c>
       <c r="C230" s="3"/>
@@ -10296,22 +10368,22 @@
       <c r="J230" s="4">
         <v>211</v>
       </c>
-      <c r="K230" s="6">
+      <c r="K230" s="5">
         <v>196</v>
       </c>
-      <c r="L230" s="6">
+      <c r="L230" s="5">
         <v>136</v>
       </c>
-      <c r="M230" s="6">
+      <c r="M230" s="5">
         <v>47</v>
       </c>
-      <c r="N230" s="7"/>
+      <c r="N230" s="6"/>
     </row>
     <row r="231" spans="1:14" ht="22.5">
       <c r="A231" s="4">
         <v>227</v>
       </c>
-      <c r="B231" s="16">
+      <c r="B231" s="7">
         <v>42775</v>
       </c>
       <c r="C231" s="3"/>
@@ -10338,22 +10410,22 @@
       <c r="J231" s="4">
         <v>212</v>
       </c>
-      <c r="K231" s="6">
+      <c r="K231" s="5">
         <v>197</v>
       </c>
-      <c r="L231" s="6">
+      <c r="L231" s="5">
         <v>137</v>
       </c>
-      <c r="M231" s="6">
+      <c r="M231" s="5">
         <v>48</v>
       </c>
-      <c r="N231" s="7"/>
+      <c r="N231" s="6"/>
     </row>
     <row r="232" spans="1:14" ht="22.5">
       <c r="A232" s="4">
         <v>228</v>
       </c>
-      <c r="B232" s="16">
+      <c r="B232" s="7">
         <v>42776</v>
       </c>
       <c r="C232" s="3"/>
@@ -10380,22 +10452,22 @@
       <c r="J232" s="4">
         <v>213</v>
       </c>
-      <c r="K232" s="6">
+      <c r="K232" s="5">
         <v>198</v>
       </c>
-      <c r="L232" s="6">
+      <c r="L232" s="5">
         <v>138</v>
       </c>
-      <c r="M232" s="6">
+      <c r="M232" s="5">
         <v>49</v>
       </c>
-      <c r="N232" s="7"/>
+      <c r="N232" s="6"/>
     </row>
     <row r="233" spans="1:14" ht="22.5">
       <c r="A233" s="4">
         <v>229</v>
       </c>
-      <c r="B233" s="16">
+      <c r="B233" s="7">
         <v>42777</v>
       </c>
       <c r="C233" s="3"/>
@@ -10422,22 +10494,22 @@
       <c r="J233" s="4">
         <v>214</v>
       </c>
-      <c r="K233" s="6">
+      <c r="K233" s="5">
         <v>199</v>
       </c>
-      <c r="L233" s="6">
+      <c r="L233" s="5">
         <v>139</v>
       </c>
-      <c r="M233" s="6">
+      <c r="M233" s="5">
         <v>50</v>
       </c>
-      <c r="N233" s="7"/>
+      <c r="N233" s="6"/>
     </row>
     <row r="234" spans="1:14" ht="22.5">
       <c r="A234" s="4">
         <v>230</v>
       </c>
-      <c r="B234" s="16">
+      <c r="B234" s="7">
         <v>42778</v>
       </c>
       <c r="C234" s="3"/>
@@ -10464,22 +10536,22 @@
       <c r="J234" s="4">
         <v>215</v>
       </c>
-      <c r="K234" s="6">
+      <c r="K234" s="5">
         <v>200</v>
       </c>
-      <c r="L234" s="6">
+      <c r="L234" s="5">
         <v>140</v>
       </c>
-      <c r="M234" s="6">
+      <c r="M234" s="5">
         <v>51</v>
       </c>
-      <c r="N234" s="7"/>
+      <c r="N234" s="6"/>
     </row>
     <row r="235" spans="1:14" ht="22.5">
       <c r="A235" s="4">
         <v>231</v>
       </c>
-      <c r="B235" s="16">
+      <c r="B235" s="7">
         <v>42779</v>
       </c>
       <c r="C235" s="3"/>
@@ -10506,22 +10578,22 @@
       <c r="J235" s="4">
         <v>216</v>
       </c>
-      <c r="K235" s="6">
+      <c r="K235" s="5">
         <v>201</v>
       </c>
-      <c r="L235" s="6">
+      <c r="L235" s="5">
         <v>141</v>
       </c>
-      <c r="M235" s="6">
+      <c r="M235" s="5">
         <v>52</v>
       </c>
-      <c r="N235" s="7"/>
+      <c r="N235" s="6"/>
     </row>
     <row r="236" spans="1:14" ht="22.5">
       <c r="A236" s="4">
         <v>232</v>
       </c>
-      <c r="B236" s="16">
+      <c r="B236" s="7">
         <v>42780</v>
       </c>
       <c r="C236" s="3"/>
@@ -10548,22 +10620,22 @@
       <c r="J236" s="4">
         <v>217</v>
       </c>
-      <c r="K236" s="6">
+      <c r="K236" s="5">
         <v>202</v>
       </c>
-      <c r="L236" s="6">
+      <c r="L236" s="5">
         <v>142</v>
       </c>
-      <c r="M236" s="6">
+      <c r="M236" s="5">
         <v>53</v>
       </c>
-      <c r="N236" s="7"/>
+      <c r="N236" s="6"/>
     </row>
     <row r="237" spans="1:14" ht="22.5">
       <c r="A237" s="4">
         <v>233</v>
       </c>
-      <c r="B237" s="16">
+      <c r="B237" s="7">
         <v>42781</v>
       </c>
       <c r="C237" s="3"/>
@@ -10590,22 +10662,22 @@
       <c r="J237" s="4">
         <v>218</v>
       </c>
-      <c r="K237" s="6">
+      <c r="K237" s="5">
         <v>203</v>
       </c>
-      <c r="L237" s="6">
+      <c r="L237" s="5">
         <v>143</v>
       </c>
-      <c r="M237" s="6">
+      <c r="M237" s="5">
         <v>54</v>
       </c>
-      <c r="N237" s="7"/>
+      <c r="N237" s="6"/>
     </row>
     <row r="238" spans="1:14" ht="22.5">
       <c r="A238" s="4">
         <v>234</v>
       </c>
-      <c r="B238" s="16">
+      <c r="B238" s="7">
         <v>42782</v>
       </c>
       <c r="C238" s="3"/>
@@ -10632,22 +10704,22 @@
       <c r="J238" s="4">
         <v>219</v>
       </c>
-      <c r="K238" s="6">
+      <c r="K238" s="5">
         <v>204</v>
       </c>
-      <c r="L238" s="6">
+      <c r="L238" s="5">
         <v>144</v>
       </c>
-      <c r="M238" s="6">
+      <c r="M238" s="5">
         <v>55</v>
       </c>
-      <c r="N238" s="7"/>
+      <c r="N238" s="6"/>
     </row>
     <row r="239" spans="1:14" ht="22.5">
       <c r="A239" s="4">
         <v>235</v>
       </c>
-      <c r="B239" s="16">
+      <c r="B239" s="7">
         <v>42783</v>
       </c>
       <c r="C239" s="3"/>
@@ -10674,22 +10746,22 @@
       <c r="J239" s="4">
         <v>220</v>
       </c>
-      <c r="K239" s="6">
+      <c r="K239" s="5">
         <v>205</v>
       </c>
-      <c r="L239" s="6">
+      <c r="L239" s="5">
         <v>145</v>
       </c>
-      <c r="M239" s="6">
+      <c r="M239" s="5">
         <v>56</v>
       </c>
-      <c r="N239" s="7"/>
+      <c r="N239" s="6"/>
     </row>
     <row r="240" spans="1:14" ht="22.5">
       <c r="A240" s="4">
         <v>236</v>
       </c>
-      <c r="B240" s="16">
+      <c r="B240" s="7">
         <v>42784</v>
       </c>
       <c r="C240" s="3"/>
@@ -10716,22 +10788,22 @@
       <c r="J240" s="4">
         <v>221</v>
       </c>
-      <c r="K240" s="6">
+      <c r="K240" s="5">
         <v>206</v>
       </c>
-      <c r="L240" s="6">
+      <c r="L240" s="5">
         <v>146</v>
       </c>
-      <c r="M240" s="6">
+      <c r="M240" s="5">
         <v>57</v>
       </c>
-      <c r="N240" s="7"/>
+      <c r="N240" s="6"/>
     </row>
     <row r="241" spans="1:14" ht="22.5">
       <c r="A241" s="4">
         <v>237</v>
       </c>
-      <c r="B241" s="16">
+      <c r="B241" s="7">
         <v>42785</v>
       </c>
       <c r="C241" s="3"/>
@@ -10758,22 +10830,22 @@
       <c r="J241" s="4">
         <v>222</v>
       </c>
-      <c r="K241" s="6">
+      <c r="K241" s="5">
         <v>207</v>
       </c>
-      <c r="L241" s="6">
+      <c r="L241" s="5">
         <v>147</v>
       </c>
-      <c r="M241" s="6">
+      <c r="M241" s="5">
         <v>58</v>
       </c>
-      <c r="N241" s="7"/>
+      <c r="N241" s="6"/>
     </row>
     <row r="242" spans="1:14" ht="22.5">
       <c r="A242" s="4">
         <v>238</v>
       </c>
-      <c r="B242" s="16">
+      <c r="B242" s="7">
         <v>42786</v>
       </c>
       <c r="C242" s="3"/>
@@ -10800,22 +10872,22 @@
       <c r="J242" s="4">
         <v>223</v>
       </c>
-      <c r="K242" s="6">
+      <c r="K242" s="5">
         <v>208</v>
       </c>
-      <c r="L242" s="6">
+      <c r="L242" s="5">
         <v>148</v>
       </c>
-      <c r="M242" s="6">
+      <c r="M242" s="5">
         <v>59</v>
       </c>
-      <c r="N242" s="7"/>
+      <c r="N242" s="6"/>
     </row>
     <row r="243" spans="1:14" ht="22.5">
       <c r="A243" s="4">
         <v>239</v>
       </c>
-      <c r="B243" s="16">
+      <c r="B243" s="7">
         <v>42787</v>
       </c>
       <c r="C243" s="3"/>
@@ -10842,22 +10914,22 @@
       <c r="J243" s="4">
         <v>224</v>
       </c>
-      <c r="K243" s="6">
+      <c r="K243" s="5">
         <v>209</v>
       </c>
-      <c r="L243" s="6">
+      <c r="L243" s="5">
         <v>149</v>
       </c>
-      <c r="M243" s="6">
+      <c r="M243" s="5">
         <v>60</v>
       </c>
-      <c r="N243" s="7"/>
+      <c r="N243" s="6"/>
     </row>
     <row r="244" spans="1:14" ht="22.5">
       <c r="A244" s="4">
         <v>240</v>
       </c>
-      <c r="B244" s="16">
+      <c r="B244" s="7">
         <v>42788</v>
       </c>
       <c r="C244" s="3"/>
@@ -10884,22 +10956,22 @@
       <c r="J244" s="4">
         <v>225</v>
       </c>
-      <c r="K244" s="6">
+      <c r="K244" s="5">
         <v>210</v>
       </c>
-      <c r="L244" s="6">
+      <c r="L244" s="5">
         <v>150</v>
       </c>
-      <c r="M244" s="6">
+      <c r="M244" s="5">
         <v>61</v>
       </c>
-      <c r="N244" s="7"/>
+      <c r="N244" s="6"/>
     </row>
     <row r="245" spans="1:14" ht="22.5">
       <c r="A245" s="4">
         <v>241</v>
       </c>
-      <c r="B245" s="16">
+      <c r="B245" s="7">
         <v>42789</v>
       </c>
       <c r="C245" s="3"/>
@@ -10926,22 +10998,22 @@
       <c r="J245" s="4">
         <v>226</v>
       </c>
-      <c r="K245" s="6">
+      <c r="K245" s="5">
         <v>211</v>
       </c>
-      <c r="L245" s="6">
+      <c r="L245" s="5">
         <v>151</v>
       </c>
-      <c r="M245" s="6">
+      <c r="M245" s="5">
         <v>62</v>
       </c>
-      <c r="N245" s="7"/>
+      <c r="N245" s="6"/>
     </row>
     <row r="246" spans="1:14" ht="22.5">
       <c r="A246" s="4">
         <v>242</v>
       </c>
-      <c r="B246" s="16">
+      <c r="B246" s="7">
         <v>42790</v>
       </c>
       <c r="C246" s="3"/>
@@ -10968,22 +11040,22 @@
       <c r="J246" s="4">
         <v>227</v>
       </c>
-      <c r="K246" s="6">
+      <c r="K246" s="5">
         <v>212</v>
       </c>
-      <c r="L246" s="6">
+      <c r="L246" s="5">
         <v>152</v>
       </c>
-      <c r="M246" s="6">
+      <c r="M246" s="5">
         <v>63</v>
       </c>
-      <c r="N246" s="7"/>
+      <c r="N246" s="6"/>
     </row>
     <row r="247" spans="1:14" ht="22.5">
       <c r="A247" s="4">
         <v>243</v>
       </c>
-      <c r="B247" s="16">
+      <c r="B247" s="7">
         <v>42791</v>
       </c>
       <c r="C247" s="3"/>
@@ -11010,22 +11082,22 @@
       <c r="J247" s="4">
         <v>228</v>
       </c>
-      <c r="K247" s="6">
+      <c r="K247" s="5">
         <v>213</v>
       </c>
-      <c r="L247" s="6">
+      <c r="L247" s="5">
         <v>153</v>
       </c>
-      <c r="M247" s="6">
+      <c r="M247" s="5">
         <v>64</v>
       </c>
-      <c r="N247" s="7"/>
+      <c r="N247" s="6"/>
     </row>
     <row r="248" spans="1:14" ht="22.5">
       <c r="A248" s="4">
         <v>244</v>
       </c>
-      <c r="B248" s="16">
+      <c r="B248" s="7">
         <v>42792</v>
       </c>
       <c r="C248" s="3"/>
@@ -11052,22 +11124,22 @@
       <c r="J248" s="4">
         <v>229</v>
       </c>
-      <c r="K248" s="6">
+      <c r="K248" s="5">
         <v>214</v>
       </c>
-      <c r="L248" s="6">
+      <c r="L248" s="5">
         <v>154</v>
       </c>
-      <c r="M248" s="6">
+      <c r="M248" s="5">
         <v>65</v>
       </c>
-      <c r="N248" s="7"/>
+      <c r="N248" s="6"/>
     </row>
     <row r="249" spans="1:14" ht="22.5">
       <c r="A249" s="4">
         <v>245</v>
       </c>
-      <c r="B249" s="16">
+      <c r="B249" s="7">
         <v>42793</v>
       </c>
       <c r="C249" s="3"/>
@@ -11094,22 +11166,22 @@
       <c r="J249" s="4">
         <v>230</v>
       </c>
-      <c r="K249" s="6">
+      <c r="K249" s="5">
         <v>215</v>
       </c>
-      <c r="L249" s="6">
+      <c r="L249" s="5">
         <v>155</v>
       </c>
-      <c r="M249" s="6">
+      <c r="M249" s="5">
         <v>66</v>
       </c>
-      <c r="N249" s="7"/>
+      <c r="N249" s="6"/>
     </row>
     <row r="250" spans="1:14" ht="22.5">
       <c r="A250" s="4">
         <v>246</v>
       </c>
-      <c r="B250" s="16">
+      <c r="B250" s="7">
         <v>42794</v>
       </c>
       <c r="C250" s="3"/>
@@ -11136,22 +11208,22 @@
       <c r="J250" s="4">
         <v>231</v>
       </c>
-      <c r="K250" s="6">
+      <c r="K250" s="5">
         <v>216</v>
       </c>
-      <c r="L250" s="6">
+      <c r="L250" s="5">
         <v>156</v>
       </c>
-      <c r="M250" s="6">
+      <c r="M250" s="5">
         <v>67</v>
       </c>
-      <c r="N250" s="7"/>
+      <c r="N250" s="6"/>
     </row>
     <row r="251" spans="1:14" ht="22.5">
       <c r="A251" s="4">
         <v>247</v>
       </c>
-      <c r="B251" s="16">
+      <c r="B251" s="7">
         <v>42795</v>
       </c>
       <c r="C251" s="3"/>
@@ -11178,22 +11250,22 @@
       <c r="J251" s="4">
         <v>232</v>
       </c>
-      <c r="K251" s="6">
+      <c r="K251" s="5">
         <v>217</v>
       </c>
-      <c r="L251" s="6">
+      <c r="L251" s="5">
         <v>157</v>
       </c>
-      <c r="M251" s="6">
+      <c r="M251" s="5">
         <v>68</v>
       </c>
-      <c r="N251" s="7"/>
+      <c r="N251" s="6"/>
     </row>
     <row r="252" spans="1:14" ht="22.5">
       <c r="A252" s="4">
         <v>248</v>
       </c>
-      <c r="B252" s="16">
+      <c r="B252" s="7">
         <v>42796</v>
       </c>
       <c r="C252" s="3"/>
@@ -11220,22 +11292,22 @@
       <c r="J252" s="4">
         <v>233</v>
       </c>
-      <c r="K252" s="6">
+      <c r="K252" s="5">
         <v>218</v>
       </c>
-      <c r="L252" s="6">
+      <c r="L252" s="5">
         <v>158</v>
       </c>
-      <c r="M252" s="6">
+      <c r="M252" s="5">
         <v>69</v>
       </c>
-      <c r="N252" s="7"/>
+      <c r="N252" s="6"/>
     </row>
     <row r="253" spans="1:14" ht="22.5">
       <c r="A253" s="4">
         <v>249</v>
       </c>
-      <c r="B253" s="16">
+      <c r="B253" s="7">
         <v>42797</v>
       </c>
       <c r="C253" s="3"/>
@@ -11262,22 +11334,22 @@
       <c r="J253" s="4">
         <v>234</v>
       </c>
-      <c r="K253" s="6">
+      <c r="K253" s="5">
         <v>219</v>
       </c>
-      <c r="L253" s="6">
+      <c r="L253" s="5">
         <v>159</v>
       </c>
-      <c r="M253" s="6">
+      <c r="M253" s="5">
         <v>70</v>
       </c>
-      <c r="N253" s="7"/>
+      <c r="N253" s="6"/>
     </row>
     <row r="254" spans="1:14" ht="22.5">
       <c r="A254" s="4">
         <v>250</v>
       </c>
-      <c r="B254" s="16">
+      <c r="B254" s="7">
         <v>42798</v>
       </c>
       <c r="C254" s="3"/>
@@ -11304,22 +11376,22 @@
       <c r="J254" s="4">
         <v>235</v>
       </c>
-      <c r="K254" s="6">
+      <c r="K254" s="5">
         <v>220</v>
       </c>
-      <c r="L254" s="6">
+      <c r="L254" s="5">
         <v>160</v>
       </c>
-      <c r="M254" s="6">
+      <c r="M254" s="5">
         <v>71</v>
       </c>
-      <c r="N254" s="7"/>
+      <c r="N254" s="6"/>
     </row>
     <row r="255" spans="1:14" ht="22.5">
       <c r="A255" s="4">
         <v>251</v>
       </c>
-      <c r="B255" s="16">
+      <c r="B255" s="7">
         <v>42799</v>
       </c>
       <c r="C255" s="3"/>
@@ -11346,22 +11418,22 @@
       <c r="J255" s="4">
         <v>236</v>
       </c>
-      <c r="K255" s="6">
+      <c r="K255" s="5">
         <v>221</v>
       </c>
-      <c r="L255" s="6">
+      <c r="L255" s="5">
         <v>161</v>
       </c>
-      <c r="M255" s="6">
+      <c r="M255" s="5">
         <v>72</v>
       </c>
-      <c r="N255" s="7"/>
+      <c r="N255" s="6"/>
     </row>
     <row r="256" spans="1:14" ht="22.5">
       <c r="A256" s="4">
         <v>252</v>
       </c>
-      <c r="B256" s="16">
+      <c r="B256" s="7">
         <v>42800</v>
       </c>
       <c r="C256" s="3"/>
@@ -11388,22 +11460,22 @@
       <c r="J256" s="4">
         <v>237</v>
       </c>
-      <c r="K256" s="6">
+      <c r="K256" s="5">
         <v>222</v>
       </c>
-      <c r="L256" s="6">
+      <c r="L256" s="5">
         <v>162</v>
       </c>
-      <c r="M256" s="6">
+      <c r="M256" s="5">
         <v>73</v>
       </c>
-      <c r="N256" s="7"/>
+      <c r="N256" s="6"/>
     </row>
     <row r="257" spans="1:14" ht="22.5">
       <c r="A257" s="4">
         <v>253</v>
       </c>
-      <c r="B257" s="16">
+      <c r="B257" s="7">
         <v>42801</v>
       </c>
       <c r="C257" s="3"/>
@@ -11430,22 +11502,22 @@
       <c r="J257" s="4">
         <v>238</v>
       </c>
-      <c r="K257" s="6">
+      <c r="K257" s="5">
         <v>223</v>
       </c>
-      <c r="L257" s="6">
+      <c r="L257" s="5">
         <v>163</v>
       </c>
-      <c r="M257" s="6">
+      <c r="M257" s="5">
         <v>74</v>
       </c>
-      <c r="N257" s="7"/>
+      <c r="N257" s="6"/>
     </row>
     <row r="258" spans="1:14" ht="22.5">
       <c r="A258" s="4">
         <v>254</v>
       </c>
-      <c r="B258" s="16">
+      <c r="B258" s="7">
         <v>42802</v>
       </c>
       <c r="C258" s="3"/>
@@ -11472,22 +11544,22 @@
       <c r="J258" s="4">
         <v>239</v>
       </c>
-      <c r="K258" s="6">
+      <c r="K258" s="5">
         <v>224</v>
       </c>
-      <c r="L258" s="6">
+      <c r="L258" s="5">
         <v>164</v>
       </c>
-      <c r="M258" s="6">
+      <c r="M258" s="5">
         <v>75</v>
       </c>
-      <c r="N258" s="7"/>
+      <c r="N258" s="6"/>
     </row>
     <row r="259" spans="1:14" ht="22.5">
       <c r="A259" s="4">
         <v>255</v>
       </c>
-      <c r="B259" s="16">
+      <c r="B259" s="7">
         <v>42803</v>
       </c>
       <c r="C259" s="3"/>
@@ -11514,22 +11586,22 @@
       <c r="J259" s="4">
         <v>240</v>
       </c>
-      <c r="K259" s="6">
+      <c r="K259" s="5">
         <v>225</v>
       </c>
-      <c r="L259" s="6">
+      <c r="L259" s="5">
         <v>165</v>
       </c>
-      <c r="M259" s="6">
+      <c r="M259" s="5">
         <v>76</v>
       </c>
-      <c r="N259" s="7"/>
+      <c r="N259" s="6"/>
     </row>
     <row r="260" spans="1:14" ht="22.5">
       <c r="A260" s="4">
         <v>256</v>
       </c>
-      <c r="B260" s="16">
+      <c r="B260" s="7">
         <v>42804</v>
       </c>
       <c r="C260" s="3"/>
@@ -11556,22 +11628,22 @@
       <c r="J260" s="4">
         <v>241</v>
       </c>
-      <c r="K260" s="6">
+      <c r="K260" s="5">
         <v>226</v>
       </c>
-      <c r="L260" s="6">
+      <c r="L260" s="5">
         <v>166</v>
       </c>
-      <c r="M260" s="6">
+      <c r="M260" s="5">
         <v>77</v>
       </c>
-      <c r="N260" s="7"/>
+      <c r="N260" s="6"/>
     </row>
     <row r="261" spans="1:14" ht="22.5">
       <c r="A261" s="4">
         <v>257</v>
       </c>
-      <c r="B261" s="16">
+      <c r="B261" s="7">
         <v>42805</v>
       </c>
       <c r="C261" s="3"/>
@@ -11598,22 +11670,22 @@
       <c r="J261" s="4">
         <v>242</v>
       </c>
-      <c r="K261" s="6">
+      <c r="K261" s="5">
         <v>227</v>
       </c>
-      <c r="L261" s="6">
+      <c r="L261" s="5">
         <v>167</v>
       </c>
-      <c r="M261" s="6">
+      <c r="M261" s="5">
         <v>78</v>
       </c>
-      <c r="N261" s="7"/>
+      <c r="N261" s="6"/>
     </row>
     <row r="262" spans="1:14" ht="22.5">
       <c r="A262" s="4">
         <v>258</v>
       </c>
-      <c r="B262" s="16">
+      <c r="B262" s="7">
         <v>42806</v>
       </c>
       <c r="C262" s="3"/>
@@ -11640,22 +11712,22 @@
       <c r="J262" s="4">
         <v>243</v>
       </c>
-      <c r="K262" s="6">
+      <c r="K262" s="5">
         <v>228</v>
       </c>
-      <c r="L262" s="6">
+      <c r="L262" s="5">
         <v>168</v>
       </c>
-      <c r="M262" s="6">
+      <c r="M262" s="5">
         <v>79</v>
       </c>
-      <c r="N262" s="7"/>
+      <c r="N262" s="6"/>
     </row>
     <row r="263" spans="1:14" ht="22.5">
       <c r="A263" s="4">
         <v>259</v>
       </c>
-      <c r="B263" s="16">
+      <c r="B263" s="7">
         <v>42807</v>
       </c>
       <c r="C263" s="3"/>
@@ -11682,22 +11754,22 @@
       <c r="J263" s="4">
         <v>244</v>
       </c>
-      <c r="K263" s="6">
+      <c r="K263" s="5">
         <v>229</v>
       </c>
-      <c r="L263" s="6">
+      <c r="L263" s="5">
         <v>169</v>
       </c>
-      <c r="M263" s="6">
+      <c r="M263" s="5">
         <v>80</v>
       </c>
-      <c r="N263" s="7"/>
+      <c r="N263" s="6"/>
     </row>
     <row r="264" spans="1:14" ht="22.5">
       <c r="A264" s="4">
         <v>260</v>
       </c>
-      <c r="B264" s="16">
+      <c r="B264" s="7">
         <v>42808</v>
       </c>
       <c r="C264" s="3"/>
@@ -11724,22 +11796,22 @@
       <c r="J264" s="4">
         <v>245</v>
       </c>
-      <c r="K264" s="6">
+      <c r="K264" s="5">
         <v>230</v>
       </c>
-      <c r="L264" s="6">
+      <c r="L264" s="5">
         <v>170</v>
       </c>
-      <c r="M264" s="6">
+      <c r="M264" s="5">
         <v>81</v>
       </c>
-      <c r="N264" s="7"/>
+      <c r="N264" s="6"/>
     </row>
     <row r="265" spans="1:14" ht="22.5">
       <c r="A265" s="4">
         <v>261</v>
       </c>
-      <c r="B265" s="16">
+      <c r="B265" s="7">
         <v>42809</v>
       </c>
       <c r="C265" s="3"/>
@@ -11766,22 +11838,22 @@
       <c r="J265" s="4">
         <v>246</v>
       </c>
-      <c r="K265" s="6">
+      <c r="K265" s="5">
         <v>231</v>
       </c>
-      <c r="L265" s="6">
+      <c r="L265" s="5">
         <v>171</v>
       </c>
-      <c r="M265" s="6">
+      <c r="M265" s="5">
         <v>82</v>
       </c>
-      <c r="N265" s="7"/>
+      <c r="N265" s="6"/>
     </row>
     <row r="266" spans="1:14" ht="22.5">
       <c r="A266" s="4">
         <v>262</v>
       </c>
-      <c r="B266" s="16">
+      <c r="B266" s="7">
         <v>42810</v>
       </c>
       <c r="C266" s="3"/>
@@ -11808,22 +11880,22 @@
       <c r="J266" s="4">
         <v>247</v>
       </c>
-      <c r="K266" s="6">
+      <c r="K266" s="5">
         <v>232</v>
       </c>
-      <c r="L266" s="6">
+      <c r="L266" s="5">
         <v>172</v>
       </c>
-      <c r="M266" s="6">
+      <c r="M266" s="5">
         <v>83</v>
       </c>
-      <c r="N266" s="7"/>
+      <c r="N266" s="6"/>
     </row>
     <row r="267" spans="1:14" ht="22.5">
       <c r="A267" s="4">
         <v>263</v>
       </c>
-      <c r="B267" s="16">
+      <c r="B267" s="7">
         <v>42811</v>
       </c>
       <c r="C267" s="3"/>
@@ -11850,22 +11922,22 @@
       <c r="J267" s="4">
         <v>248</v>
       </c>
-      <c r="K267" s="6">
+      <c r="K267" s="5">
         <v>233</v>
       </c>
-      <c r="L267" s="6">
+      <c r="L267" s="5">
         <v>173</v>
       </c>
-      <c r="M267" s="6">
+      <c r="M267" s="5">
         <v>84</v>
       </c>
-      <c r="N267" s="7"/>
+      <c r="N267" s="6"/>
     </row>
     <row r="268" spans="1:14" ht="22.5">
       <c r="A268" s="4">
         <v>264</v>
       </c>
-      <c r="B268" s="16">
+      <c r="B268" s="7">
         <v>42812</v>
       </c>
       <c r="C268" s="3"/>
@@ -11892,22 +11964,22 @@
       <c r="J268" s="4">
         <v>249</v>
       </c>
-      <c r="K268" s="6">
+      <c r="K268" s="5">
         <v>234</v>
       </c>
-      <c r="L268" s="6">
+      <c r="L268" s="5">
         <v>174</v>
       </c>
-      <c r="M268" s="6">
+      <c r="M268" s="5">
         <v>85</v>
       </c>
-      <c r="N268" s="7"/>
+      <c r="N268" s="6"/>
     </row>
     <row r="269" spans="1:14" ht="22.5">
       <c r="A269" s="4">
         <v>265</v>
       </c>
-      <c r="B269" s="16">
+      <c r="B269" s="7">
         <v>42813</v>
       </c>
       <c r="C269" s="3"/>
@@ -11934,22 +12006,22 @@
       <c r="J269" s="4">
         <v>250</v>
       </c>
-      <c r="K269" s="6">
+      <c r="K269" s="5">
         <v>235</v>
       </c>
-      <c r="L269" s="6">
+      <c r="L269" s="5">
         <v>175</v>
       </c>
-      <c r="M269" s="6">
+      <c r="M269" s="5">
         <v>86</v>
       </c>
-      <c r="N269" s="7"/>
+      <c r="N269" s="6"/>
     </row>
     <row r="270" spans="1:14" ht="22.5">
       <c r="A270" s="4">
         <v>266</v>
       </c>
-      <c r="B270" s="16">
+      <c r="B270" s="7">
         <v>42814</v>
       </c>
       <c r="C270" s="3"/>
@@ -11976,22 +12048,22 @@
       <c r="J270" s="4">
         <v>251</v>
       </c>
-      <c r="K270" s="6">
+      <c r="K270" s="5">
         <v>236</v>
       </c>
-      <c r="L270" s="6">
+      <c r="L270" s="5">
         <v>176</v>
       </c>
-      <c r="M270" s="6">
+      <c r="M270" s="5">
         <v>87</v>
       </c>
-      <c r="N270" s="7"/>
+      <c r="N270" s="6"/>
     </row>
     <row r="271" spans="1:14" ht="22.5">
       <c r="A271" s="4">
         <v>267</v>
       </c>
-      <c r="B271" s="16">
+      <c r="B271" s="7">
         <v>42815</v>
       </c>
       <c r="C271" s="3"/>
@@ -12018,22 +12090,22 @@
       <c r="J271" s="4">
         <v>252</v>
       </c>
-      <c r="K271" s="6">
+      <c r="K271" s="5">
         <v>237</v>
       </c>
-      <c r="L271" s="6">
+      <c r="L271" s="5">
         <v>177</v>
       </c>
-      <c r="M271" s="6">
+      <c r="M271" s="5">
         <v>88</v>
       </c>
-      <c r="N271" s="7"/>
+      <c r="N271" s="6"/>
     </row>
     <row r="272" spans="1:14" ht="22.5">
       <c r="A272" s="4">
         <v>268</v>
       </c>
-      <c r="B272" s="16">
+      <c r="B272" s="7">
         <v>42816</v>
       </c>
       <c r="C272" s="3"/>
@@ -12060,22 +12132,22 @@
       <c r="J272" s="4">
         <v>253</v>
       </c>
-      <c r="K272" s="6">
+      <c r="K272" s="5">
         <v>238</v>
       </c>
-      <c r="L272" s="6">
+      <c r="L272" s="5">
         <v>178</v>
       </c>
-      <c r="M272" s="6">
+      <c r="M272" s="5">
         <v>89</v>
       </c>
-      <c r="N272" s="7"/>
+      <c r="N272" s="6"/>
     </row>
     <row r="273" spans="1:14" ht="22.5">
       <c r="A273" s="4">
         <v>269</v>
       </c>
-      <c r="B273" s="16">
+      <c r="B273" s="7">
         <v>42817</v>
       </c>
       <c r="C273" s="3"/>
@@ -12102,22 +12174,22 @@
       <c r="J273" s="4">
         <v>254</v>
       </c>
-      <c r="K273" s="6">
+      <c r="K273" s="5">
         <v>239</v>
       </c>
-      <c r="L273" s="6">
+      <c r="L273" s="5">
         <v>179</v>
       </c>
-      <c r="M273" s="6">
+      <c r="M273" s="5">
         <v>90</v>
       </c>
-      <c r="N273" s="7"/>
+      <c r="N273" s="6"/>
     </row>
     <row r="274" spans="1:14" ht="22.5">
       <c r="A274" s="4">
         <v>270</v>
       </c>
-      <c r="B274" s="16">
+      <c r="B274" s="7">
         <v>42818</v>
       </c>
       <c r="C274" s="3"/>
@@ -12144,22 +12216,22 @@
       <c r="J274" s="4">
         <v>255</v>
       </c>
-      <c r="K274" s="6">
+      <c r="K274" s="5">
         <v>240</v>
       </c>
-      <c r="L274" s="6">
+      <c r="L274" s="5">
         <v>180</v>
       </c>
-      <c r="M274" s="6">
+      <c r="M274" s="5">
         <v>91</v>
       </c>
-      <c r="N274" s="7"/>
+      <c r="N274" s="6"/>
     </row>
     <row r="275" spans="1:14" ht="22.5">
       <c r="A275" s="4">
         <v>271</v>
       </c>
-      <c r="B275" s="16">
+      <c r="B275" s="7">
         <v>42819</v>
       </c>
       <c r="C275" s="3"/>
@@ -12186,22 +12258,22 @@
       <c r="J275" s="4">
         <v>256</v>
       </c>
-      <c r="K275" s="6">
+      <c r="K275" s="5">
         <v>241</v>
       </c>
-      <c r="L275" s="6">
+      <c r="L275" s="5">
         <v>181</v>
       </c>
-      <c r="M275" s="6">
+      <c r="M275" s="5">
         <v>92</v>
       </c>
-      <c r="N275" s="7"/>
+      <c r="N275" s="6"/>
     </row>
     <row r="276" spans="1:14" ht="22.5">
       <c r="A276" s="4">
         <v>272</v>
       </c>
-      <c r="B276" s="16">
+      <c r="B276" s="7">
         <v>42820</v>
       </c>
       <c r="C276" s="3"/>
@@ -12228,22 +12300,22 @@
       <c r="J276" s="4">
         <v>257</v>
       </c>
-      <c r="K276" s="6">
+      <c r="K276" s="5">
         <v>242</v>
       </c>
-      <c r="L276" s="6">
+      <c r="L276" s="5">
         <v>182</v>
       </c>
-      <c r="M276" s="6">
+      <c r="M276" s="5">
         <v>93</v>
       </c>
-      <c r="N276" s="7"/>
+      <c r="N276" s="6"/>
     </row>
     <row r="277" spans="1:14" ht="22.5">
       <c r="A277" s="4">
         <v>273</v>
       </c>
-      <c r="B277" s="16">
+      <c r="B277" s="7">
         <v>42821</v>
       </c>
       <c r="C277" s="3"/>
@@ -12270,22 +12342,22 @@
       <c r="J277" s="4">
         <v>258</v>
       </c>
-      <c r="K277" s="6">
+      <c r="K277" s="5">
         <v>243</v>
       </c>
-      <c r="L277" s="6">
+      <c r="L277" s="5">
         <v>183</v>
       </c>
-      <c r="M277" s="6">
+      <c r="M277" s="5">
         <v>94</v>
       </c>
-      <c r="N277" s="7"/>
+      <c r="N277" s="6"/>
     </row>
     <row r="278" spans="1:14" ht="22.5">
       <c r="A278" s="4">
         <v>274</v>
       </c>
-      <c r="B278" s="16">
+      <c r="B278" s="7">
         <v>42822</v>
       </c>
       <c r="C278" s="3"/>
@@ -12312,22 +12384,22 @@
       <c r="J278" s="4">
         <v>259</v>
       </c>
-      <c r="K278" s="6">
+      <c r="K278" s="5">
         <v>244</v>
       </c>
-      <c r="L278" s="6">
+      <c r="L278" s="5">
         <v>184</v>
       </c>
-      <c r="M278" s="6">
+      <c r="M278" s="5">
         <v>95</v>
       </c>
-      <c r="N278" s="7"/>
+      <c r="N278" s="6"/>
     </row>
     <row r="279" spans="1:14" ht="22.5">
       <c r="A279" s="4">
         <v>275</v>
       </c>
-      <c r="B279" s="16">
+      <c r="B279" s="7">
         <v>42823</v>
       </c>
       <c r="C279" s="3"/>
@@ -12354,22 +12426,22 @@
       <c r="J279" s="4">
         <v>260</v>
       </c>
-      <c r="K279" s="6">
+      <c r="K279" s="5">
         <v>245</v>
       </c>
-      <c r="L279" s="6">
+      <c r="L279" s="5">
         <v>185</v>
       </c>
-      <c r="M279" s="6">
+      <c r="M279" s="5">
         <v>96</v>
       </c>
-      <c r="N279" s="7"/>
+      <c r="N279" s="6"/>
     </row>
     <row r="280" spans="1:14" ht="22.5">
       <c r="A280" s="4">
         <v>276</v>
       </c>
-      <c r="B280" s="16">
+      <c r="B280" s="7">
         <v>42824</v>
       </c>
       <c r="C280" s="3"/>
@@ -12396,22 +12468,22 @@
       <c r="J280" s="4">
         <v>261</v>
       </c>
-      <c r="K280" s="6">
+      <c r="K280" s="5">
         <v>246</v>
       </c>
-      <c r="L280" s="6">
+      <c r="L280" s="5">
         <v>186</v>
       </c>
-      <c r="M280" s="6">
+      <c r="M280" s="5">
         <v>97</v>
       </c>
-      <c r="N280" s="7"/>
+      <c r="N280" s="6"/>
     </row>
     <row r="281" spans="1:14" ht="22.5">
       <c r="A281" s="4">
         <v>277</v>
       </c>
-      <c r="B281" s="16">
+      <c r="B281" s="7">
         <v>42825</v>
       </c>
       <c r="C281" s="3"/>
@@ -12438,22 +12510,22 @@
       <c r="J281" s="4">
         <v>262</v>
       </c>
-      <c r="K281" s="6">
+      <c r="K281" s="5">
         <v>247</v>
       </c>
-      <c r="L281" s="6">
+      <c r="L281" s="5">
         <v>187</v>
       </c>
-      <c r="M281" s="6">
+      <c r="M281" s="5">
         <v>98</v>
       </c>
-      <c r="N281" s="7"/>
+      <c r="N281" s="6"/>
     </row>
     <row r="282" spans="1:14" ht="22.5">
       <c r="A282" s="4">
         <v>278</v>
       </c>
-      <c r="B282" s="16">
+      <c r="B282" s="7">
         <v>42826</v>
       </c>
       <c r="C282" s="3"/>
@@ -12480,22 +12552,22 @@
       <c r="J282" s="4">
         <v>263</v>
       </c>
-      <c r="K282" s="6">
+      <c r="K282" s="5">
         <v>248</v>
       </c>
-      <c r="L282" s="6">
+      <c r="L282" s="5">
         <v>188</v>
       </c>
-      <c r="M282" s="6">
+      <c r="M282" s="5">
         <v>99</v>
       </c>
-      <c r="N282" s="7"/>
+      <c r="N282" s="6"/>
     </row>
     <row r="283" spans="1:14" ht="22.5">
       <c r="A283" s="4">
         <v>279</v>
       </c>
-      <c r="B283" s="16">
+      <c r="B283" s="7">
         <v>42827</v>
       </c>
       <c r="C283" s="3"/>
@@ -12522,22 +12594,22 @@
       <c r="J283" s="4">
         <v>264</v>
       </c>
-      <c r="K283" s="6">
+      <c r="K283" s="5">
         <v>249</v>
       </c>
-      <c r="L283" s="6">
+      <c r="L283" s="5">
         <v>189</v>
       </c>
-      <c r="M283" s="6">
+      <c r="M283" s="5">
         <v>100</v>
       </c>
-      <c r="N283" s="7"/>
+      <c r="N283" s="6"/>
     </row>
     <row r="284" spans="1:14" ht="22.5">
       <c r="A284" s="4">
         <v>280</v>
       </c>
-      <c r="B284" s="16">
+      <c r="B284" s="7">
         <v>42828</v>
       </c>
       <c r="C284" s="3"/>
@@ -12564,22 +12636,22 @@
       <c r="J284" s="4">
         <v>265</v>
       </c>
-      <c r="K284" s="6">
+      <c r="K284" s="5">
         <v>250</v>
       </c>
-      <c r="L284" s="6">
+      <c r="L284" s="5">
         <v>190</v>
       </c>
-      <c r="M284" s="6">
+      <c r="M284" s="5">
         <v>101</v>
       </c>
-      <c r="N284" s="7"/>
+      <c r="N284" s="6"/>
     </row>
     <row r="285" spans="1:14" ht="22.5">
       <c r="A285" s="4">
         <v>281</v>
       </c>
-      <c r="B285" s="16">
+      <c r="B285" s="7">
         <v>42829</v>
       </c>
       <c r="C285" s="3"/>
@@ -12606,22 +12678,22 @@
       <c r="J285" s="4">
         <v>266</v>
       </c>
-      <c r="K285" s="6">
+      <c r="K285" s="5">
         <v>251</v>
       </c>
-      <c r="L285" s="6">
+      <c r="L285" s="5">
         <v>191</v>
       </c>
-      <c r="M285" s="6">
+      <c r="M285" s="5">
         <v>102</v>
       </c>
-      <c r="N285" s="7"/>
+      <c r="N285" s="6"/>
     </row>
     <row r="286" spans="1:14" ht="22.5">
       <c r="A286" s="4">
         <v>282</v>
       </c>
-      <c r="B286" s="16">
+      <c r="B286" s="7">
         <v>42830</v>
       </c>
       <c r="C286" s="3"/>
@@ -12648,22 +12720,22 @@
       <c r="J286" s="4">
         <v>267</v>
       </c>
-      <c r="K286" s="6">
+      <c r="K286" s="5">
         <v>252</v>
       </c>
-      <c r="L286" s="6">
+      <c r="L286" s="5">
         <v>192</v>
       </c>
-      <c r="M286" s="6">
+      <c r="M286" s="5">
         <v>103</v>
       </c>
-      <c r="N286" s="7"/>
+      <c r="N286" s="6"/>
     </row>
     <row r="287" spans="1:14" ht="22.5">
       <c r="A287" s="4">
         <v>283</v>
       </c>
-      <c r="B287" s="16">
+      <c r="B287" s="7">
         <v>42831</v>
       </c>
       <c r="C287" s="3"/>
@@ -12690,22 +12762,22 @@
       <c r="J287" s="4">
         <v>268</v>
       </c>
-      <c r="K287" s="6">
+      <c r="K287" s="5">
         <v>253</v>
       </c>
-      <c r="L287" s="6">
+      <c r="L287" s="5">
         <v>193</v>
       </c>
-      <c r="M287" s="6">
+      <c r="M287" s="5">
         <v>104</v>
       </c>
-      <c r="N287" s="7"/>
+      <c r="N287" s="6"/>
     </row>
     <row r="288" spans="1:14" ht="22.5">
       <c r="A288" s="4">
         <v>284</v>
       </c>
-      <c r="B288" s="16">
+      <c r="B288" s="7">
         <v>42832</v>
       </c>
       <c r="C288" s="3"/>
@@ -12732,22 +12804,22 @@
       <c r="J288" s="4">
         <v>269</v>
       </c>
-      <c r="K288" s="6">
+      <c r="K288" s="5">
         <v>254</v>
       </c>
-      <c r="L288" s="6">
+      <c r="L288" s="5">
         <v>194</v>
       </c>
-      <c r="M288" s="6">
+      <c r="M288" s="5">
         <v>105</v>
       </c>
-      <c r="N288" s="7"/>
+      <c r="N288" s="6"/>
     </row>
     <row r="289" spans="1:14" ht="22.5">
       <c r="A289" s="4">
         <v>285</v>
       </c>
-      <c r="B289" s="16">
+      <c r="B289" s="7">
         <v>42833</v>
       </c>
       <c r="C289" s="3"/>
@@ -12774,22 +12846,22 @@
       <c r="J289" s="4">
         <v>270</v>
       </c>
-      <c r="K289" s="6">
+      <c r="K289" s="5">
         <v>255</v>
       </c>
-      <c r="L289" s="6">
+      <c r="L289" s="5">
         <v>195</v>
       </c>
-      <c r="M289" s="6">
+      <c r="M289" s="5">
         <v>106</v>
       </c>
-      <c r="N289" s="7"/>
+      <c r="N289" s="6"/>
     </row>
     <row r="290" spans="1:14" ht="22.5">
       <c r="A290" s="4">
         <v>286</v>
       </c>
-      <c r="B290" s="16">
+      <c r="B290" s="7">
         <v>42834</v>
       </c>
       <c r="C290" s="3"/>
@@ -12816,22 +12888,22 @@
       <c r="J290" s="4">
         <v>271</v>
       </c>
-      <c r="K290" s="6">
+      <c r="K290" s="5">
         <v>256</v>
       </c>
-      <c r="L290" s="6">
+      <c r="L290" s="5">
         <v>196</v>
       </c>
-      <c r="M290" s="6">
+      <c r="M290" s="5">
         <v>107</v>
       </c>
-      <c r="N290" s="7"/>
+      <c r="N290" s="6"/>
     </row>
     <row r="291" spans="1:14" ht="22.5">
       <c r="A291" s="4">
         <v>287</v>
       </c>
-      <c r="B291" s="16">
+      <c r="B291" s="7">
         <v>42835</v>
       </c>
       <c r="C291" s="3"/>
@@ -12858,22 +12930,22 @@
       <c r="J291" s="4">
         <v>272</v>
       </c>
-      <c r="K291" s="6">
+      <c r="K291" s="5">
         <v>257</v>
       </c>
-      <c r="L291" s="6">
+      <c r="L291" s="5">
         <v>197</v>
       </c>
-      <c r="M291" s="6">
+      <c r="M291" s="5">
         <v>108</v>
       </c>
-      <c r="N291" s="7"/>
+      <c r="N291" s="6"/>
     </row>
     <row r="292" spans="1:14" ht="22.5">
       <c r="A292" s="4">
         <v>288</v>
       </c>
-      <c r="B292" s="16">
+      <c r="B292" s="7">
         <v>42836</v>
       </c>
       <c r="C292" s="3"/>
@@ -12900,22 +12972,22 @@
       <c r="J292" s="4">
         <v>273</v>
       </c>
-      <c r="K292" s="6">
+      <c r="K292" s="5">
         <v>258</v>
       </c>
-      <c r="L292" s="6">
+      <c r="L292" s="5">
         <v>198</v>
       </c>
-      <c r="M292" s="6">
+      <c r="M292" s="5">
         <v>109</v>
       </c>
-      <c r="N292" s="7"/>
+      <c r="N292" s="6"/>
     </row>
     <row r="293" spans="1:14" ht="22.5">
       <c r="A293" s="4">
         <v>289</v>
       </c>
-      <c r="B293" s="16">
+      <c r="B293" s="7">
         <v>42837</v>
       </c>
       <c r="C293" s="3"/>
@@ -12942,22 +13014,22 @@
       <c r="J293" s="4">
         <v>274</v>
       </c>
-      <c r="K293" s="6">
+      <c r="K293" s="5">
         <v>259</v>
       </c>
-      <c r="L293" s="6">
+      <c r="L293" s="5">
         <v>199</v>
       </c>
-      <c r="M293" s="6">
+      <c r="M293" s="5">
         <v>110</v>
       </c>
-      <c r="N293" s="7"/>
+      <c r="N293" s="6"/>
     </row>
     <row r="294" spans="1:14" ht="22.5">
       <c r="A294" s="4">
         <v>290</v>
       </c>
-      <c r="B294" s="16">
+      <c r="B294" s="7">
         <v>42838</v>
       </c>
       <c r="C294" s="3"/>
@@ -12984,22 +13056,22 @@
       <c r="J294" s="4">
         <v>275</v>
       </c>
-      <c r="K294" s="6">
+      <c r="K294" s="5">
         <v>260</v>
       </c>
-      <c r="L294" s="6">
+      <c r="L294" s="5">
         <v>200</v>
       </c>
-      <c r="M294" s="6">
+      <c r="M294" s="5">
         <v>111</v>
       </c>
-      <c r="N294" s="7"/>
+      <c r="N294" s="6"/>
     </row>
     <row r="295" spans="1:14" ht="22.5">
       <c r="A295" s="4">
         <v>291</v>
       </c>
-      <c r="B295" s="16">
+      <c r="B295" s="7">
         <v>42839</v>
       </c>
       <c r="C295" s="3"/>
@@ -13026,22 +13098,22 @@
       <c r="J295" s="4">
         <v>276</v>
       </c>
-      <c r="K295" s="6">
+      <c r="K295" s="5">
         <v>261</v>
       </c>
-      <c r="L295" s="6">
+      <c r="L295" s="5">
         <v>201</v>
       </c>
-      <c r="M295" s="6">
+      <c r="M295" s="5">
         <v>112</v>
       </c>
-      <c r="N295" s="7"/>
+      <c r="N295" s="6"/>
     </row>
     <row r="296" spans="1:14" ht="22.5">
       <c r="A296" s="4">
         <v>292</v>
       </c>
-      <c r="B296" s="16">
+      <c r="B296" s="7">
         <v>42840</v>
       </c>
       <c r="C296" s="3"/>
@@ -13068,22 +13140,22 @@
       <c r="J296" s="4">
         <v>277</v>
       </c>
-      <c r="K296" s="6">
+      <c r="K296" s="5">
         <v>262</v>
       </c>
-      <c r="L296" s="6">
+      <c r="L296" s="5">
         <v>202</v>
       </c>
-      <c r="M296" s="6">
+      <c r="M296" s="5">
         <v>113</v>
       </c>
-      <c r="N296" s="7"/>
+      <c r="N296" s="6"/>
     </row>
     <row r="297" spans="1:14" ht="22.5">
       <c r="A297" s="4">
         <v>293</v>
       </c>
-      <c r="B297" s="16">
+      <c r="B297" s="7">
         <v>42841</v>
       </c>
       <c r="C297" s="3"/>
@@ -13110,22 +13182,22 @@
       <c r="J297" s="4">
         <v>278</v>
       </c>
-      <c r="K297" s="6">
+      <c r="K297" s="5">
         <v>263</v>
       </c>
-      <c r="L297" s="6">
+      <c r="L297" s="5">
         <v>203</v>
       </c>
-      <c r="M297" s="6">
+      <c r="M297" s="5">
         <v>114</v>
       </c>
-      <c r="N297" s="7"/>
+      <c r="N297" s="6"/>
     </row>
     <row r="298" spans="1:14" ht="22.5">
       <c r="A298" s="4">
         <v>294</v>
       </c>
-      <c r="B298" s="16">
+      <c r="B298" s="7">
         <v>42842</v>
       </c>
       <c r="C298" s="3"/>
@@ -13152,22 +13224,22 @@
       <c r="J298" s="4">
         <v>279</v>
       </c>
-      <c r="K298" s="6">
+      <c r="K298" s="5">
         <v>264</v>
       </c>
-      <c r="L298" s="6">
+      <c r="L298" s="5">
         <v>204</v>
       </c>
-      <c r="M298" s="6">
+      <c r="M298" s="5">
         <v>115</v>
       </c>
-      <c r="N298" s="7"/>
+      <c r="N298" s="6"/>
     </row>
     <row r="299" spans="1:14" ht="22.5">
       <c r="A299" s="4">
         <v>295</v>
       </c>
-      <c r="B299" s="16">
+      <c r="B299" s="7">
         <v>42843</v>
       </c>
       <c r="C299" s="3"/>
@@ -13194,22 +13266,22 @@
       <c r="J299" s="4">
         <v>280</v>
       </c>
-      <c r="K299" s="6">
+      <c r="K299" s="5">
         <v>265</v>
       </c>
-      <c r="L299" s="6">
+      <c r="L299" s="5">
         <v>205</v>
       </c>
-      <c r="M299" s="6">
+      <c r="M299" s="5">
         <v>116</v>
       </c>
-      <c r="N299" s="7"/>
+      <c r="N299" s="6"/>
     </row>
     <row r="300" spans="1:14" ht="22.5">
       <c r="A300" s="4">
         <v>296</v>
       </c>
-      <c r="B300" s="16">
+      <c r="B300" s="7">
         <v>42844</v>
       </c>
       <c r="C300" s="3"/>
@@ -13236,22 +13308,22 @@
       <c r="J300" s="4">
         <v>281</v>
       </c>
-      <c r="K300" s="6">
+      <c r="K300" s="5">
         <v>266</v>
       </c>
-      <c r="L300" s="6">
+      <c r="L300" s="5">
         <v>206</v>
       </c>
-      <c r="M300" s="6">
+      <c r="M300" s="5">
         <v>117</v>
       </c>
-      <c r="N300" s="7"/>
+      <c r="N300" s="6"/>
     </row>
     <row r="301" spans="1:14" ht="22.5">
       <c r="A301" s="4">
         <v>297</v>
       </c>
-      <c r="B301" s="16">
+      <c r="B301" s="7">
         <v>42845</v>
       </c>
       <c r="C301" s="3"/>
@@ -13278,22 +13350,22 @@
       <c r="J301" s="4">
         <v>282</v>
       </c>
-      <c r="K301" s="6">
+      <c r="K301" s="5">
         <v>267</v>
       </c>
-      <c r="L301" s="6">
+      <c r="L301" s="5">
         <v>207</v>
       </c>
-      <c r="M301" s="6">
+      <c r="M301" s="5">
         <v>118</v>
       </c>
-      <c r="N301" s="7"/>
+      <c r="N301" s="6"/>
     </row>
     <row r="302" spans="1:14" ht="22.5">
       <c r="A302" s="4">
         <v>298</v>
       </c>
-      <c r="B302" s="16">
+      <c r="B302" s="7">
         <v>42846</v>
       </c>
       <c r="C302" s="3"/>
@@ -13320,22 +13392,22 @@
       <c r="J302" s="4">
         <v>283</v>
       </c>
-      <c r="K302" s="6">
+      <c r="K302" s="5">
         <v>268</v>
       </c>
-      <c r="L302" s="6">
+      <c r="L302" s="5">
         <v>208</v>
       </c>
-      <c r="M302" s="6">
+      <c r="M302" s="5">
         <v>119</v>
       </c>
-      <c r="N302" s="7"/>
+      <c r="N302" s="6"/>
     </row>
     <row r="303" spans="1:14" ht="22.5">
       <c r="A303" s="4">
         <v>299</v>
       </c>
-      <c r="B303" s="16">
+      <c r="B303" s="7">
         <v>42847</v>
       </c>
       <c r="C303" s="3"/>
@@ -13362,22 +13434,22 @@
       <c r="J303" s="4">
         <v>284</v>
       </c>
-      <c r="K303" s="6">
+      <c r="K303" s="5">
         <v>269</v>
       </c>
-      <c r="L303" s="6">
+      <c r="L303" s="5">
         <v>209</v>
       </c>
-      <c r="M303" s="6">
+      <c r="M303" s="5">
         <v>120</v>
       </c>
-      <c r="N303" s="7"/>
+      <c r="N303" s="6"/>
     </row>
     <row r="304" spans="1:14" ht="22.5">
       <c r="A304" s="4">
         <v>300</v>
       </c>
-      <c r="B304" s="16">
+      <c r="B304" s="7">
         <v>42848</v>
       </c>
       <c r="C304" s="3"/>
@@ -13404,22 +13476,22 @@
       <c r="J304" s="4">
         <v>285</v>
       </c>
-      <c r="K304" s="6">
+      <c r="K304" s="5">
         <v>270</v>
       </c>
-      <c r="L304" s="6">
+      <c r="L304" s="5">
         <v>210</v>
       </c>
-      <c r="M304" s="6">
+      <c r="M304" s="5">
         <v>121</v>
       </c>
-      <c r="N304" s="7"/>
+      <c r="N304" s="6"/>
     </row>
     <row r="305" spans="1:14" ht="22.5">
       <c r="A305" s="4">
         <v>301</v>
       </c>
-      <c r="B305" s="16">
+      <c r="B305" s="7">
         <v>42849</v>
       </c>
       <c r="C305" s="3"/>
@@ -13446,22 +13518,22 @@
       <c r="J305" s="4">
         <v>286</v>
       </c>
-      <c r="K305" s="6">
+      <c r="K305" s="5">
         <v>271</v>
       </c>
-      <c r="L305" s="6">
+      <c r="L305" s="5">
         <v>211</v>
       </c>
-      <c r="M305" s="6">
+      <c r="M305" s="5">
         <v>122</v>
       </c>
-      <c r="N305" s="7"/>
+      <c r="N305" s="6"/>
     </row>
     <row r="306" spans="1:14" ht="22.5">
       <c r="A306" s="4">
         <v>302</v>
       </c>
-      <c r="B306" s="16">
+      <c r="B306" s="7">
         <v>42850</v>
       </c>
       <c r="C306" s="3"/>
@@ -13488,22 +13560,22 @@
       <c r="J306" s="4">
         <v>287</v>
       </c>
-      <c r="K306" s="6">
+      <c r="K306" s="5">
         <v>272</v>
       </c>
-      <c r="L306" s="6">
+      <c r="L306" s="5">
         <v>212</v>
       </c>
-      <c r="M306" s="6">
+      <c r="M306" s="5">
         <v>123</v>
       </c>
-      <c r="N306" s="7"/>
+      <c r="N306" s="6"/>
     </row>
     <row r="307" spans="1:14" ht="22.5">
       <c r="A307" s="4">
         <v>303</v>
       </c>
-      <c r="B307" s="16">
+      <c r="B307" s="7">
         <v>42851</v>
       </c>
       <c r="C307" s="3"/>
@@ -13530,22 +13602,22 @@
       <c r="J307" s="4">
         <v>288</v>
       </c>
-      <c r="K307" s="6">
+      <c r="K307" s="5">
         <v>273</v>
       </c>
-      <c r="L307" s="6">
+      <c r="L307" s="5">
         <v>213</v>
       </c>
-      <c r="M307" s="6">
+      <c r="M307" s="5">
         <v>124</v>
       </c>
-      <c r="N307" s="7"/>
+      <c r="N307" s="6"/>
     </row>
     <row r="308" spans="1:14" ht="22.5">
       <c r="A308" s="4">
         <v>304</v>
       </c>
-      <c r="B308" s="16">
+      <c r="B308" s="7">
         <v>42852</v>
       </c>
       <c r="C308" s="3"/>
@@ -13572,22 +13644,22 @@
       <c r="J308" s="4">
         <v>289</v>
       </c>
-      <c r="K308" s="6">
+      <c r="K308" s="5">
         <v>274</v>
       </c>
-      <c r="L308" s="6">
+      <c r="L308" s="5">
         <v>214</v>
       </c>
-      <c r="M308" s="6">
+      <c r="M308" s="5">
         <v>125</v>
       </c>
-      <c r="N308" s="7"/>
+      <c r="N308" s="6"/>
     </row>
     <row r="309" spans="1:14" ht="22.5">
       <c r="A309" s="4">
         <v>305</v>
       </c>
-      <c r="B309" s="16">
+      <c r="B309" s="7">
         <v>42853</v>
       </c>
       <c r="C309" s="3"/>
@@ -13614,22 +13686,22 @@
       <c r="J309" s="4">
         <v>290</v>
       </c>
-      <c r="K309" s="6">
+      <c r="K309" s="5">
         <v>275</v>
       </c>
-      <c r="L309" s="6">
+      <c r="L309" s="5">
         <v>215</v>
       </c>
-      <c r="M309" s="6">
+      <c r="M309" s="5">
         <v>126</v>
       </c>
-      <c r="N309" s="7"/>
+      <c r="N309" s="6"/>
     </row>
     <row r="310" spans="1:14" ht="22.5">
       <c r="A310" s="4">
         <v>306</v>
       </c>
-      <c r="B310" s="16">
+      <c r="B310" s="7">
         <v>42854</v>
       </c>
       <c r="C310" s="3"/>
@@ -13656,22 +13728,22 @@
       <c r="J310" s="4">
         <v>291</v>
       </c>
-      <c r="K310" s="6">
+      <c r="K310" s="5">
         <v>276</v>
       </c>
-      <c r="L310" s="6">
+      <c r="L310" s="5">
         <v>216</v>
       </c>
-      <c r="M310" s="6">
+      <c r="M310" s="5">
         <v>127</v>
       </c>
-      <c r="N310" s="7"/>
+      <c r="N310" s="6"/>
     </row>
     <row r="311" spans="1:14" ht="22.5">
       <c r="A311" s="4">
         <v>307</v>
       </c>
-      <c r="B311" s="16">
+      <c r="B311" s="7">
         <v>42855</v>
       </c>
       <c r="C311" s="3"/>
@@ -13698,22 +13770,22 @@
       <c r="J311" s="4">
         <v>292</v>
       </c>
-      <c r="K311" s="6">
+      <c r="K311" s="5">
         <v>277</v>
       </c>
-      <c r="L311" s="6">
+      <c r="L311" s="5">
         <v>217</v>
       </c>
-      <c r="M311" s="6">
+      <c r="M311" s="5">
         <v>128</v>
       </c>
-      <c r="N311" s="7"/>
+      <c r="N311" s="6"/>
     </row>
     <row r="312" spans="1:14" ht="22.5">
       <c r="A312" s="4">
         <v>308</v>
       </c>
-      <c r="B312" s="16">
+      <c r="B312" s="7">
         <v>42856</v>
       </c>
       <c r="C312" s="3"/>
@@ -13740,22 +13812,22 @@
       <c r="J312" s="4">
         <v>293</v>
       </c>
-      <c r="K312" s="6">
+      <c r="K312" s="5">
         <v>278</v>
       </c>
-      <c r="L312" s="6">
+      <c r="L312" s="5">
         <v>218</v>
       </c>
-      <c r="M312" s="6">
+      <c r="M312" s="5">
         <v>129</v>
       </c>
-      <c r="N312" s="7"/>
+      <c r="N312" s="6"/>
     </row>
     <row r="313" spans="1:14" ht="22.5">
       <c r="A313" s="4">
         <v>309</v>
       </c>
-      <c r="B313" s="16">
+      <c r="B313" s="7">
         <v>42857</v>
       </c>
       <c r="C313" s="3"/>
@@ -13782,22 +13854,22 @@
       <c r="J313" s="4">
         <v>294</v>
       </c>
-      <c r="K313" s="6">
+      <c r="K313" s="5">
         <v>279</v>
       </c>
-      <c r="L313" s="6">
+      <c r="L313" s="5">
         <v>219</v>
       </c>
-      <c r="M313" s="6">
+      <c r="M313" s="5">
         <v>130</v>
       </c>
-      <c r="N313" s="7"/>
+      <c r="N313" s="6"/>
     </row>
     <row r="314" spans="1:14" ht="22.5">
       <c r="A314" s="4">
         <v>310</v>
       </c>
-      <c r="B314" s="16">
+      <c r="B314" s="7">
         <v>42858</v>
       </c>
       <c r="C314" s="3"/>
@@ -13824,22 +13896,22 @@
       <c r="J314" s="4">
         <v>295</v>
       </c>
-      <c r="K314" s="6">
+      <c r="K314" s="5">
         <v>280</v>
       </c>
-      <c r="L314" s="6">
+      <c r="L314" s="5">
         <v>220</v>
       </c>
-      <c r="M314" s="6">
+      <c r="M314" s="5">
         <v>131</v>
       </c>
-      <c r="N314" s="7"/>
+      <c r="N314" s="6"/>
     </row>
     <row r="315" spans="1:14" ht="22.5">
       <c r="A315" s="4">
         <v>311</v>
       </c>
-      <c r="B315" s="16">
+      <c r="B315" s="7">
         <v>42859</v>
       </c>
       <c r="C315" s="3"/>
@@ -13866,22 +13938,22 @@
       <c r="J315" s="4">
         <v>296</v>
       </c>
-      <c r="K315" s="6">
+      <c r="K315" s="5">
         <v>281</v>
       </c>
-      <c r="L315" s="6">
+      <c r="L315" s="5">
         <v>221</v>
       </c>
-      <c r="M315" s="6">
+      <c r="M315" s="5">
         <v>132</v>
       </c>
-      <c r="N315" s="7"/>
+      <c r="N315" s="6"/>
     </row>
     <row r="316" spans="1:14" ht="22.5">
       <c r="A316" s="4">
         <v>312</v>
       </c>
-      <c r="B316" s="16">
+      <c r="B316" s="7">
         <v>42860</v>
       </c>
       <c r="C316" s="3"/>
@@ -13908,22 +13980,22 @@
       <c r="J316" s="4">
         <v>297</v>
       </c>
-      <c r="K316" s="6">
+      <c r="K316" s="5">
         <v>282</v>
       </c>
-      <c r="L316" s="6">
+      <c r="L316" s="5">
         <v>222</v>
       </c>
-      <c r="M316" s="6">
+      <c r="M316" s="5">
         <v>133</v>
       </c>
-      <c r="N316" s="7"/>
+      <c r="N316" s="6"/>
     </row>
     <row r="317" spans="1:14" ht="22.5">
       <c r="A317" s="4">
         <v>313</v>
       </c>
-      <c r="B317" s="16">
+      <c r="B317" s="7">
         <v>42861</v>
       </c>
       <c r="C317" s="3"/>
@@ -13950,22 +14022,22 @@
       <c r="J317" s="4">
         <v>298</v>
       </c>
-      <c r="K317" s="6">
+      <c r="K317" s="5">
         <v>283</v>
       </c>
-      <c r="L317" s="6">
+      <c r="L317" s="5">
         <v>223</v>
       </c>
-      <c r="M317" s="6">
+      <c r="M317" s="5">
         <v>134</v>
       </c>
-      <c r="N317" s="7"/>
+      <c r="N317" s="6"/>
     </row>
     <row r="318" spans="1:14" ht="22.5">
       <c r="A318" s="4">
         <v>314</v>
       </c>
-      <c r="B318" s="16">
+      <c r="B318" s="7">
         <v>42862</v>
       </c>
       <c r="C318" s="3"/>
@@ -13992,22 +14064,22 @@
       <c r="J318" s="4">
         <v>299</v>
       </c>
-      <c r="K318" s="6">
+      <c r="K318" s="5">
         <v>284</v>
       </c>
-      <c r="L318" s="6">
+      <c r="L318" s="5">
         <v>224</v>
       </c>
-      <c r="M318" s="6">
+      <c r="M318" s="5">
         <v>135</v>
       </c>
-      <c r="N318" s="7"/>
+      <c r="N318" s="6"/>
     </row>
     <row r="319" spans="1:14" ht="22.5">
       <c r="A319" s="4">
         <v>315</v>
       </c>
-      <c r="B319" s="16">
+      <c r="B319" s="7">
         <v>42863</v>
       </c>
       <c r="C319" s="3"/>
@@ -14034,22 +14106,22 @@
       <c r="J319" s="4">
         <v>300</v>
       </c>
-      <c r="K319" s="6">
+      <c r="K319" s="5">
         <v>285</v>
       </c>
-      <c r="L319" s="6">
+      <c r="L319" s="5">
         <v>225</v>
       </c>
-      <c r="M319" s="6">
+      <c r="M319" s="5">
         <v>136</v>
       </c>
-      <c r="N319" s="7"/>
+      <c r="N319" s="6"/>
     </row>
     <row r="320" spans="1:14" ht="22.5">
       <c r="A320" s="4">
         <v>316</v>
       </c>
-      <c r="B320" s="16">
+      <c r="B320" s="7">
         <v>42864</v>
       </c>
       <c r="C320" s="3"/>
@@ -14076,22 +14148,22 @@
       <c r="J320" s="4">
         <v>301</v>
       </c>
-      <c r="K320" s="6">
+      <c r="K320" s="5">
         <v>286</v>
       </c>
-      <c r="L320" s="6">
+      <c r="L320" s="5">
         <v>226</v>
       </c>
-      <c r="M320" s="6">
+      <c r="M320" s="5">
         <v>137</v>
       </c>
-      <c r="N320" s="7"/>
+      <c r="N320" s="6"/>
     </row>
     <row r="321" spans="1:14" ht="22.5">
       <c r="A321" s="4">
         <v>317</v>
       </c>
-      <c r="B321" s="16">
+      <c r="B321" s="7">
         <v>42865</v>
       </c>
       <c r="C321" s="3"/>
@@ -14118,22 +14190,22 @@
       <c r="J321" s="4">
         <v>302</v>
       </c>
-      <c r="K321" s="6">
+      <c r="K321" s="5">
         <v>287</v>
       </c>
-      <c r="L321" s="6">
+      <c r="L321" s="5">
         <v>227</v>
       </c>
-      <c r="M321" s="6">
+      <c r="M321" s="5">
         <v>138</v>
       </c>
-      <c r="N321" s="7"/>
+      <c r="N321" s="6"/>
     </row>
     <row r="322" spans="1:14" ht="22.5">
       <c r="A322" s="4">
         <v>318</v>
       </c>
-      <c r="B322" s="16">
+      <c r="B322" s="7">
         <v>42866</v>
       </c>
       <c r="C322" s="3"/>
@@ -14160,22 +14232,22 @@
       <c r="J322" s="4">
         <v>303</v>
       </c>
-      <c r="K322" s="6">
+      <c r="K322" s="5">
         <v>288</v>
       </c>
-      <c r="L322" s="6">
+      <c r="L322" s="5">
         <v>228</v>
       </c>
-      <c r="M322" s="6">
+      <c r="M322" s="5">
         <v>139</v>
       </c>
-      <c r="N322" s="7"/>
+      <c r="N322" s="6"/>
     </row>
     <row r="323" spans="1:14" ht="22.5">
       <c r="A323" s="4">
         <v>319</v>
       </c>
-      <c r="B323" s="16">
+      <c r="B323" s="7">
         <v>42867</v>
       </c>
       <c r="C323" s="3"/>
@@ -14202,22 +14274,22 @@
       <c r="J323" s="4">
         <v>304</v>
       </c>
-      <c r="K323" s="6">
+      <c r="K323" s="5">
         <v>289</v>
       </c>
-      <c r="L323" s="6">
+      <c r="L323" s="5">
         <v>229</v>
       </c>
-      <c r="M323" s="6">
+      <c r="M323" s="5">
         <v>140</v>
       </c>
-      <c r="N323" s="7"/>
+      <c r="N323" s="6"/>
     </row>
     <row r="324" spans="1:14" ht="22.5">
       <c r="A324" s="4">
         <v>320</v>
       </c>
-      <c r="B324" s="16">
+      <c r="B324" s="7">
         <v>42868</v>
       </c>
       <c r="C324" s="3"/>
@@ -14244,22 +14316,22 @@
       <c r="J324" s="4">
         <v>305</v>
       </c>
-      <c r="K324" s="6">
+      <c r="K324" s="5">
         <v>290</v>
       </c>
-      <c r="L324" s="6">
+      <c r="L324" s="5">
         <v>230</v>
       </c>
-      <c r="M324" s="6">
+      <c r="M324" s="5">
         <v>141</v>
       </c>
-      <c r="N324" s="7"/>
+      <c r="N324" s="6"/>
     </row>
     <row r="325" spans="1:14" ht="22.5">
       <c r="A325" s="4">
         <v>321</v>
       </c>
-      <c r="B325" s="16">
+      <c r="B325" s="7">
         <v>42869</v>
       </c>
       <c r="C325" s="3"/>
@@ -14286,22 +14358,22 @@
       <c r="J325" s="4">
         <v>306</v>
       </c>
-      <c r="K325" s="6">
+      <c r="K325" s="5">
         <v>291</v>
       </c>
-      <c r="L325" s="6">
+      <c r="L325" s="5">
         <v>231</v>
       </c>
-      <c r="M325" s="6">
+      <c r="M325" s="5">
         <v>142</v>
       </c>
-      <c r="N325" s="7"/>
+      <c r="N325" s="6"/>
     </row>
     <row r="326" spans="1:14" ht="22.5">
       <c r="A326" s="4">
         <v>322</v>
       </c>
-      <c r="B326" s="16">
+      <c r="B326" s="7">
         <v>42870</v>
       </c>
       <c r="C326" s="3"/>
@@ -14328,22 +14400,22 @@
       <c r="J326" s="4">
         <v>307</v>
       </c>
-      <c r="K326" s="6">
+      <c r="K326" s="5">
         <v>292</v>
       </c>
-      <c r="L326" s="6">
+      <c r="L326" s="5">
         <v>232</v>
       </c>
-      <c r="M326" s="6">
+      <c r="M326" s="5">
         <v>143</v>
       </c>
-      <c r="N326" s="7"/>
+      <c r="N326" s="6"/>
     </row>
     <row r="327" spans="1:14" ht="22.5">
       <c r="A327" s="4">
         <v>323</v>
       </c>
-      <c r="B327" s="16">
+      <c r="B327" s="7">
         <v>42871</v>
       </c>
       <c r="C327" s="3"/>
@@ -14370,22 +14442,22 @@
       <c r="J327" s="4">
         <v>308</v>
       </c>
-      <c r="K327" s="6">
+      <c r="K327" s="5">
         <v>293</v>
       </c>
-      <c r="L327" s="6">
+      <c r="L327" s="5">
         <v>233</v>
       </c>
-      <c r="M327" s="6">
+      <c r="M327" s="5">
         <v>144</v>
       </c>
-      <c r="N327" s="7"/>
+      <c r="N327" s="6"/>
     </row>
     <row r="328" spans="1:14" ht="22.5">
       <c r="A328" s="4">
         <v>324</v>
       </c>
-      <c r="B328" s="16">
+      <c r="B328" s="7">
         <v>42872</v>
       </c>
       <c r="C328" s="3"/>
@@ -14412,22 +14484,22 @@
       <c r="J328" s="4">
         <v>309</v>
       </c>
-      <c r="K328" s="6">
+      <c r="K328" s="5">
         <v>294</v>
       </c>
-      <c r="L328" s="6">
+      <c r="L328" s="5">
         <v>234</v>
       </c>
-      <c r="M328" s="6">
+      <c r="M328" s="5">
         <v>145</v>
       </c>
-      <c r="N328" s="7"/>
+      <c r="N328" s="6"/>
     </row>
     <row r="329" spans="1:14" ht="22.5">
       <c r="A329" s="4">
         <v>325</v>
       </c>
-      <c r="B329" s="16">
+      <c r="B329" s="7">
         <v>42873</v>
       </c>
       <c r="C329" s="3"/>
@@ -14454,22 +14526,22 @@
       <c r="J329" s="4">
         <v>310</v>
       </c>
-      <c r="K329" s="6">
+      <c r="K329" s="5">
         <v>295</v>
       </c>
-      <c r="L329" s="6">
+      <c r="L329" s="5">
         <v>235</v>
       </c>
-      <c r="M329" s="6">
+      <c r="M329" s="5">
         <v>146</v>
       </c>
-      <c r="N329" s="7"/>
+      <c r="N329" s="6"/>
     </row>
     <row r="330" spans="1:14" ht="22.5">
       <c r="A330" s="4">
         <v>326</v>
       </c>
-      <c r="B330" s="16">
+      <c r="B330" s="7">
         <v>42874</v>
       </c>
       <c r="C330" s="3"/>
@@ -14496,22 +14568,22 @@
       <c r="J330" s="4">
         <v>311</v>
       </c>
-      <c r="K330" s="6">
+      <c r="K330" s="5">
         <v>296</v>
       </c>
-      <c r="L330" s="6">
+      <c r="L330" s="5">
         <v>236</v>
       </c>
-      <c r="M330" s="6">
+      <c r="M330" s="5">
         <v>147</v>
       </c>
-      <c r="N330" s="7"/>
+      <c r="N330" s="6"/>
     </row>
     <row r="331" spans="1:14" ht="22.5">
       <c r="A331" s="4">
         <v>327</v>
       </c>
-      <c r="B331" s="16">
+      <c r="B331" s="7">
         <v>42875</v>
       </c>
       <c r="C331" s="3"/>
@@ -14538,22 +14610,22 @@
       <c r="J331" s="4">
         <v>312</v>
       </c>
-      <c r="K331" s="6">
+      <c r="K331" s="5">
         <v>297</v>
       </c>
-      <c r="L331" s="6">
+      <c r="L331" s="5">
         <v>237</v>
       </c>
-      <c r="M331" s="6">
+      <c r="M331" s="5">
         <v>148</v>
       </c>
-      <c r="N331" s="7"/>
+      <c r="N331" s="6"/>
     </row>
     <row r="332" spans="1:14" ht="22.5">
       <c r="A332" s="4">
         <v>328</v>
       </c>
-      <c r="B332" s="16">
+      <c r="B332" s="7">
         <v>42876</v>
       </c>
       <c r="C332" s="3"/>
@@ -14580,22 +14652,22 @@
       <c r="J332" s="4">
         <v>313</v>
       </c>
-      <c r="K332" s="6">
+      <c r="K332" s="5">
         <v>298</v>
       </c>
-      <c r="L332" s="6">
+      <c r="L332" s="5">
         <v>238</v>
       </c>
-      <c r="M332" s="6">
+      <c r="M332" s="5">
         <v>149</v>
       </c>
-      <c r="N332" s="7"/>
+      <c r="N332" s="6"/>
     </row>
     <row r="333" spans="1:14" ht="22.5">
       <c r="A333" s="4">
         <v>329</v>
       </c>
-      <c r="B333" s="16">
+      <c r="B333" s="7">
         <v>42877</v>
       </c>
       <c r="C333" s="3"/>
@@ -14622,22 +14694,22 @@
       <c r="J333" s="4">
         <v>314</v>
       </c>
-      <c r="K333" s="6">
+      <c r="K333" s="5">
         <v>299</v>
       </c>
-      <c r="L333" s="6">
+      <c r="L333" s="5">
         <v>239</v>
       </c>
-      <c r="M333" s="6">
+      <c r="M333" s="5">
         <v>150</v>
       </c>
-      <c r="N333" s="7"/>
+      <c r="N333" s="6"/>
     </row>
     <row r="334" spans="1:14" ht="22.5">
       <c r="A334" s="4">
         <v>330</v>
       </c>
-      <c r="B334" s="16">
+      <c r="B334" s="7">
         <v>42878</v>
       </c>
       <c r="C334" s="3"/>
@@ -14664,22 +14736,22 @@
       <c r="J334" s="4">
         <v>315</v>
       </c>
-      <c r="K334" s="6">
+      <c r="K334" s="5">
         <v>300</v>
       </c>
-      <c r="L334" s="6">
+      <c r="L334" s="5">
         <v>240</v>
       </c>
-      <c r="M334" s="6">
+      <c r="M334" s="5">
         <v>151</v>
       </c>
-      <c r="N334" s="7"/>
+      <c r="N334" s="6"/>
     </row>
     <row r="335" spans="1:14" ht="22.5">
       <c r="A335" s="4">
         <v>331</v>
       </c>
-      <c r="B335" s="16">
+      <c r="B335" s="7">
         <v>42879</v>
       </c>
       <c r="C335" s="3"/>
@@ -14706,22 +14778,22 @@
       <c r="J335" s="4">
         <v>316</v>
       </c>
-      <c r="K335" s="6">
+      <c r="K335" s="5">
         <v>301</v>
       </c>
-      <c r="L335" s="6">
+      <c r="L335" s="5">
         <v>241</v>
       </c>
-      <c r="M335" s="6">
+      <c r="M335" s="5">
         <v>152</v>
       </c>
-      <c r="N335" s="7"/>
+      <c r="N335" s="6"/>
     </row>
     <row r="336" spans="1:14" ht="22.5">
       <c r="A336" s="4">
         <v>332</v>
       </c>
-      <c r="B336" s="16">
+      <c r="B336" s="7">
         <v>42880</v>
       </c>
       <c r="C336" s="3"/>
@@ -14748,22 +14820,22 @@
       <c r="J336" s="4">
         <v>317</v>
       </c>
-      <c r="K336" s="6">
+      <c r="K336" s="5">
         <v>302</v>
       </c>
-      <c r="L336" s="6">
+      <c r="L336" s="5">
         <v>242</v>
       </c>
-      <c r="M336" s="6">
+      <c r="M336" s="5">
         <v>153</v>
       </c>
-      <c r="N336" s="7"/>
+      <c r="N336" s="6"/>
     </row>
     <row r="337" spans="1:14" ht="22.5">
       <c r="A337" s="4">
         <v>333</v>
       </c>
-      <c r="B337" s="16">
+      <c r="B337" s="7">
         <v>42881</v>
       </c>
       <c r="C337" s="3"/>
@@ -14790,22 +14862,22 @@
       <c r="J337" s="4">
         <v>318</v>
       </c>
-      <c r="K337" s="6">
+      <c r="K337" s="5">
         <v>303</v>
       </c>
-      <c r="L337" s="6">
+      <c r="L337" s="5">
         <v>243</v>
       </c>
-      <c r="M337" s="6">
+      <c r="M337" s="5">
         <v>154</v>
       </c>
-      <c r="N337" s="7"/>
+      <c r="N337" s="6"/>
     </row>
     <row r="338" spans="1:14" ht="22.5">
       <c r="A338" s="4">
         <v>334</v>
       </c>
-      <c r="B338" s="16">
+      <c r="B338" s="7">
         <v>42882</v>
       </c>
       <c r="C338" s="3"/>
@@ -14832,22 +14904,22 @@
       <c r="J338" s="4">
         <v>319</v>
       </c>
-      <c r="K338" s="6">
+      <c r="K338" s="5">
         <v>304</v>
       </c>
-      <c r="L338" s="6">
+      <c r="L338" s="5">
         <v>244</v>
       </c>
-      <c r="M338" s="6">
+      <c r="M338" s="5">
         <v>155</v>
       </c>
-      <c r="N338" s="7"/>
+      <c r="N338" s="6"/>
     </row>
     <row r="339" spans="1:14" ht="22.5">
       <c r="A339" s="4">
         <v>335</v>
       </c>
-      <c r="B339" s="16">
+      <c r="B339" s="7">
         <v>42883</v>
       </c>
       <c r="C339" s="3"/>
@@ -14874,22 +14946,22 @@
       <c r="J339" s="4">
         <v>320</v>
       </c>
-      <c r="K339" s="6">
+      <c r="K339" s="5">
         <v>305</v>
       </c>
-      <c r="L339" s="6">
+      <c r="L339" s="5">
         <v>245</v>
       </c>
-      <c r="M339" s="6">
+      <c r="M339" s="5">
         <v>156</v>
       </c>
-      <c r="N339" s="7"/>
+      <c r="N339" s="6"/>
     </row>
     <row r="340" spans="1:14" ht="22.5">
       <c r="A340" s="4">
         <v>336</v>
       </c>
-      <c r="B340" s="16">
+      <c r="B340" s="7">
         <v>42884</v>
       </c>
       <c r="C340" s="3"/>
@@ -14916,22 +14988,22 @@
       <c r="J340" s="4">
         <v>321</v>
       </c>
-      <c r="K340" s="6">
+      <c r="K340" s="5">
         <v>306</v>
       </c>
-      <c r="L340" s="6">
+      <c r="L340" s="5">
         <v>246</v>
       </c>
-      <c r="M340" s="6">
+      <c r="M340" s="5">
         <v>157</v>
       </c>
-      <c r="N340" s="7"/>
+      <c r="N340" s="6"/>
     </row>
     <row r="341" spans="1:14" ht="22.5">
       <c r="A341" s="4">
         <v>337</v>
       </c>
-      <c r="B341" s="16">
+      <c r="B341" s="7">
         <v>42885</v>
       </c>
       <c r="C341" s="3"/>
@@ -14958,22 +15030,22 @@
       <c r="J341" s="4">
         <v>322</v>
       </c>
-      <c r="K341" s="6">
+      <c r="K341" s="5">
         <v>307</v>
       </c>
-      <c r="L341" s="6">
+      <c r="L341" s="5">
         <v>247</v>
       </c>
-      <c r="M341" s="6">
+      <c r="M341" s="5">
         <v>158</v>
       </c>
-      <c r="N341" s="7"/>
+      <c r="N341" s="6"/>
     </row>
     <row r="342" spans="1:14" ht="22.5">
       <c r="A342" s="4">
         <v>338</v>
       </c>
-      <c r="B342" s="16">
+      <c r="B342" s="7">
         <v>42886</v>
       </c>
       <c r="C342" s="3"/>
@@ -15000,22 +15072,22 @@
       <c r="J342" s="4">
         <v>323</v>
       </c>
-      <c r="K342" s="6">
+      <c r="K342" s="5">
         <v>308</v>
       </c>
-      <c r="L342" s="6">
+      <c r="L342" s="5">
         <v>248</v>
       </c>
-      <c r="M342" s="6">
+      <c r="M342" s="5">
         <v>159</v>
       </c>
-      <c r="N342" s="7"/>
+      <c r="N342" s="6"/>
     </row>
     <row r="343" spans="1:14" ht="22.5">
       <c r="A343" s="4">
         <v>339</v>
       </c>
-      <c r="B343" s="16">
+      <c r="B343" s="7">
         <v>42887</v>
       </c>
       <c r="C343" s="3"/>
@@ -15042,22 +15114,22 @@
       <c r="J343" s="4">
         <v>324</v>
       </c>
-      <c r="K343" s="6">
+      <c r="K343" s="5">
         <v>309</v>
       </c>
-      <c r="L343" s="6">
+      <c r="L343" s="5">
         <v>249</v>
       </c>
-      <c r="M343" s="6">
+      <c r="M343" s="5">
         <v>160</v>
       </c>
-      <c r="N343" s="7"/>
+      <c r="N343" s="6"/>
     </row>
     <row r="344" spans="1:14" ht="22.5">
       <c r="A344" s="4">
         <v>340</v>
       </c>
-      <c r="B344" s="16">
+      <c r="B344" s="7">
         <v>42888</v>
       </c>
       <c r="C344" s="3"/>
@@ -15084,22 +15156,22 @@
       <c r="J344" s="4">
         <v>325</v>
       </c>
-      <c r="K344" s="6">
+      <c r="K344" s="5">
         <v>310</v>
       </c>
-      <c r="L344" s="6">
+      <c r="L344" s="5">
         <v>250</v>
       </c>
-      <c r="M344" s="6">
+      <c r="M344" s="5">
         <v>161</v>
       </c>
-      <c r="N344" s="7"/>
+      <c r="N344" s="6"/>
     </row>
     <row r="345" spans="1:14" ht="22.5">
       <c r="A345" s="4">
         <v>341</v>
       </c>
-      <c r="B345" s="16">
+      <c r="B345" s="7">
         <v>42889</v>
       </c>
       <c r="C345" s="3"/>
@@ -15126,22 +15198,22 @@
       <c r="J345" s="4">
         <v>326</v>
       </c>
-      <c r="K345" s="6">
+      <c r="K345" s="5">
         <v>311</v>
       </c>
-      <c r="L345" s="6">
+      <c r="L345" s="5">
         <v>251</v>
       </c>
-      <c r="M345" s="6">
+      <c r="M345" s="5">
         <v>162</v>
       </c>
-      <c r="N345" s="7"/>
+      <c r="N345" s="6"/>
     </row>
     <row r="346" spans="1:14" ht="22.5">
       <c r="A346" s="4">
         <v>342</v>
       </c>
-      <c r="B346" s="16">
+      <c r="B346" s="7">
         <v>42890</v>
       </c>
       <c r="C346" s="3"/>
@@ -15168,22 +15240,22 @@
       <c r="J346" s="4">
         <v>327</v>
       </c>
-      <c r="K346" s="6">
+      <c r="K346" s="5">
         <v>312</v>
       </c>
-      <c r="L346" s="6">
+      <c r="L346" s="5">
         <v>252</v>
       </c>
-      <c r="M346" s="6">
+      <c r="M346" s="5">
         <v>163</v>
       </c>
-      <c r="N346" s="7"/>
+      <c r="N346" s="6"/>
     </row>
     <row r="347" spans="1:14" ht="22.5">
       <c r="A347" s="4">
         <v>343</v>
       </c>
-      <c r="B347" s="16">
+      <c r="B347" s="7">
         <v>42891</v>
       </c>
       <c r="C347" s="3"/>
@@ -15210,22 +15282,22 @@
       <c r="J347" s="4">
         <v>328</v>
       </c>
-      <c r="K347" s="6">
+      <c r="K347" s="5">
         <v>313</v>
       </c>
-      <c r="L347" s="6">
+      <c r="L347" s="5">
         <v>253</v>
       </c>
-      <c r="M347" s="6">
+      <c r="M347" s="5">
         <v>164</v>
       </c>
-      <c r="N347" s="7"/>
+      <c r="N347" s="6"/>
     </row>
     <row r="348" spans="1:14" ht="22.5">
       <c r="A348" s="4">
         <v>344</v>
       </c>
-      <c r="B348" s="16">
+      <c r="B348" s="7">
         <v>42892</v>
       </c>
       <c r="C348" s="3"/>
@@ -15252,22 +15324,22 @@
       <c r="J348" s="4">
         <v>329</v>
       </c>
-      <c r="K348" s="6">
+      <c r="K348" s="5">
         <v>314</v>
       </c>
-      <c r="L348" s="6">
+      <c r="L348" s="5">
         <v>254</v>
       </c>
-      <c r="M348" s="6">
+      <c r="M348" s="5">
         <v>165</v>
       </c>
-      <c r="N348" s="7"/>
+      <c r="N348" s="6"/>
     </row>
     <row r="349" spans="1:14" ht="22.5">
       <c r="A349" s="4">
         <v>345</v>
       </c>
-      <c r="B349" s="16">
+      <c r="B349" s="7">
         <v>42893</v>
       </c>
       <c r="C349" s="3"/>
@@ -15294,22 +15366,22 @@
       <c r="J349" s="4">
         <v>330</v>
       </c>
-      <c r="K349" s="6">
+      <c r="K349" s="5">
         <v>315</v>
       </c>
-      <c r="L349" s="6">
+      <c r="L349" s="5">
         <v>255</v>
       </c>
-      <c r="M349" s="6">
+      <c r="M349" s="5">
         <v>166</v>
       </c>
-      <c r="N349" s="7"/>
+      <c r="N349" s="6"/>
     </row>
     <row r="350" spans="1:14" ht="22.5">
       <c r="A350" s="4">
         <v>346</v>
       </c>
-      <c r="B350" s="16">
+      <c r="B350" s="7">
         <v>42894</v>
       </c>
       <c r="C350" s="3"/>
@@ -15336,22 +15408,22 @@
       <c r="J350" s="4">
         <v>331</v>
       </c>
-      <c r="K350" s="6">
+      <c r="K350" s="5">
         <v>316</v>
       </c>
-      <c r="L350" s="6">
+      <c r="L350" s="5">
         <v>256</v>
       </c>
-      <c r="M350" s="6">
+      <c r="M350" s="5">
         <v>167</v>
       </c>
-      <c r="N350" s="7"/>
+      <c r="N350" s="6"/>
     </row>
     <row r="351" spans="1:14" ht="22.5">
       <c r="A351" s="4">
         <v>347</v>
       </c>
-      <c r="B351" s="16">
+      <c r="B351" s="7">
         <v>42895</v>
       </c>
       <c r="C351" s="3"/>
@@ -15378,22 +15450,22 @@
       <c r="J351" s="4">
         <v>332</v>
       </c>
-      <c r="K351" s="6">
+      <c r="K351" s="5">
         <v>317</v>
       </c>
-      <c r="L351" s="6">
+      <c r="L351" s="5">
         <v>257</v>
       </c>
-      <c r="M351" s="6">
+      <c r="M351" s="5">
         <v>168</v>
       </c>
-      <c r="N351" s="7"/>
+      <c r="N351" s="6"/>
     </row>
     <row r="352" spans="1:14" ht="22.5">
       <c r="A352" s="4">
         <v>348</v>
       </c>
-      <c r="B352" s="16">
+      <c r="B352" s="7">
         <v>42896</v>
       </c>
       <c r="C352" s="3"/>
@@ -15420,22 +15492,22 @@
       <c r="J352" s="4">
         <v>333</v>
       </c>
-      <c r="K352" s="6">
+      <c r="K352" s="5">
         <v>318</v>
       </c>
-      <c r="L352" s="6">
+      <c r="L352" s="5">
         <v>258</v>
       </c>
-      <c r="M352" s="6">
+      <c r="M352" s="5">
         <v>169</v>
       </c>
-      <c r="N352" s="7"/>
+      <c r="N352" s="6"/>
     </row>
     <row r="353" spans="1:14" ht="22.5">
       <c r="A353" s="4">
         <v>349</v>
       </c>
-      <c r="B353" s="16">
+      <c r="B353" s="7">
         <v>42897</v>
       </c>
       <c r="C353" s="3"/>
@@ -15462,22 +15534,22 @@
       <c r="J353" s="4">
         <v>334</v>
       </c>
-      <c r="K353" s="6">
+      <c r="K353" s="5">
         <v>319</v>
       </c>
-      <c r="L353" s="6">
+      <c r="L353" s="5">
         <v>259</v>
       </c>
-      <c r="M353" s="6">
+      <c r="M353" s="5">
         <v>170</v>
       </c>
-      <c r="N353" s="7"/>
+      <c r="N353" s="6"/>
     </row>
     <row r="354" spans="1:14" ht="22.5">
       <c r="A354" s="4">
         <v>350</v>
       </c>
-      <c r="B354" s="16">
+      <c r="B354" s="7">
         <v>42898</v>
       </c>
       <c r="C354" s="3"/>
@@ -15504,22 +15576,22 @@
       <c r="J354" s="4">
         <v>335</v>
       </c>
-      <c r="K354" s="6">
+      <c r="K354" s="5">
         <v>320</v>
       </c>
-      <c r="L354" s="6">
+      <c r="L354" s="5">
         <v>260</v>
       </c>
-      <c r="M354" s="6">
+      <c r="M354" s="5">
         <v>171</v>
       </c>
-      <c r="N354" s="7"/>
+      <c r="N354" s="6"/>
     </row>
     <row r="355" spans="1:14" ht="22.5">
       <c r="A355" s="4">
         <v>351</v>
       </c>
-      <c r="B355" s="16">
+      <c r="B355" s="7">
         <v>42899</v>
       </c>
       <c r="C355" s="3"/>
@@ -15546,22 +15618,22 @@
       <c r="J355" s="4">
         <v>336</v>
       </c>
-      <c r="K355" s="6">
+      <c r="K355" s="5">
         <v>321</v>
       </c>
-      <c r="L355" s="6">
+      <c r="L355" s="5">
         <v>261</v>
       </c>
-      <c r="M355" s="6">
+      <c r="M355" s="5">
         <v>172</v>
       </c>
-      <c r="N355" s="7"/>
+      <c r="N355" s="6"/>
     </row>
     <row r="356" spans="1:14" ht="22.5">
       <c r="A356" s="4">
         <v>352</v>
       </c>
-      <c r="B356" s="16">
+      <c r="B356" s="7">
         <v>42900</v>
       </c>
       <c r="C356" s="3"/>
@@ -15588,22 +15660,22 @@
       <c r="J356" s="4">
         <v>337</v>
       </c>
-      <c r="K356" s="6">
+      <c r="K356" s="5">
         <v>322</v>
       </c>
-      <c r="L356" s="6">
+      <c r="L356" s="5">
         <v>262</v>
       </c>
-      <c r="M356" s="6">
+      <c r="M356" s="5">
         <v>173</v>
       </c>
-      <c r="N356" s="7"/>
+      <c r="N356" s="6"/>
     </row>
     <row r="357" spans="1:14" ht="22.5">
       <c r="A357" s="4">
         <v>353</v>
       </c>
-      <c r="B357" s="16">
+      <c r="B357" s="7">
         <v>42901</v>
       </c>
       <c r="C357" s="3"/>
@@ -15630,22 +15702,22 @@
       <c r="J357" s="4">
         <v>338</v>
       </c>
-      <c r="K357" s="6">
+      <c r="K357" s="5">
         <v>323</v>
       </c>
-      <c r="L357" s="6">
+      <c r="L357" s="5">
         <v>263</v>
       </c>
-      <c r="M357" s="6">
+      <c r="M357" s="5">
         <v>174</v>
       </c>
-      <c r="N357" s="7"/>
+      <c r="N357" s="6"/>
     </row>
     <row r="358" spans="1:14" ht="22.5">
       <c r="A358" s="4">
         <v>354</v>
       </c>
-      <c r="B358" s="16">
+      <c r="B358" s="7">
         <v>42902</v>
       </c>
       <c r="C358" s="3"/>
@@ -15672,22 +15744,22 @@
       <c r="J358" s="4">
         <v>339</v>
       </c>
-      <c r="K358" s="6">
+      <c r="K358" s="5">
         <v>324</v>
       </c>
-      <c r="L358" s="6">
+      <c r="L358" s="5">
         <v>264</v>
       </c>
-      <c r="M358" s="6">
+      <c r="M358" s="5">
         <v>175</v>
       </c>
-      <c r="N358" s="7"/>
+      <c r="N358" s="6"/>
     </row>
     <row r="359" spans="1:14" ht="22.5">
       <c r="A359" s="4">
         <v>355</v>
       </c>
-      <c r="B359" s="16">
+      <c r="B359" s="7">
         <v>42903</v>
       </c>
       <c r="C359" s="3"/>
@@ -15714,22 +15786,22 @@
       <c r="J359" s="4">
         <v>340</v>
       </c>
-      <c r="K359" s="6">
+      <c r="K359" s="5">
         <v>325</v>
       </c>
-      <c r="L359" s="6">
+      <c r="L359" s="5">
         <v>265</v>
       </c>
-      <c r="M359" s="6">
+      <c r="M359" s="5">
         <v>176</v>
       </c>
-      <c r="N359" s="7"/>
+      <c r="N359" s="6"/>
     </row>
     <row r="360" spans="1:14" ht="22.5">
       <c r="A360" s="4">
         <v>356</v>
       </c>
-      <c r="B360" s="16">
+      <c r="B360" s="7">
         <v>42904</v>
       </c>
       <c r="C360" s="3"/>
@@ -15756,22 +15828,22 @@
       <c r="J360" s="4">
         <v>341</v>
       </c>
-      <c r="K360" s="6">
+      <c r="K360" s="5">
         <v>326</v>
       </c>
-      <c r="L360" s="6">
+      <c r="L360" s="5">
         <v>266</v>
       </c>
-      <c r="M360" s="6">
+      <c r="M360" s="5">
         <v>177</v>
       </c>
-      <c r="N360" s="7"/>
+      <c r="N360" s="6"/>
     </row>
     <row r="361" spans="1:14" ht="22.5">
       <c r="A361" s="4">
         <v>357</v>
       </c>
-      <c r="B361" s="16">
+      <c r="B361" s="7">
         <v>42905</v>
       </c>
       <c r="C361" s="3"/>
@@ -15798,22 +15870,22 @@
       <c r="J361" s="4">
         <v>342</v>
       </c>
-      <c r="K361" s="6">
+      <c r="K361" s="5">
         <v>327</v>
       </c>
-      <c r="L361" s="6">
+      <c r="L361" s="5">
         <v>267</v>
       </c>
-      <c r="M361" s="6">
+      <c r="M361" s="5">
         <v>178</v>
       </c>
-      <c r="N361" s="7"/>
+      <c r="N361" s="6"/>
     </row>
     <row r="362" spans="1:14" ht="22.5">
       <c r="A362" s="4">
         <v>358</v>
       </c>
-      <c r="B362" s="16">
+      <c r="B362" s="7">
         <v>42906</v>
       </c>
       <c r="C362" s="3"/>
@@ -15840,22 +15912,22 @@
       <c r="J362" s="4">
         <v>343</v>
       </c>
-      <c r="K362" s="6">
+      <c r="K362" s="5">
         <v>328</v>
       </c>
-      <c r="L362" s="6">
+      <c r="L362" s="5">
         <v>268</v>
       </c>
-      <c r="M362" s="6">
+      <c r="M362" s="5">
         <v>179</v>
       </c>
-      <c r="N362" s="7"/>
+      <c r="N362" s="6"/>
     </row>
     <row r="363" spans="1:14" ht="22.5">
       <c r="A363" s="4">
         <v>359</v>
       </c>
-      <c r="B363" s="16">
+      <c r="B363" s="7">
         <v>42907</v>
       </c>
       <c r="C363" s="3"/>
@@ -15882,22 +15954,22 @@
       <c r="J363" s="4">
         <v>344</v>
       </c>
-      <c r="K363" s="6">
+      <c r="K363" s="5">
         <v>329</v>
       </c>
-      <c r="L363" s="6">
+      <c r="L363" s="5">
         <v>269</v>
       </c>
-      <c r="M363" s="6">
+      <c r="M363" s="5">
         <v>180</v>
       </c>
-      <c r="N363" s="7"/>
+      <c r="N363" s="6"/>
     </row>
     <row r="364" spans="1:14" ht="22.5">
       <c r="A364" s="4">
         <v>360</v>
       </c>
-      <c r="B364" s="16">
+      <c r="B364" s="7">
         <v>42908</v>
       </c>
       <c r="C364" s="3"/>
@@ -15924,22 +15996,22 @@
       <c r="J364" s="4">
         <v>345</v>
       </c>
-      <c r="K364" s="6">
+      <c r="K364" s="5">
         <v>330</v>
       </c>
-      <c r="L364" s="6">
+      <c r="L364" s="5">
         <v>270</v>
       </c>
-      <c r="M364" s="6">
+      <c r="M364" s="5">
         <v>181</v>
       </c>
-      <c r="N364" s="7"/>
+      <c r="N364" s="6"/>
     </row>
     <row r="365" spans="1:14" ht="22.5">
       <c r="A365" s="4">
         <v>361</v>
       </c>
-      <c r="B365" s="16">
+      <c r="B365" s="7">
         <v>42909</v>
       </c>
       <c r="C365" s="3"/>
@@ -15966,22 +16038,22 @@
       <c r="J365" s="4">
         <v>346</v>
       </c>
-      <c r="K365" s="6">
+      <c r="K365" s="5">
         <v>331</v>
       </c>
-      <c r="L365" s="6">
+      <c r="L365" s="5">
         <v>271</v>
       </c>
-      <c r="M365" s="6">
+      <c r="M365" s="5">
         <v>182</v>
       </c>
-      <c r="N365" s="7"/>
+      <c r="N365" s="6"/>
     </row>
     <row r="366" spans="1:14" ht="22.5">
       <c r="A366" s="4">
         <v>362</v>
       </c>
-      <c r="B366" s="16">
+      <c r="B366" s="7">
         <v>42910</v>
       </c>
       <c r="C366" s="3"/>
@@ -16008,22 +16080,22 @@
       <c r="J366" s="4">
         <v>347</v>
       </c>
-      <c r="K366" s="6">
+      <c r="K366" s="5">
         <v>332</v>
       </c>
-      <c r="L366" s="6">
+      <c r="L366" s="5">
         <v>272</v>
       </c>
-      <c r="M366" s="6">
+      <c r="M366" s="5">
         <v>183</v>
       </c>
-      <c r="N366" s="7"/>
+      <c r="N366" s="6"/>
     </row>
     <row r="367" spans="1:14" ht="22.5">
       <c r="A367" s="4">
         <v>363</v>
       </c>
-      <c r="B367" s="16">
+      <c r="B367" s="7">
         <v>42911</v>
       </c>
       <c r="C367" s="3"/>
@@ -16050,22 +16122,22 @@
       <c r="J367" s="4">
         <v>348</v>
       </c>
-      <c r="K367" s="6">
+      <c r="K367" s="5">
         <v>333</v>
       </c>
-      <c r="L367" s="6">
+      <c r="L367" s="5">
         <v>273</v>
       </c>
-      <c r="M367" s="6">
+      <c r="M367" s="5">
         <v>184</v>
       </c>
-      <c r="N367" s="7"/>
+      <c r="N367" s="6"/>
     </row>
     <row r="368" spans="1:14" ht="22.5">
       <c r="A368" s="4">
         <v>364</v>
       </c>
-      <c r="B368" s="16">
+      <c r="B368" s="7">
         <v>42912</v>
       </c>
       <c r="C368" s="3"/>
@@ -16092,22 +16164,22 @@
       <c r="J368" s="4">
         <v>349</v>
       </c>
-      <c r="K368" s="6">
+      <c r="K368" s="5">
         <v>334</v>
       </c>
-      <c r="L368" s="6">
+      <c r="L368" s="5">
         <v>274</v>
       </c>
-      <c r="M368" s="6">
+      <c r="M368" s="5">
         <v>185</v>
       </c>
-      <c r="N368" s="7"/>
+      <c r="N368" s="6"/>
     </row>
     <row r="369" spans="1:14" ht="22.5">
       <c r="A369" s="4">
         <v>365</v>
       </c>
-      <c r="B369" s="16">
+      <c r="B369" s="7">
         <v>42913</v>
       </c>
       <c r="C369" s="3"/>
@@ -16134,16 +16206,16 @@
       <c r="J369" s="4">
         <v>350</v>
       </c>
-      <c r="K369" s="6">
+      <c r="K369" s="5">
         <v>335</v>
       </c>
-      <c r="L369" s="6">
+      <c r="L369" s="5">
         <v>275</v>
       </c>
-      <c r="M369" s="6">
+      <c r="M369" s="5">
         <v>186</v>
       </c>
-      <c r="N369" s="7"/>
+      <c r="N369" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">
